--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5981B16A-B932-4F87-8895-F33809E670FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE6B507-5CB1-4485-A048-9C7E1DD796DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
@@ -2207,9 +2207,6 @@
   </si>
   <si>
     <t>Observation-steroids-fetal-lung-maturation</t>
-  </si>
-  <si>
-    <t>Observation-antibiotics-during-labor</t>
   </si>
   <si>
     <t>45.1. Characteristics of Labor and Delivery: Induction of labor</t>
@@ -3472,6 +3469,9 @@
   </si>
   <si>
     <t>Observation-fetal-death-time-point</t>
+  </si>
+  <si>
+    <t>Observation-antibiotics-administered-during-labor</t>
   </si>
 </sst>
 </file>
@@ -4192,9 +4192,9 @@
   <dimension ref="A1:L3145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="F402" sqref="F402"/>
+      <selection pane="bottomLeft" activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,7 +4230,7 @@
         <v>582</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>583</v>
@@ -4239,13 +4239,13 @@
         <v>639</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J1" s="38" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>1070</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>1071</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>640</v>
@@ -4268,14 +4268,14 @@
         <v>635</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L2" s="26"/>
     </row>
@@ -4290,20 +4290,20 @@
         <v>470</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L3" s="26"/>
     </row>
@@ -4321,16 +4321,16 @@
         <v>472</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I4" s="26"/>
       <c r="L4" s="26"/>
@@ -4349,16 +4349,16 @@
         <v>473</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L5" s="26"/>
     </row>
@@ -4376,17 +4376,17 @@
         <v>471</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L6" s="26"/>
     </row>
@@ -4404,16 +4404,16 @@
         <v>474</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I7" s="26"/>
       <c r="L7" s="26"/>
@@ -4432,19 +4432,19 @@
         <v>475</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H8" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>991</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>992</v>
       </c>
       <c r="L8" s="26"/>
     </row>
@@ -4462,17 +4462,17 @@
         <v>450</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L9" s="26"/>
     </row>
@@ -4490,17 +4490,17 @@
         <v>451</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L10" s="26"/>
     </row>
@@ -4518,7 +4518,7 @@
         <v>476</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>643</v>
@@ -4527,7 +4527,7 @@
         <v>643</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I11" s="26"/>
       <c r="L11" s="26"/>
@@ -4546,7 +4546,7 @@
         <v>477</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>643</v>
@@ -4555,7 +4555,7 @@
         <v>643</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I12" s="26"/>
       <c r="L12" s="26"/>
@@ -4574,7 +4574,7 @@
         <v>478</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>643</v>
@@ -4583,7 +4583,7 @@
         <v>643</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I13" s="26"/>
       <c r="L13" s="26"/>
@@ -4602,17 +4602,17 @@
         <v>479</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L14" s="26"/>
     </row>
@@ -4627,10 +4627,10 @@
         <v>470</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>643</v>
@@ -4639,7 +4639,7 @@
         <v>643</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I15" s="26"/>
       <c r="L15" s="26"/>
@@ -4658,7 +4658,7 @@
         <v>452</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>643</v>
@@ -4667,7 +4667,7 @@
         <v>643</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I16" s="26"/>
       <c r="L16" s="26"/>
@@ -4686,7 +4686,7 @@
         <v>480</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>643</v>
@@ -4695,7 +4695,7 @@
         <v>643</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I17" s="26"/>
       <c r="L17" s="26"/>
@@ -4714,7 +4714,7 @@
         <v>453</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>643</v>
@@ -4723,7 +4723,7 @@
         <v>643</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I18" s="26"/>
       <c r="L18" s="26"/>
@@ -4742,7 +4742,7 @@
         <v>454</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>643</v>
@@ -4751,7 +4751,7 @@
         <v>643</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I19" s="26"/>
       <c r="L19" s="26"/>
@@ -4770,7 +4770,7 @@
         <v>455</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>643</v>
@@ -4779,7 +4779,7 @@
         <v>643</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I20" s="26"/>
       <c r="L20" s="26"/>
@@ -4798,7 +4798,7 @@
         <v>481</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>643</v>
@@ -4807,7 +4807,7 @@
         <v>643</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I21" s="26"/>
       <c r="L21" s="26"/>
@@ -4826,20 +4826,20 @@
         <v>696</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I22" s="26"/>
       <c r="L22" s="27" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4853,23 +4853,23 @@
         <v>470</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I23" s="26"/>
       <c r="L23" s="27" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4883,23 +4883,23 @@
         <v>470</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4913,10 +4913,10 @@
         <v>470</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>661</v>
@@ -4925,10 +4925,10 @@
         <v>661</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4942,10 +4942,10 @@
         <v>470</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>661</v>
@@ -4954,10 +4954,10 @@
         <v>661</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4977,13 +4977,13 @@
         <v>635</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I27" s="26"/>
     </row>
@@ -5004,14 +5004,14 @@
         <v>635</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5025,10 +5025,10 @@
         <v>470</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F29" s="26" t="s">
         <v>643</v>
@@ -5037,7 +5037,7 @@
         <v>643</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I29" s="26"/>
     </row>
@@ -5058,15 +5058,15 @@
         <v>635</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="L30" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -5086,10 +5086,10 @@
         <v>635</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
@@ -5105,22 +5105,22 @@
         <v>470</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G32" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="H32" s="26" t="s">
         <v>993</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>994</v>
-      </c>
       <c r="I32" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5137,7 +5137,7 @@
         <v>457</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>643</v>
@@ -5146,10 +5146,10 @@
         <v>643</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5166,22 +5166,22 @@
         <v>458</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
         <v>484</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>658</v>
@@ -5223,17 +5223,17 @@
         <v>489</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5250,17 +5250,17 @@
         <v>490</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H37" s="26"/>
       <c r="I37" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>488</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>658</v>
@@ -5302,15 +5302,15 @@
         <v>487</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5327,15 +5327,15 @@
         <v>486</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5355,13 +5355,13 @@
         <v>635</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I41" s="26"/>
     </row>
@@ -5401,10 +5401,10 @@
         <v>470</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>661</v>
@@ -5413,10 +5413,10 @@
         <v>661</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5430,10 +5430,10 @@
         <v>470</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>661</v>
@@ -5442,10 +5442,10 @@
         <v>661</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5459,10 +5459,10 @@
         <v>470</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>661</v>
@@ -5471,10 +5471,10 @@
         <v>661</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5494,13 +5494,13 @@
         <v>635</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H46" s="42" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I46" s="26"/>
     </row>
@@ -5543,18 +5543,18 @@
         <v>663</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
       <c r="L48" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5571,7 +5571,7 @@
         <v>664</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>657</v>
@@ -5596,7 +5596,7 @@
         <v>665</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>649</v>
@@ -5621,7 +5621,7 @@
         <v>666</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>650</v>
@@ -5646,7 +5646,7 @@
         <v>667</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F52" s="26" t="s">
         <v>648</v>
@@ -5696,7 +5696,7 @@
         <v>652</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>651</v>
@@ -5721,7 +5721,7 @@
         <v>656</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F55" s="26" t="s">
         <v>655</v>
@@ -5768,16 +5768,16 @@
         <v>470</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="26"/>
@@ -5796,7 +5796,7 @@
         <v>668</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F58" s="26" t="s">
         <v>647</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>469</v>
@@ -5821,7 +5821,7 @@
         <v>463</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>643</v>
@@ -5830,13 +5830,13 @@
         <v>643</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>469</v>
@@ -5848,7 +5848,7 @@
         <v>603</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>587</v>
@@ -5874,7 +5874,7 @@
         <v>604</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>585</v>
@@ -5899,7 +5899,7 @@
         <v>605</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F62" s="26" t="s">
         <v>588</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>469</v>
@@ -5924,7 +5924,7 @@
         <v>606</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>586</v>
@@ -5949,7 +5949,7 @@
         <v>607</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F64" s="26" t="s">
         <v>584</v>
@@ -5974,7 +5974,7 @@
         <v>608</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F65" s="26" t="s">
         <v>591</v>
@@ -5999,18 +5999,18 @@
         <v>609</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
       <c r="L66" s="28" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6027,7 +6027,7 @@
         <v>610</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>593</v>
@@ -6052,7 +6052,7 @@
         <v>611</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F68" s="26" t="s">
         <v>592</v>
@@ -6074,16 +6074,16 @@
         <v>470</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
@@ -6102,7 +6102,7 @@
         <v>612</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>590</v>
@@ -6127,7 +6127,7 @@
         <v>613</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>589</v>
@@ -6188,12 +6188,12 @@
       <c r="H73" s="26"/>
       <c r="I73" s="26"/>
       <c r="L73" s="28" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B74" s="22" t="s">
         <v>469</v>
@@ -6202,26 +6202,26 @@
         <v>470</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
       <c r="L74" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>469</v>
@@ -6230,7 +6230,7 @@
         <v>470</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>635</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>469</v>
@@ -6256,7 +6256,7 @@
         <v>470</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>635</v>
@@ -6281,26 +6281,26 @@
         <v>470</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
       <c r="L77" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>469</v>
@@ -6309,7 +6309,7 @@
         <v>470</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>635</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>469</v>
@@ -6334,23 +6334,23 @@
         <v>470</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B80" s="22" t="s">
         <v>469</v>
@@ -6359,7 +6359,7 @@
         <v>470</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>635</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>469</v>
@@ -6384,26 +6384,26 @@
         <v>470</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H81" s="26"/>
       <c r="I81" s="26"/>
       <c r="L81" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>469</v>
@@ -6412,26 +6412,26 @@
         <v>470</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
       <c r="L82" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>469</v>
@@ -6440,16 +6440,16 @@
         <v>470</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
@@ -6465,23 +6465,23 @@
         <v>470</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>469</v>
@@ -6490,26 +6490,26 @@
         <v>470</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
       <c r="L85" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B86" s="22" t="s">
         <v>469</v>
@@ -6518,26 +6518,26 @@
         <v>470</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
       <c r="L86" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>469</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>469</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>469</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>469</v>
@@ -6621,16 +6621,16 @@
         <v>470</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
@@ -6647,16 +6647,16 @@
         <v>470</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -6672,16 +6672,16 @@
         <v>470</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
@@ -6697,16 +6697,16 @@
         <v>470</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
@@ -6722,16 +6722,16 @@
         <v>470</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
@@ -6747,26 +6747,26 @@
         <v>470</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
       <c r="L95" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>469</v>
@@ -6775,16 +6775,16 @@
         <v>470</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
@@ -6803,16 +6803,16 @@
         <v>464</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I97" s="26"/>
     </row>
@@ -6827,10 +6827,10 @@
         <v>470</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F98" s="26" t="s">
         <v>644</v>
@@ -6852,10 +6852,10 @@
         <v>470</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F99" s="26" t="s">
         <v>645</v>
@@ -6880,7 +6880,7 @@
         <v>465</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F100" s="26" t="s">
         <v>642</v>
@@ -6905,17 +6905,17 @@
         <v>660</v>
       </c>
       <c r="E101" s="42" t="s">
+        <v>938</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>801</v>
+      </c>
+      <c r="G101" s="42" t="s">
         <v>939</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>802</v>
-      </c>
-      <c r="G101" s="42" t="s">
-        <v>940</v>
       </c>
       <c r="H101" s="26"/>
       <c r="I101" s="42" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6929,23 +6929,23 @@
         <v>470</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I102" s="26"/>
       <c r="L102" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6965,10 +6965,10 @@
         <v>635</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -6985,16 +6985,16 @@
         <v>470</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
@@ -7113,18 +7113,18 @@
         <v>682</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
       <c r="L109" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -7177,7 +7177,7 @@
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
       <c r="L111" s="29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7197,13 +7197,13 @@
         <v>635</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H112" s="27" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I112" s="26"/>
     </row>
@@ -7221,7 +7221,7 @@
         <v>467</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F113" s="26" t="s">
         <v>646</v>
@@ -7265,13 +7265,13 @@
         <v>171</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D115" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F115" s="26" t="s">
         <v>643</v>
@@ -7280,7 +7280,7 @@
         <v>643</v>
       </c>
       <c r="H115" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I115" s="26"/>
     </row>
@@ -7292,13 +7292,13 @@
         <v>171</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D116" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F116" s="26" t="s">
         <v>643</v>
@@ -7307,7 +7307,7 @@
         <v>643</v>
       </c>
       <c r="H116" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I116" s="26"/>
     </row>
@@ -7319,25 +7319,25 @@
         <v>171</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H117" s="26" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I117" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7348,25 +7348,25 @@
         <v>171</v>
       </c>
       <c r="C118" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G118" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="H118" s="26" t="s">
         <v>993</v>
       </c>
-      <c r="H118" s="26" t="s">
-        <v>994</v>
-      </c>
       <c r="I118" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7377,23 +7377,23 @@
         <v>171</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D119" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F119" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H119" s="26"/>
       <c r="I119" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7404,23 +7404,23 @@
         <v>171</v>
       </c>
       <c r="C120" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E120" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H120" s="26"/>
       <c r="I120" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7431,7 +7431,7 @@
         <v>171</v>
       </c>
       <c r="C121" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>72</v>
@@ -7440,13 +7440,13 @@
         <v>635</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G121" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H121" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I121" s="26"/>
     </row>
@@ -7456,7 +7456,7 @@
         <v>171</v>
       </c>
       <c r="C122" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D122" s="27" t="s">
         <v>709</v>
@@ -7481,7 +7481,7 @@
         <v>171</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D123" s="27" t="s">
         <v>55</v>
@@ -7506,13 +7506,13 @@
         <v>171</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D124" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F124" s="26" t="s">
         <v>657</v>
@@ -7531,13 +7531,13 @@
         <v>171</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D125" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>647</v>
@@ -7556,13 +7556,13 @@
         <v>171</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F126" s="26" t="s">
         <v>653</v>
@@ -7581,13 +7581,13 @@
         <v>171</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D127" s="27" t="s">
         <v>76</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F127" s="26" t="s">
         <v>651</v>
@@ -7606,7 +7606,7 @@
         <v>171</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>77</v>
@@ -7631,13 +7631,13 @@
         <v>171</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>78</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F129" s="26" t="s">
         <v>655</v>
@@ -7656,7 +7656,7 @@
         <v>171</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>79</v>
@@ -7681,13 +7681,13 @@
         <v>171</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D131" s="37" t="s">
         <v>594</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F131" s="26" t="s">
         <v>587</v>
@@ -7707,13 +7707,13 @@
         <v>171</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D132" s="37" t="s">
         <v>595</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F132" s="26" t="s">
         <v>585</v>
@@ -7732,13 +7732,13 @@
         <v>171</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D133" s="37" t="s">
         <v>598</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F133" s="26" t="s">
         <v>588</v>
@@ -7757,13 +7757,13 @@
         <v>171</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D134" s="37" t="s">
         <v>599</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F134" s="26" t="s">
         <v>586</v>
@@ -7782,13 +7782,13 @@
         <v>171</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D135" s="37" t="s">
         <v>600</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F135" s="26" t="s">
         <v>584</v>
@@ -7807,13 +7807,13 @@
         <v>171</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D136" s="37" t="s">
         <v>601</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F136" s="26" t="s">
         <v>591</v>
@@ -7832,13 +7832,13 @@
         <v>171</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D137" s="37" t="s">
         <v>596</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F137" s="26" t="s">
         <v>593</v>
@@ -7858,13 +7858,13 @@
         <v>171</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D138" s="37" t="s">
         <v>597</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F138" s="26" t="s">
         <v>592</v>
@@ -7884,19 +7884,19 @@
         <v>171</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D139" s="37" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F139" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H139" s="26"/>
       <c r="I139" s="26"/>
@@ -7910,13 +7910,13 @@
         <v>171</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D140" s="37" t="s">
         <v>602</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F140" s="26" t="s">
         <v>590</v>
@@ -7935,13 +7935,13 @@
         <v>171</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D141" s="37" t="s">
         <v>614</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F141" s="26" t="s">
         <v>589</v>
@@ -7960,7 +7960,7 @@
         <v>171</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>80</v>
@@ -7988,7 +7988,7 @@
         <v>171</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>81</v>
@@ -8013,22 +8013,22 @@
         <v>171</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G144" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H144" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I144" s="26"/>
     </row>
@@ -8040,22 +8040,22 @@
         <v>171</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>83</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F145" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G145" s="42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I145" s="42" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8066,13 +8066,13 @@
         <v>171</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F146" s="26" t="s">
         <v>661</v>
@@ -8081,10 +8081,10 @@
         <v>661</v>
       </c>
       <c r="H146" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8095,13 +8095,13 @@
         <v>171</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F147" s="26" t="s">
         <v>661</v>
@@ -8110,10 +8110,10 @@
         <v>661</v>
       </c>
       <c r="H147" s="26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
         <v>171</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>84</v>
@@ -8133,17 +8133,17 @@
         <v>635</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H148" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I148" s="26"/>
       <c r="L148" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8154,7 +8154,7 @@
         <v>171</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>85</v>
@@ -8163,10 +8163,10 @@
         <v>635</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H149" s="26"/>
       <c r="I149" s="26"/>
@@ -8179,22 +8179,22 @@
         <v>171</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I150" s="26"/>
     </row>
@@ -8206,7 +8206,7 @@
         <v>171</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>87</v>
@@ -8215,13 +8215,13 @@
         <v>635</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H151" s="42" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I151" s="26"/>
     </row>
@@ -8233,13 +8233,13 @@
         <v>171</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F152" s="26" t="s">
         <v>661</v>
@@ -8248,10 +8248,10 @@
         <v>661</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8262,13 +8262,13 @@
         <v>171</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F153" s="26" t="s">
         <v>661</v>
@@ -8277,10 +8277,10 @@
         <v>661</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8291,13 +8291,13 @@
         <v>171</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F154" s="26" t="s">
         <v>661</v>
@@ -8306,10 +8306,10 @@
         <v>661</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8320,13 +8320,13 @@
         <v>171</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F155" s="26" t="s">
         <v>648</v>
@@ -8345,10 +8345,10 @@
         <v>171</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D156" s="37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E156" s="26" t="s">
         <v>635</v>
@@ -8371,10 +8371,10 @@
         <v>171</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D157" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E157" s="26" t="s">
         <v>635</v>
@@ -8396,10 +8396,10 @@
         <v>171</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D158" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E158" s="26" t="s">
         <v>635</v>
@@ -8421,19 +8421,19 @@
         <v>171</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E159" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
@@ -8446,10 +8446,10 @@
         <v>171</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D160" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E160" s="26" t="s">
         <v>635</v>
@@ -8471,19 +8471,19 @@
         <v>171</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D161" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F161" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G161" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H161" s="26"/>
       <c r="I161" s="26"/>
@@ -8496,19 +8496,19 @@
         <v>171</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F162" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H162" s="26"/>
       <c r="I162" s="26"/>
@@ -8521,10 +8521,10 @@
         <v>171</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>635</v>
@@ -8546,10 +8546,10 @@
         <v>171</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E164" s="26" t="s">
         <v>635</v>
@@ -8571,10 +8571,10 @@
         <v>171</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E165" s="26" t="s">
         <v>635</v>
@@ -8596,19 +8596,19 @@
         <v>171</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D166" s="37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E166" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G166" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H166" s="26"/>
       <c r="I166" s="26"/>
@@ -8622,19 +8622,19 @@
         <v>171</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E167" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G167" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H167" s="26"/>
       <c r="I167" s="26"/>
@@ -8647,19 +8647,19 @@
         <v>171</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D168" s="37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E168" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F168" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G168" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H168" s="26"/>
       <c r="I168" s="26"/>
@@ -8672,19 +8672,19 @@
         <v>171</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D169" s="37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E169" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F169" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G169" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H169" s="26"/>
       <c r="I169" s="26"/>
@@ -8697,19 +8697,19 @@
         <v>171</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D170" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E170" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F170" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G170" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H170" s="26"/>
       <c r="I170" s="26"/>
@@ -8722,19 +8722,19 @@
         <v>171</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D171" s="37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E171" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F171" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G171" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H171" s="26"/>
       <c r="I171" s="26"/>
@@ -8747,13 +8747,13 @@
         <v>171</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D172" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F172" s="26" t="s">
         <v>644</v>
@@ -8772,13 +8772,13 @@
         <v>171</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D173" s="27" t="s">
         <v>136</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F173" s="26" t="s">
         <v>645</v>
@@ -8797,23 +8797,23 @@
         <v>171</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D174" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E174" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F174" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H174" s="26"/>
       <c r="I174" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8824,13 +8824,13 @@
         <v>171</v>
       </c>
       <c r="C175" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D175" s="27" t="s">
         <v>137</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F175" s="26" t="s">
         <v>642</v>
@@ -8849,23 +8849,23 @@
         <v>171</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D176" s="27" t="s">
         <v>130</v>
       </c>
       <c r="E176" s="42" t="s">
+        <v>938</v>
+      </c>
+      <c r="F176" s="42" t="s">
+        <v>801</v>
+      </c>
+      <c r="G176" s="42" t="s">
         <v>939</v>
-      </c>
-      <c r="F176" s="42" t="s">
-        <v>802</v>
-      </c>
-      <c r="G176" s="42" t="s">
-        <v>940</v>
       </c>
       <c r="H176" s="26"/>
       <c r="I176" s="42" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8876,22 +8876,22 @@
         <v>171</v>
       </c>
       <c r="C177" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D177" s="27" t="s">
         <v>654</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F177" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G177" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H177" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I177" s="26"/>
     </row>
@@ -8903,19 +8903,19 @@
         <v>171</v>
       </c>
       <c r="C178" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D178" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F178" s="26" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G178" s="26" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H178" s="26"/>
       <c r="I178" s="26"/>
@@ -8928,7 +8928,7 @@
         <v>171</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D179" s="37" t="s">
         <v>687</v>
@@ -8937,10 +8937,10 @@
         <v>635</v>
       </c>
       <c r="F179" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G179" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H179" s="26"/>
       <c r="I179" s="26"/>
@@ -8954,19 +8954,19 @@
         <v>171</v>
       </c>
       <c r="C180" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D180" s="37" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E180" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F180" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G180" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H180" s="26"/>
       <c r="I180" s="26"/>
@@ -8979,7 +8979,7 @@
         <v>171</v>
       </c>
       <c r="C181" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D181" s="37" t="s">
         <v>689</v>
@@ -9004,7 +9004,7 @@
         <v>171</v>
       </c>
       <c r="C182" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D182" s="37" t="s">
         <v>690</v>
@@ -9029,7 +9029,7 @@
         <v>171</v>
       </c>
       <c r="C183" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D183" s="37" t="s">
         <v>691</v>
@@ -9054,7 +9054,7 @@
         <v>171</v>
       </c>
       <c r="C184" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D184" s="37" t="s">
         <v>692</v>
@@ -9079,7 +9079,7 @@
         <v>171</v>
       </c>
       <c r="C185" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D185" s="37" t="s">
         <v>688</v>
@@ -9104,7 +9104,7 @@
         <v>171</v>
       </c>
       <c r="C186" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D186" s="27" t="s">
         <v>138</v>
@@ -9121,7 +9121,7 @@
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
       <c r="L186" s="29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9132,7 +9132,7 @@
         <v>171</v>
       </c>
       <c r="C187" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D187" s="27" t="s">
         <v>139</v>
@@ -9141,13 +9141,13 @@
         <v>635</v>
       </c>
       <c r="F187" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G187" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H187" s="27" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I187" s="26"/>
     </row>
@@ -9159,13 +9159,13 @@
         <v>171</v>
       </c>
       <c r="C188" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D188" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>646</v>
@@ -9184,7 +9184,7 @@
         <v>171</v>
       </c>
       <c r="C189" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D189" s="27" t="s">
         <v>141</v>
@@ -9215,7 +9215,7 @@
         <v>13</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>643</v>
@@ -9224,7 +9224,7 @@
         <v>643</v>
       </c>
       <c r="H190" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I190" s="26"/>
     </row>
@@ -9242,7 +9242,7 @@
         <v>14</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>643</v>
@@ -9251,7 +9251,7 @@
         <v>643</v>
       </c>
       <c r="H191" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I191" s="26"/>
     </row>
@@ -9269,16 +9269,16 @@
         <v>133</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F192" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G192" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H192" s="26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I192" s="26"/>
     </row>
@@ -9296,13 +9296,13 @@
         <v>134</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F193" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G193" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H193" s="26"/>
       <c r="I193" s="26"/>
@@ -9321,7 +9321,7 @@
         <v>75</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>653</v>
@@ -9346,7 +9346,7 @@
         <v>76</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F195" s="26" t="s">
         <v>651</v>
@@ -9371,7 +9371,7 @@
         <v>78</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>655</v>
@@ -9396,16 +9396,16 @@
         <v>82</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F197" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G197" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I197" s="26"/>
     </row>
@@ -9423,16 +9423,16 @@
         <v>83</v>
       </c>
       <c r="E198" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F198" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G198" s="42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I198" s="42" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9449,16 +9449,16 @@
         <v>135</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F199" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G199" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I199" s="26"/>
     </row>
@@ -9473,7 +9473,7 @@
         <v>132</v>
       </c>
       <c r="D200" s="37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E200" s="26" t="s">
         <v>635</v>
@@ -9499,7 +9499,7 @@
         <v>132</v>
       </c>
       <c r="D201" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E201" s="26" t="s">
         <v>635</v>
@@ -9524,7 +9524,7 @@
         <v>132</v>
       </c>
       <c r="D202" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E202" s="26" t="s">
         <v>635</v>
@@ -9549,16 +9549,16 @@
         <v>132</v>
       </c>
       <c r="D203" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="G203" s="26" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
@@ -9574,7 +9574,7 @@
         <v>132</v>
       </c>
       <c r="D204" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E204" s="26" t="s">
         <v>635</v>
@@ -9599,16 +9599,16 @@
         <v>132</v>
       </c>
       <c r="D205" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E205" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F205" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G205" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H205" s="26"/>
       <c r="I205" s="26"/>
@@ -9624,16 +9624,16 @@
         <v>132</v>
       </c>
       <c r="D206" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E206" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F206" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G206" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H206" s="26"/>
       <c r="I206" s="26"/>
@@ -9649,7 +9649,7 @@
         <v>132</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>635</v>
@@ -9674,7 +9674,7 @@
         <v>132</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E208" s="26" t="s">
         <v>635</v>
@@ -9724,16 +9724,16 @@
         <v>132</v>
       </c>
       <c r="D210" s="37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E210" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F210" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G210" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H210" s="26"/>
       <c r="I210" s="26"/>
@@ -9750,16 +9750,16 @@
         <v>132</v>
       </c>
       <c r="D211" s="37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E211" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F211" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G211" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H211" s="26"/>
       <c r="I211" s="26"/>
@@ -9775,16 +9775,16 @@
         <v>132</v>
       </c>
       <c r="D212" s="37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E212" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F212" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G212" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H212" s="26"/>
       <c r="I212" s="26"/>
@@ -9800,16 +9800,16 @@
         <v>132</v>
       </c>
       <c r="D213" s="37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E213" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F213" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G213" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H213" s="26"/>
       <c r="I213" s="26"/>
@@ -9825,16 +9825,16 @@
         <v>132</v>
       </c>
       <c r="D214" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E214" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F214" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G214" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H214" s="26"/>
       <c r="I214" s="26"/>
@@ -9850,16 +9850,16 @@
         <v>132</v>
       </c>
       <c r="D215" s="37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E215" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F215" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G215" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H215" s="26"/>
       <c r="I215" s="26"/>
@@ -9875,10 +9875,10 @@
         <v>132</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E216" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F216" s="26" t="s">
         <v>644</v>
@@ -9903,7 +9903,7 @@
         <v>136</v>
       </c>
       <c r="E217" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F217" s="26" t="s">
         <v>645</v>
@@ -9925,20 +9925,20 @@
         <v>132</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E218" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F218" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G218" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H218" s="26"/>
       <c r="I218" s="42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9955,7 +9955,7 @@
         <v>137</v>
       </c>
       <c r="E219" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F219" s="26" t="s">
         <v>642</v>
@@ -9983,10 +9983,10 @@
         <v>635</v>
       </c>
       <c r="F220" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G220" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H220" s="26"/>
       <c r="I220" s="26"/>
@@ -10003,16 +10003,16 @@
         <v>132</v>
       </c>
       <c r="D221" s="37" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E221" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F221" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G221" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H221" s="26"/>
       <c r="I221" s="26"/>
@@ -10167,7 +10167,7 @@
       <c r="H227" s="26"/>
       <c r="I227" s="26"/>
       <c r="L227" s="29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10187,13 +10187,13 @@
         <v>635</v>
       </c>
       <c r="F228" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G228" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H228" s="27" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I228" s="26"/>
     </row>
@@ -10211,7 +10211,7 @@
         <v>140</v>
       </c>
       <c r="E229" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F229" s="26" t="s">
         <v>646</v>
@@ -10255,13 +10255,13 @@
         <v>241</v>
       </c>
       <c r="C231" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D231" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E231" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F231" s="26" t="s">
         <v>643</v>
@@ -10270,14 +10270,14 @@
         <v>643</v>
       </c>
       <c r="H231" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I231" s="26"/>
       <c r="J231" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K231" s="26" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L231" s="26"/>
     </row>
@@ -10289,29 +10289,29 @@
         <v>241</v>
       </c>
       <c r="C232" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D232" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E232" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F232" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G232" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I232" s="26"/>
       <c r="J232" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K232" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L232" s="26"/>
     </row>
@@ -10323,13 +10323,13 @@
         <v>241</v>
       </c>
       <c r="C233" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D233" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E233" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F233" s="26" t="s">
         <v>643</v>
@@ -10338,14 +10338,14 @@
         <v>643</v>
       </c>
       <c r="H233" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I233" s="26"/>
       <c r="J233" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K233" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L233" s="26"/>
     </row>
@@ -10357,13 +10357,13 @@
         <v>241</v>
       </c>
       <c r="C234" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D234" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E234" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F234" s="26" t="s">
         <v>643</v>
@@ -10372,14 +10372,14 @@
         <v>643</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I234" s="26"/>
       <c r="J234" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K234" s="26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L234" s="26"/>
     </row>
@@ -10391,13 +10391,13 @@
         <v>241</v>
       </c>
       <c r="C235" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D235" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E235" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F235" s="26" t="s">
         <v>643</v>
@@ -10406,14 +10406,14 @@
         <v>643</v>
       </c>
       <c r="H235" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I235" s="26"/>
       <c r="J235" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K235" s="26" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L235" s="26"/>
     </row>
@@ -10425,13 +10425,13 @@
         <v>241</v>
       </c>
       <c r="C236" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D236" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E236" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F236" s="26" t="s">
         <v>643</v>
@@ -10440,14 +10440,14 @@
         <v>643</v>
       </c>
       <c r="H236" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I236" s="26"/>
       <c r="J236" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K236" s="26" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L236" s="26"/>
     </row>
@@ -10459,29 +10459,29 @@
         <v>241</v>
       </c>
       <c r="C237" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D237" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E237" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F237" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H237" s="26"/>
       <c r="I237" s="42" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J237" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K237" s="26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L237" s="26"/>
     </row>
@@ -10493,13 +10493,13 @@
         <v>241</v>
       </c>
       <c r="C238" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D238" s="27" t="s">
         <v>92</v>
       </c>
       <c r="E238" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F238" s="26" t="s">
         <v>658</v>
@@ -10510,10 +10510,10 @@
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
       <c r="J238" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K238" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L238" s="26"/>
     </row>
@@ -10525,29 +10525,29 @@
         <v>241</v>
       </c>
       <c r="C239" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D239" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E239" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F239" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H239" s="26"/>
       <c r="I239" s="42" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J239" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K239" s="26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L239" s="26"/>
     </row>
@@ -10559,29 +10559,29 @@
         <v>241</v>
       </c>
       <c r="C240" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D240" s="27" t="s">
         <v>48</v>
       </c>
       <c r="E240" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F240" s="42" t="s">
         <v>643</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H240" s="26"/>
       <c r="I240" s="42" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J240" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K240" s="26" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L240" s="26"/>
     </row>
@@ -10593,7 +10593,7 @@
         <v>241</v>
       </c>
       <c r="C241" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D241" s="27" t="s">
         <v>705</v>
@@ -10610,10 +10610,10 @@
       <c r="H241" s="26"/>
       <c r="I241" s="26"/>
       <c r="J241" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K241" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L241" s="26"/>
     </row>
@@ -10625,7 +10625,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D242" s="27" t="s">
         <v>18</v>
@@ -10634,18 +10634,18 @@
         <v>635</v>
       </c>
       <c r="F242" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G242" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H242" s="26"/>
       <c r="I242" s="26"/>
       <c r="J242" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K242" s="26" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L242" s="26"/>
     </row>
@@ -10657,13 +10657,13 @@
         <v>241</v>
       </c>
       <c r="C243" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D243" s="27" t="s">
         <v>93</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F243" s="26" t="s">
         <v>649</v>
@@ -10674,10 +10674,10 @@
       <c r="H243" s="26"/>
       <c r="I243" s="26"/>
       <c r="J243" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K243" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L243" s="26"/>
     </row>
@@ -10689,13 +10689,13 @@
         <v>241</v>
       </c>
       <c r="C244" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D244" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E244" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F244" s="26" t="s">
         <v>650</v>
@@ -10706,10 +10706,10 @@
       <c r="H244" s="26"/>
       <c r="I244" s="26"/>
       <c r="J244" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K244" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L244" s="26"/>
     </row>
@@ -10721,7 +10721,7 @@
         <v>241</v>
       </c>
       <c r="C245" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D245" s="27" t="s">
         <v>95</v>
@@ -10738,10 +10738,10 @@
       <c r="H245" s="26"/>
       <c r="I245" s="26"/>
       <c r="J245" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K245" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L245" s="26"/>
     </row>
@@ -10753,27 +10753,27 @@
         <v>241</v>
       </c>
       <c r="C246" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D246" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E246" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F246" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G246" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H246" s="26"/>
       <c r="I246" s="26"/>
       <c r="J246" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K246" s="26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L246" s="26"/>
     </row>
@@ -10785,13 +10785,13 @@
         <v>241</v>
       </c>
       <c r="C247" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D247" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E247" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F247" s="26" t="s">
         <v>643</v>
@@ -10800,14 +10800,14 @@
         <v>643</v>
       </c>
       <c r="H247" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I247" s="26"/>
       <c r="J247" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K247" s="26" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L247" s="26"/>
     </row>
@@ -10819,7 +10819,7 @@
         <v>241</v>
       </c>
       <c r="C248" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D248" s="27" t="s">
         <v>21</v>
@@ -10828,18 +10828,18 @@
         <v>635</v>
       </c>
       <c r="F248" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G248" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H248" s="26"/>
       <c r="I248" s="26"/>
       <c r="J248" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K248" s="26" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L248" s="26"/>
     </row>
@@ -10851,29 +10851,29 @@
         <v>241</v>
       </c>
       <c r="C249" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D249" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E249" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F249" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G249" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H249" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I249" s="26"/>
       <c r="J249" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K249" s="26" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L249" s="26"/>
     </row>
@@ -10885,29 +10885,29 @@
         <v>241</v>
       </c>
       <c r="C250" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D250" s="27" t="s">
         <v>96</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F250" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G250" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H250" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I250" s="26"/>
       <c r="J250" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K250" s="26" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L250" s="26"/>
     </row>
@@ -10919,29 +10919,29 @@
         <v>241</v>
       </c>
       <c r="C251" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D251" s="27" t="s">
         <v>97</v>
       </c>
       <c r="E251" s="42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F251" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H251" s="26"/>
       <c r="I251" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J251" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K251" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L251" s="26"/>
     </row>
@@ -10953,13 +10953,13 @@
         <v>241</v>
       </c>
       <c r="C252" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D252" s="27" t="s">
         <v>98</v>
       </c>
       <c r="E252" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F252" s="26" t="s">
         <v>658</v>
@@ -10970,10 +10970,10 @@
       <c r="H252" s="26"/>
       <c r="I252" s="26"/>
       <c r="J252" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K252" s="26" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="L252" s="26"/>
     </row>
@@ -10985,29 +10985,29 @@
         <v>241</v>
       </c>
       <c r="C253" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D253" s="27" t="s">
         <v>99</v>
       </c>
       <c r="E253" s="42" t="s">
+        <v>957</v>
+      </c>
+      <c r="F253" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="G253" s="42" t="s">
         <v>958</v>
-      </c>
-      <c r="F253" s="42" t="s">
-        <v>806</v>
-      </c>
-      <c r="G253" s="42" t="s">
-        <v>959</v>
       </c>
       <c r="H253" s="26"/>
       <c r="I253" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J253" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K253" s="26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="L253" s="26"/>
     </row>
@@ -11019,29 +11019,29 @@
         <v>241</v>
       </c>
       <c r="C254" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D254" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E254" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F254" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G254" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H254" s="26"/>
       <c r="I254" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J254" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K254" s="26" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="L254" s="26"/>
     </row>
@@ -11053,13 +11053,13 @@
         <v>241</v>
       </c>
       <c r="C255" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D255" s="27" t="s">
         <v>101</v>
       </c>
       <c r="E255" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F255" s="26" t="s">
         <v>643</v>
@@ -11068,14 +11068,14 @@
         <v>643</v>
       </c>
       <c r="H255" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I255" s="26"/>
       <c r="J255" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K255" s="26" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="L255" s="26"/>
     </row>
@@ -11087,29 +11087,29 @@
         <v>241</v>
       </c>
       <c r="C256" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D256" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E256" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F256" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G256" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H256" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I256" s="26"/>
       <c r="J256" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K256" s="26" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="L256" s="26"/>
     </row>
@@ -11121,7 +11121,7 @@
         <v>241</v>
       </c>
       <c r="C257" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D257" s="27" t="s">
         <v>23</v>
@@ -11130,18 +11130,18 @@
         <v>635</v>
       </c>
       <c r="F257" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G257" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H257" s="26"/>
       <c r="I257" s="26"/>
       <c r="J257" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K257" s="26" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="L257" s="26"/>
     </row>
@@ -11153,7 +11153,7 @@
         <v>241</v>
       </c>
       <c r="C258" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D258" s="27" t="s">
         <v>103</v>
@@ -11162,18 +11162,18 @@
         <v>635</v>
       </c>
       <c r="F258" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G258" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H258" s="26"/>
       <c r="I258" s="26"/>
       <c r="J258" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K258" s="26" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L258" s="26"/>
     </row>
@@ -11185,7 +11185,7 @@
         <v>241</v>
       </c>
       <c r="C259" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D259" s="27" t="s">
         <v>24</v>
@@ -11194,18 +11194,18 @@
         <v>635</v>
       </c>
       <c r="F259" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G259" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H259" s="26"/>
       <c r="I259" s="26"/>
       <c r="J259" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K259" s="26" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="L259" s="26"/>
     </row>
@@ -11217,7 +11217,7 @@
         <v>241</v>
       </c>
       <c r="C260" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D260" s="27" t="s">
         <v>25</v>
@@ -11226,18 +11226,18 @@
         <v>635</v>
       </c>
       <c r="F260" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G260" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H260" s="26"/>
       <c r="I260" s="26"/>
       <c r="J260" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K260" s="26" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="L260" s="26"/>
     </row>
@@ -11249,7 +11249,7 @@
         <v>272</v>
       </c>
       <c r="C261" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D261" s="27" t="s">
         <v>26</v>
@@ -11258,14 +11258,14 @@
         <v>635</v>
       </c>
       <c r="F261" s="26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G261" s="26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H261" s="26"/>
       <c r="I261" s="26" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>272</v>
       </c>
       <c r="C262" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D262" s="27" t="s">
         <v>105</v>
@@ -11285,14 +11285,14 @@
         <v>635</v>
       </c>
       <c r="F262" s="26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G262" s="26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H262" s="26"/>
       <c r="I262" s="26" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11303,13 +11303,13 @@
         <v>272</v>
       </c>
       <c r="C263" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D263" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F263" s="26" t="s">
         <v>638</v>
@@ -11318,7 +11318,7 @@
         <v>638</v>
       </c>
       <c r="H263" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I263" s="26"/>
     </row>
@@ -11330,22 +11330,22 @@
         <v>272</v>
       </c>
       <c r="C264" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D264" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E264" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F264" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G264" s="42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I264" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11356,23 +11356,23 @@
         <v>272</v>
       </c>
       <c r="C265" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D265" s="27" t="s">
         <v>107</v>
       </c>
       <c r="E265" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F265" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G265" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H265" s="26"/>
       <c r="I265" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11383,13 +11383,13 @@
         <v>272</v>
       </c>
       <c r="C266" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D266" s="27" t="s">
         <v>108</v>
       </c>
       <c r="E266" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F266" s="26" t="s">
         <v>638</v>
@@ -11398,7 +11398,7 @@
         <v>638</v>
       </c>
       <c r="H266" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I266" s="26"/>
     </row>
@@ -11410,23 +11410,23 @@
         <v>272</v>
       </c>
       <c r="C267" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D267" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E267" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F267" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G267" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H267" s="26"/>
       <c r="I267" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -11437,23 +11437,23 @@
         <v>272</v>
       </c>
       <c r="C268" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D268" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E268" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F268" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G268" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H268" s="26"/>
       <c r="I268" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -11464,23 +11464,23 @@
         <v>272</v>
       </c>
       <c r="C269" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D269" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F269" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H269" s="26"/>
       <c r="I269" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -11491,7 +11491,7 @@
         <v>272</v>
       </c>
       <c r="C270" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D270" s="27" t="s">
         <v>109</v>
@@ -11500,13 +11500,13 @@
         <v>635</v>
       </c>
       <c r="F270" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G270" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H270" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I270" s="26"/>
     </row>
@@ -11516,7 +11516,7 @@
         <v>272</v>
       </c>
       <c r="C271" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D271" s="27" t="s">
         <v>710</v>
@@ -11541,25 +11541,25 @@
         <v>272</v>
       </c>
       <c r="C272" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D272" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E272" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F272" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G272" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="H272" s="26" t="s">
         <v>993</v>
       </c>
-      <c r="H272" s="26" t="s">
-        <v>994</v>
-      </c>
       <c r="I272" s="26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -11570,25 +11570,25 @@
         <v>272</v>
       </c>
       <c r="C273" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E273" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F273" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G273" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="H273" s="26" t="s">
         <v>993</v>
       </c>
-      <c r="H273" s="26" t="s">
-        <v>994</v>
-      </c>
       <c r="I273" s="26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -11599,13 +11599,13 @@
         <v>272</v>
       </c>
       <c r="C274" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D274" s="27" t="s">
         <v>111</v>
       </c>
       <c r="E274" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F274" s="26" t="s">
         <v>643</v>
@@ -11614,7 +11614,7 @@
         <v>643</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I274" s="26"/>
     </row>
@@ -11626,13 +11626,13 @@
         <v>272</v>
       </c>
       <c r="C275" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D275" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F275" s="26" t="s">
         <v>643</v>
@@ -11641,7 +11641,7 @@
         <v>643</v>
       </c>
       <c r="H275" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I275" s="26"/>
     </row>
@@ -11653,13 +11653,13 @@
         <v>272</v>
       </c>
       <c r="C276" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D276" s="27" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E276" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F276" s="26" t="s">
         <v>643</v>
@@ -11668,7 +11668,7 @@
         <v>643</v>
       </c>
       <c r="H276" s="27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I276" s="26"/>
     </row>
@@ -11680,23 +11680,23 @@
         <v>272</v>
       </c>
       <c r="C277" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D277" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E277" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F277" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G277" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H277" s="26"/>
       <c r="I277" s="26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -11707,13 +11707,13 @@
         <v>272</v>
       </c>
       <c r="C278" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D278" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E278" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F278" s="26" t="s">
         <v>643</v>
@@ -11722,7 +11722,7 @@
         <v>643</v>
       </c>
       <c r="H278" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I278" s="26"/>
     </row>
@@ -11734,13 +11734,13 @@
         <v>272</v>
       </c>
       <c r="C279" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D279" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E279" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F279" s="26" t="s">
         <v>643</v>
@@ -11749,7 +11749,7 @@
         <v>643</v>
       </c>
       <c r="H279" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I279" s="26"/>
     </row>
@@ -11761,13 +11761,13 @@
         <v>272</v>
       </c>
       <c r="C280" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D280" s="27" t="s">
         <v>32</v>
       </c>
       <c r="E280" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F280" s="26" t="s">
         <v>643</v>
@@ -11776,7 +11776,7 @@
         <v>643</v>
       </c>
       <c r="H280" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I280" s="26"/>
     </row>
@@ -11788,13 +11788,13 @@
         <v>272</v>
       </c>
       <c r="C281" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D281" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E281" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F281" s="26" t="s">
         <v>643</v>
@@ -11803,7 +11803,7 @@
         <v>643</v>
       </c>
       <c r="H281" s="27" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I281" s="26"/>
     </row>
@@ -11815,13 +11815,13 @@
         <v>272</v>
       </c>
       <c r="C282" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D282" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E282" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F282" s="26" t="s">
         <v>643</v>
@@ -11830,11 +11830,11 @@
         <v>643</v>
       </c>
       <c r="H282" s="27" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I282" s="26"/>
       <c r="L282" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -11845,13 +11845,13 @@
         <v>272</v>
       </c>
       <c r="C283" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D283" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E283" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F283" s="26" t="s">
         <v>643</v>
@@ -11860,7 +11860,7 @@
         <v>643</v>
       </c>
       <c r="H283" s="27" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I283" s="26"/>
     </row>
@@ -11872,13 +11872,13 @@
         <v>272</v>
       </c>
       <c r="C284" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D284" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E284" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F284" s="26" t="s">
         <v>643</v>
@@ -11887,7 +11887,7 @@
         <v>643</v>
       </c>
       <c r="H284" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I284" s="26"/>
     </row>
@@ -11899,26 +11899,26 @@
         <v>272</v>
       </c>
       <c r="C285" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D285" s="27" t="s">
         <v>114</v>
       </c>
       <c r="E285" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F285" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G285" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H285" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I285" s="26"/>
       <c r="L285" s="29" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -11929,26 +11929,26 @@
         <v>272</v>
       </c>
       <c r="C286" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D286" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E286" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F286" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G286" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H286" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I286" s="26"/>
       <c r="L286" s="29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -11959,26 +11959,26 @@
         <v>272</v>
       </c>
       <c r="C287" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D287" s="27" t="s">
         <v>116</v>
       </c>
       <c r="E287" s="42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F287" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G287" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H287" s="26"/>
       <c r="I287" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L287" s="27" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -11989,7 +11989,7 @@
         <v>272</v>
       </c>
       <c r="C288" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D288" s="27" t="s">
         <v>37</v>
@@ -11998,10 +11998,10 @@
         <v>635</v>
       </c>
       <c r="F288" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G288" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H288" s="26"/>
       <c r="I288" s="26"/>
@@ -12014,13 +12014,13 @@
         <v>272</v>
       </c>
       <c r="C289" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D289" s="27" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E289" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F289" s="26" t="s">
         <v>661</v>
@@ -12029,10 +12029,10 @@
         <v>661</v>
       </c>
       <c r="H289" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I289" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -12043,13 +12043,13 @@
         <v>272</v>
       </c>
       <c r="C290" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D290" s="27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E290" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F290" s="26" t="s">
         <v>661</v>
@@ -12058,10 +12058,10 @@
         <v>661</v>
       </c>
       <c r="H290" s="27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I290" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -12072,13 +12072,13 @@
         <v>272</v>
       </c>
       <c r="C291" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D291" s="27" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E291" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F291" s="26" t="s">
         <v>661</v>
@@ -12087,10 +12087,10 @@
         <v>661</v>
       </c>
       <c r="H291" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I291" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -12101,13 +12101,13 @@
         <v>272</v>
       </c>
       <c r="C292" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D292" s="27" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E292" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F292" s="26" t="s">
         <v>661</v>
@@ -12116,10 +12116,10 @@
         <v>661</v>
       </c>
       <c r="H292" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I292" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -12130,13 +12130,13 @@
         <v>272</v>
       </c>
       <c r="C293" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D293" s="27" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E293" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F293" s="26" t="s">
         <v>661</v>
@@ -12145,10 +12145,10 @@
         <v>661</v>
       </c>
       <c r="H293" s="27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I293" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -12159,7 +12159,7 @@
         <v>272</v>
       </c>
       <c r="C294" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D294" s="27" t="s">
         <v>117</v>
@@ -12174,7 +12174,7 @@
         <v>641</v>
       </c>
       <c r="H294" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I294" s="26"/>
     </row>
@@ -12186,7 +12186,7 @@
         <v>272</v>
       </c>
       <c r="C295" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D295" s="27" t="s">
         <v>118</v>
@@ -12195,14 +12195,14 @@
         <v>635</v>
       </c>
       <c r="F295" s="26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G295" s="26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H295" s="26"/>
       <c r="I295" s="26" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -12213,19 +12213,19 @@
         <v>272</v>
       </c>
       <c r="C296" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D296" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E296" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F296" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G296" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H296" s="26"/>
       <c r="I296" s="26"/>
@@ -12238,19 +12238,19 @@
         <v>272</v>
       </c>
       <c r="C297" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D297" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E297" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F297" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G297" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H297" s="26"/>
       <c r="I297" s="26"/>
@@ -12263,13 +12263,13 @@
         <v>272</v>
       </c>
       <c r="C298" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D298" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E298" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F298" s="26" t="s">
         <v>644</v>
@@ -12288,13 +12288,13 @@
         <v>272</v>
       </c>
       <c r="C299" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D299" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E299" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F299" s="26" t="s">
         <v>645</v>
@@ -12313,19 +12313,19 @@
         <v>272</v>
       </c>
       <c r="C300" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D300" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E300" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F300" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G300" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H300" s="26"/>
       <c r="I300" s="26"/>
@@ -12338,19 +12338,19 @@
         <v>272</v>
       </c>
       <c r="C301" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D301" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E301" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F301" s="26" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G301" s="26" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H301" s="26"/>
       <c r="I301" s="26"/>
@@ -12363,19 +12363,19 @@
         <v>272</v>
       </c>
       <c r="C302" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D302" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E302" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F302" s="26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G302" s="26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H302" s="26"/>
       <c r="I302" s="26"/>
@@ -12388,19 +12388,19 @@
         <v>272</v>
       </c>
       <c r="C303" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D303" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E303" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F303" s="26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G303" s="26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H303" s="26"/>
       <c r="I303" s="26"/>
@@ -12413,13 +12413,13 @@
         <v>272</v>
       </c>
       <c r="C304" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D304" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E304" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F304" s="26" t="s">
         <v>658</v>
@@ -12438,23 +12438,23 @@
         <v>272</v>
       </c>
       <c r="C305" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D305" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F305" s="42" t="s">
         <v>643</v>
       </c>
       <c r="G305" s="42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H305" s="26"/>
       <c r="I305" s="26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -12465,23 +12465,23 @@
         <v>272</v>
       </c>
       <c r="C306" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D306" s="27" t="s">
         <v>121</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F306" s="42" t="s">
         <v>643</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H306" s="26"/>
       <c r="I306" s="26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -12492,7 +12492,7 @@
         <v>272</v>
       </c>
       <c r="C307" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D307" s="27" t="s">
         <v>122</v>
@@ -12501,10 +12501,10 @@
         <v>635</v>
       </c>
       <c r="F307" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G307" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H307" s="26"/>
       <c r="I307" s="26"/>
@@ -12517,7 +12517,7 @@
         <v>272</v>
       </c>
       <c r="C308" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D308" s="27" t="s">
         <v>38</v>
@@ -12542,24 +12542,24 @@
         <v>272</v>
       </c>
       <c r="C309" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D309" s="27" t="s">
         <v>123</v>
       </c>
       <c r="E309" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F309" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G309" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H309" s="26"/>
       <c r="I309" s="26"/>
       <c r="L309" s="28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -12570,13 +12570,13 @@
         <v>272</v>
       </c>
       <c r="C310" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D310" s="27" t="s">
         <v>124</v>
       </c>
       <c r="E310" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F310" s="26" t="s">
         <v>657</v>
@@ -12595,13 +12595,13 @@
         <v>272</v>
       </c>
       <c r="C311" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D311" s="27" t="s">
         <v>125</v>
       </c>
       <c r="E311" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F311" s="26" t="s">
         <v>649</v>
@@ -12620,13 +12620,13 @@
         <v>272</v>
       </c>
       <c r="C312" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D312" s="27" t="s">
         <v>126</v>
       </c>
       <c r="E312" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F312" s="26" t="s">
         <v>650</v>
@@ -12645,24 +12645,24 @@
         <v>272</v>
       </c>
       <c r="C313" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D313" s="27" t="s">
         <v>127</v>
       </c>
       <c r="E313" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F313" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G313" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H313" s="26"/>
       <c r="I313" s="26"/>
       <c r="L313" s="28" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -12673,7 +12673,7 @@
         <v>272</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D314" s="27" t="s">
         <v>39</v>
@@ -12698,13 +12698,13 @@
         <v>272</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D315" s="27" t="s">
         <v>699</v>
       </c>
       <c r="E315" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F315" s="26" t="s">
         <v>653</v>
@@ -12723,13 +12723,13 @@
         <v>272</v>
       </c>
       <c r="C316" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D316" s="27" t="s">
         <v>700</v>
       </c>
       <c r="E316" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F316" s="26" t="s">
         <v>651</v>
@@ -12748,7 +12748,7 @@
         <v>272</v>
       </c>
       <c r="C317" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D317" s="27" t="s">
         <v>698</v>
@@ -12773,24 +12773,24 @@
         <v>272</v>
       </c>
       <c r="C318" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D318" s="27" t="s">
         <v>128</v>
       </c>
       <c r="E318" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F318" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G318" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H318" s="26"/>
       <c r="I318" s="26"/>
       <c r="L318" s="28" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -12801,24 +12801,24 @@
         <v>272</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D319" s="27" t="s">
         <v>703</v>
       </c>
       <c r="E319" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F319" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G319" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H319" s="26"/>
       <c r="I319" s="26"/>
       <c r="L319" s="28" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -12829,24 +12829,24 @@
         <v>272</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D320" s="27" t="s">
         <v>702</v>
       </c>
       <c r="E320" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F320" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G320" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H320" s="26"/>
       <c r="I320" s="26"/>
       <c r="L320" s="28" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
@@ -12857,7 +12857,7 @@
         <v>272</v>
       </c>
       <c r="C321" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D321" s="27" t="s">
         <v>40</v>
@@ -12882,13 +12882,13 @@
         <v>272</v>
       </c>
       <c r="C322" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D322" s="27" t="s">
         <v>129</v>
       </c>
       <c r="E322" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F322" s="26" t="s">
         <v>647</v>
@@ -12907,13 +12907,13 @@
         <v>272</v>
       </c>
       <c r="C323" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D323" s="27" t="s">
         <v>130</v>
       </c>
       <c r="E323" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F323" s="26" t="s">
         <v>659</v>
@@ -12932,13 +12932,13 @@
         <v>272</v>
       </c>
       <c r="C324" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D324" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E324" s="42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F324" s="26" t="s">
         <v>638</v>
@@ -12947,7 +12947,7 @@
         <v>638</v>
       </c>
       <c r="H324" s="26" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I324" s="26"/>
     </row>
@@ -12959,24 +12959,24 @@
         <v>272</v>
       </c>
       <c r="C325" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D325" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E325" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F325" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G325" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H325" s="26"/>
       <c r="I325" s="26"/>
       <c r="L325" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>272</v>
       </c>
       <c r="C326" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D326" s="37" t="s">
         <v>615</v>
       </c>
       <c r="E326" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F326" s="26" t="s">
         <v>587</v>
@@ -13013,13 +13013,13 @@
         <v>272</v>
       </c>
       <c r="C327" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D327" s="37" t="s">
         <v>616</v>
       </c>
       <c r="E327" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F327" s="26" t="s">
         <v>585</v>
@@ -13038,13 +13038,13 @@
         <v>272</v>
       </c>
       <c r="C328" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D328" s="37" t="s">
         <v>617</v>
       </c>
       <c r="E328" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F328" s="26" t="s">
         <v>588</v>
@@ -13063,13 +13063,13 @@
         <v>272</v>
       </c>
       <c r="C329" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D329" s="37" t="s">
         <v>618</v>
       </c>
       <c r="E329" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F329" s="26" t="s">
         <v>586</v>
@@ -13088,13 +13088,13 @@
         <v>272</v>
       </c>
       <c r="C330" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D330" s="37" t="s">
         <v>619</v>
       </c>
       <c r="E330" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F330" s="26" t="s">
         <v>584</v>
@@ -13113,24 +13113,24 @@
         <v>272</v>
       </c>
       <c r="C331" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D331" s="37" t="s">
         <v>620</v>
       </c>
       <c r="E331" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F331" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G331" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H331" s="26"/>
       <c r="I331" s="26"/>
       <c r="L331" s="28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13141,24 +13141,24 @@
         <v>272</v>
       </c>
       <c r="C332" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D332" s="37" t="s">
         <v>621</v>
       </c>
       <c r="E332" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F332" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G332" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H332" s="26"/>
       <c r="I332" s="26"/>
       <c r="L332" s="28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13169,13 +13169,13 @@
         <v>272</v>
       </c>
       <c r="C333" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D333" s="37" t="s">
         <v>622</v>
       </c>
       <c r="E333" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F333" s="26" t="s">
         <v>593</v>
@@ -13195,13 +13195,13 @@
         <v>272</v>
       </c>
       <c r="C334" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D334" s="37" t="s">
         <v>623</v>
       </c>
       <c r="E334" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F334" s="26" t="s">
         <v>592</v>
@@ -13221,19 +13221,19 @@
         <v>272</v>
       </c>
       <c r="C335" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D335" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E335" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F335" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G335" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H335" s="26"/>
       <c r="I335" s="26"/>
@@ -13247,13 +13247,13 @@
         <v>272</v>
       </c>
       <c r="C336" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D336" s="37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E336" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F336" s="26" t="s">
         <v>590</v>
@@ -13272,13 +13272,13 @@
         <v>272</v>
       </c>
       <c r="C337" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D337" s="37" t="s">
         <v>624</v>
       </c>
       <c r="E337" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F337" s="26" t="s">
         <v>589</v>
@@ -13297,24 +13297,24 @@
         <v>272</v>
       </c>
       <c r="C338" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D338" s="27" t="s">
         <v>148</v>
       </c>
       <c r="E338" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F338" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G338" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H338" s="26"/>
       <c r="I338" s="26"/>
       <c r="L338" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13325,24 +13325,24 @@
         <v>272</v>
       </c>
       <c r="C339" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D339" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E339" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F339" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G339" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H339" s="26"/>
       <c r="I339" s="26"/>
       <c r="L339" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13353,24 +13353,24 @@
         <v>272</v>
       </c>
       <c r="C340" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D340" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E340" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F340" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G340" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H340" s="26"/>
       <c r="I340" s="26"/>
       <c r="L340" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -13381,10 +13381,10 @@
         <v>272</v>
       </c>
       <c r="C341" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D341" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E341" s="26" t="s">
         <v>635</v>
@@ -13406,10 +13406,10 @@
         <v>272</v>
       </c>
       <c r="C342" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D342" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E342" s="26" t="s">
         <v>635</v>
@@ -13431,10 +13431,10 @@
         <v>272</v>
       </c>
       <c r="C343" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D343" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E343" s="26" t="s">
         <v>635</v>
@@ -13456,24 +13456,24 @@
         <v>272</v>
       </c>
       <c r="C344" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D344" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E344" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F344" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G344" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H344" s="26"/>
       <c r="I344" s="26"/>
       <c r="L344" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -13484,24 +13484,24 @@
         <v>272</v>
       </c>
       <c r="C345" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D345" s="37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E345" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F345" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G345" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H345" s="26"/>
       <c r="I345" s="26"/>
       <c r="L345" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -13512,24 +13512,24 @@
         <v>272</v>
       </c>
       <c r="C346" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D346" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E346" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F346" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G346" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H346" s="26"/>
       <c r="I346" s="26"/>
       <c r="L346" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -13540,19 +13540,19 @@
         <v>272</v>
       </c>
       <c r="C347" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D347" s="37" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E347" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F347" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G347" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H347" s="26"/>
       <c r="I347" s="26"/>
@@ -13566,24 +13566,24 @@
         <v>272</v>
       </c>
       <c r="C348" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D348" s="37" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E348" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F348" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G348" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H348" s="26"/>
       <c r="I348" s="26"/>
       <c r="L348" s="28" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -13594,19 +13594,19 @@
         <v>272</v>
       </c>
       <c r="C349" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D349" s="37" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E349" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F349" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G349" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H349" s="26"/>
       <c r="I349" s="26"/>
@@ -13619,24 +13619,24 @@
         <v>272</v>
       </c>
       <c r="C350" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D350" s="37" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E350" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F350" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G350" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H350" s="26"/>
       <c r="I350" s="26"/>
       <c r="L350" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
@@ -13647,19 +13647,19 @@
         <v>272</v>
       </c>
       <c r="C351" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D351" s="37" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E351" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F351" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G351" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H351" s="26"/>
       <c r="I351" s="26"/>
@@ -13672,24 +13672,24 @@
         <v>272</v>
       </c>
       <c r="C352" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D352" s="27" t="s">
         <v>671</v>
       </c>
       <c r="E352" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F352" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G352" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H352" s="26"/>
       <c r="I352" s="26"/>
       <c r="L352" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13700,13 +13700,13 @@
         <v>403</v>
       </c>
       <c r="C353" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D353" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E353" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F353" s="26" t="s">
         <v>643</v>
@@ -13715,11 +13715,11 @@
         <v>643</v>
       </c>
       <c r="H353" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I353" s="26"/>
       <c r="L353" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13730,13 +13730,13 @@
         <v>403</v>
       </c>
       <c r="C354" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D354" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E354" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F354" s="26" t="s">
         <v>643</v>
@@ -13745,11 +13745,11 @@
         <v>643</v>
       </c>
       <c r="H354" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I354" s="26"/>
       <c r="L354" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="355" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13760,25 +13760,25 @@
         <v>403</v>
       </c>
       <c r="C355" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D355" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E355" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="F355" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="G355" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="H355" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="I355" s="26" t="s">
         <v>1014</v>
-      </c>
-      <c r="E355" s="26" t="s">
-        <v>958</v>
-      </c>
-      <c r="F355" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="G355" s="26" t="s">
-        <v>993</v>
-      </c>
-      <c r="H355" s="26" t="s">
-        <v>964</v>
-      </c>
-      <c r="I355" s="26" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13789,25 +13789,25 @@
         <v>403</v>
       </c>
       <c r="C356" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D356" s="27" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E356" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F356" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G356" s="26" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H356" s="26" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I356" s="26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13818,25 +13818,25 @@
         <v>403</v>
       </c>
       <c r="C357" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D357" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E357" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F357" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G357" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="H357" s="26" t="s">
         <v>993</v>
       </c>
-      <c r="H357" s="26" t="s">
-        <v>994</v>
-      </c>
       <c r="I357" s="26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13847,23 +13847,23 @@
         <v>403</v>
       </c>
       <c r="C358" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D358" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E358" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F358" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G358" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H358" s="26"/>
       <c r="I358" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13874,23 +13874,23 @@
         <v>403</v>
       </c>
       <c r="C359" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D359" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E359" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F359" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G359" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H359" s="26"/>
       <c r="I359" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13901,7 +13901,7 @@
         <v>403</v>
       </c>
       <c r="C360" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D360" s="27" t="s">
         <v>56</v>
@@ -13910,13 +13910,13 @@
         <v>635</v>
       </c>
       <c r="F360" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G360" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H360" s="26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I360" s="26"/>
     </row>
@@ -13928,7 +13928,7 @@
         <v>403</v>
       </c>
       <c r="C361" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D361" s="27" t="s">
         <v>706</v>
@@ -13953,7 +13953,7 @@
         <v>403</v>
       </c>
       <c r="C362" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D362" s="27" t="s">
         <v>55</v>
@@ -13978,13 +13978,13 @@
         <v>403</v>
       </c>
       <c r="C363" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D363" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E363" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F363" s="26" t="s">
         <v>647</v>
@@ -14003,13 +14003,13 @@
         <v>403</v>
       </c>
       <c r="C364" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D364" s="27" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E364" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F364" s="26" t="s">
         <v>653</v>
@@ -14028,13 +14028,13 @@
         <v>403</v>
       </c>
       <c r="C365" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D365" s="27" t="s">
         <v>60</v>
       </c>
       <c r="E365" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F365" s="26" t="s">
         <v>651</v>
@@ -14053,7 +14053,7 @@
         <v>403</v>
       </c>
       <c r="C366" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D366" s="27" t="s">
         <v>61</v>
@@ -14078,13 +14078,13 @@
         <v>403</v>
       </c>
       <c r="C367" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D367" s="27" t="s">
         <v>625</v>
       </c>
       <c r="E367" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F367" s="26" t="s">
         <v>587</v>
@@ -14104,13 +14104,13 @@
         <v>403</v>
       </c>
       <c r="C368" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D368" s="27" t="s">
         <v>626</v>
       </c>
       <c r="E368" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F368" s="26" t="s">
         <v>585</v>
@@ -14129,13 +14129,13 @@
         <v>403</v>
       </c>
       <c r="C369" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D369" s="27" t="s">
         <v>627</v>
       </c>
       <c r="E369" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F369" s="26" t="s">
         <v>588</v>
@@ -14154,13 +14154,13 @@
         <v>403</v>
       </c>
       <c r="C370" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D370" s="27" t="s">
         <v>628</v>
       </c>
       <c r="E370" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F370" s="26" t="s">
         <v>586</v>
@@ -14179,13 +14179,13 @@
         <v>403</v>
       </c>
       <c r="C371" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D371" s="27" t="s">
         <v>629</v>
       </c>
       <c r="E371" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F371" s="26" t="s">
         <v>584</v>
@@ -14204,13 +14204,13 @@
         <v>403</v>
       </c>
       <c r="C372" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D372" s="27" t="s">
         <v>630</v>
       </c>
       <c r="E372" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F372" s="26" t="s">
         <v>593</v>
@@ -14229,13 +14229,13 @@
         <v>403</v>
       </c>
       <c r="C373" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D373" s="27" t="s">
         <v>631</v>
       </c>
       <c r="E373" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F373" s="26" t="s">
         <v>592</v>
@@ -14254,19 +14254,19 @@
         <v>403</v>
       </c>
       <c r="C374" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D374" s="27" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E374" s="26" t="s">
+        <v>934</v>
+      </c>
+      <c r="F374" s="26" t="s">
         <v>1033</v>
       </c>
-      <c r="E374" s="26" t="s">
-        <v>935</v>
-      </c>
-      <c r="F374" s="26" t="s">
-        <v>1034</v>
-      </c>
       <c r="G374" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H374" s="26"/>
       <c r="I374" s="26"/>
@@ -14279,13 +14279,13 @@
         <v>403</v>
       </c>
       <c r="C375" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D375" s="27" t="s">
         <v>632</v>
       </c>
       <c r="E375" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F375" s="26" t="s">
         <v>590</v>
@@ -14304,13 +14304,13 @@
         <v>403</v>
       </c>
       <c r="C376" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D376" s="27" t="s">
         <v>633</v>
       </c>
       <c r="E376" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F376" s="26" t="s">
         <v>589</v>
@@ -14329,13 +14329,13 @@
         <v>403</v>
       </c>
       <c r="C377" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D377" s="27" t="s">
         <v>62</v>
       </c>
       <c r="E377" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F377" s="26" t="s">
         <v>638</v>
@@ -14344,7 +14344,7 @@
         <v>638</v>
       </c>
       <c r="H377" s="26" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I377" s="26"/>
     </row>
@@ -14356,22 +14356,22 @@
         <v>403</v>
       </c>
       <c r="C378" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D378" s="27" t="s">
         <v>63</v>
       </c>
       <c r="E378" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F378" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G378" s="42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I378" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14382,13 +14382,13 @@
         <v>403</v>
       </c>
       <c r="C379" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D379" s="27" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E379" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F379" s="26" t="s">
         <v>661</v>
@@ -14397,10 +14397,10 @@
         <v>661</v>
       </c>
       <c r="H379" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I379" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14411,13 +14411,13 @@
         <v>403</v>
       </c>
       <c r="C380" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D380" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E380" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F380" s="26" t="s">
         <v>661</v>
@@ -14426,10 +14426,10 @@
         <v>661</v>
       </c>
       <c r="H380" s="26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I380" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14440,7 +14440,7 @@
         <v>403</v>
       </c>
       <c r="C381" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D381" s="27" t="s">
         <v>146</v>
@@ -14455,11 +14455,11 @@
         <v>641</v>
       </c>
       <c r="H381" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I381" s="26"/>
       <c r="L381" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14470,13 +14470,13 @@
         <v>403</v>
       </c>
       <c r="C382" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D382" s="27" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E382" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F382" s="26" t="s">
         <v>661</v>
@@ -14485,10 +14485,10 @@
         <v>661</v>
       </c>
       <c r="H382" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I382" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14499,13 +14499,13 @@
         <v>403</v>
       </c>
       <c r="C383" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D383" s="27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E383" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F383" s="26" t="s">
         <v>661</v>
@@ -14514,10 +14514,10 @@
         <v>661</v>
       </c>
       <c r="H383" s="26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I383" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="384" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14528,13 +14528,13 @@
         <v>403</v>
       </c>
       <c r="C384" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D384" s="27" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E384" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F384" s="26" t="s">
         <v>661</v>
@@ -14543,10 +14543,10 @@
         <v>661</v>
       </c>
       <c r="H384" s="26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I384" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14557,10 +14557,10 @@
         <v>403</v>
       </c>
       <c r="C385" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D385" s="27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E385" s="26" t="s">
         <v>635</v>
@@ -14582,10 +14582,10 @@
         <v>403</v>
       </c>
       <c r="C386" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D386" s="27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E386" s="26" t="s">
         <v>635</v>
@@ -14607,19 +14607,19 @@
         <v>403</v>
       </c>
       <c r="C387" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D387" s="37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E387" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F387" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G387" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H387" s="26"/>
       <c r="I387" s="26"/>
@@ -14633,19 +14633,19 @@
         <v>403</v>
       </c>
       <c r="C388" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D388" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E388" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F388" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G388" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H388" s="26"/>
       <c r="I388" s="26"/>
@@ -14658,19 +14658,19 @@
         <v>403</v>
       </c>
       <c r="C389" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D389" s="37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E389" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F389" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G389" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H389" s="26"/>
       <c r="I389" s="26"/>
@@ -14683,13 +14683,13 @@
         <v>403</v>
       </c>
       <c r="C390" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D390" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E390" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F390" s="26" t="s">
         <v>644</v>
@@ -14708,13 +14708,13 @@
         <v>403</v>
       </c>
       <c r="C391" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D391" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E391" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F391" s="26" t="s">
         <v>645</v>
@@ -14733,23 +14733,23 @@
         <v>403</v>
       </c>
       <c r="C392" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D392" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E392" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F392" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G392" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H392" s="26"/>
       <c r="I392" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="393" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14760,23 +14760,23 @@
         <v>403</v>
       </c>
       <c r="C393" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D393" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E393" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F393" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G393" s="42" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H393" s="26"/>
       <c r="I393" s="26" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14787,13 +14787,13 @@
         <v>403</v>
       </c>
       <c r="C394" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D394" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E394" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F394" s="42" t="s">
         <v>638</v>
@@ -14802,7 +14802,7 @@
         <v>638</v>
       </c>
       <c r="H394" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I394" s="26"/>
     </row>
@@ -14814,19 +14814,19 @@
         <v>403</v>
       </c>
       <c r="C395" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D395" s="27" t="s">
         <v>147</v>
       </c>
       <c r="E395" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F395" s="26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G395" s="26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H395" s="26"/>
       <c r="I395" s="26"/>
@@ -14839,7 +14839,7 @@
         <v>403</v>
       </c>
       <c r="C396" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D396" s="27" t="s">
         <v>7</v>
@@ -14848,10 +14848,10 @@
         <v>635</v>
       </c>
       <c r="F396" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G396" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H396" s="26"/>
       <c r="I396" s="26"/>
@@ -14864,7 +14864,7 @@
         <v>403</v>
       </c>
       <c r="C397" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D397" s="27" t="s">
         <v>8</v>
@@ -14873,10 +14873,10 @@
         <v>635</v>
       </c>
       <c r="F397" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G397" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H397" s="26"/>
       <c r="I397" s="26"/>
@@ -14889,7 +14889,7 @@
         <v>403</v>
       </c>
       <c r="C398" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D398" s="27" t="s">
         <v>69</v>
@@ -14898,10 +14898,10 @@
         <v>635</v>
       </c>
       <c r="F398" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G398" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H398" s="26"/>
       <c r="I398" s="26"/>
@@ -14914,19 +14914,19 @@
         <v>403</v>
       </c>
       <c r="C399" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D399" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E399" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F399" s="26" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G399" s="26" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H399" s="26"/>
       <c r="I399" s="26"/>
@@ -14939,7 +14939,7 @@
         <v>403</v>
       </c>
       <c r="C400" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D400" s="27" t="s">
         <v>10</v>
@@ -14948,10 +14948,10 @@
         <v>635</v>
       </c>
       <c r="F400" s="26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G400" s="26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H400" s="26"/>
       <c r="I400" s="26"/>
@@ -14964,7 +14964,7 @@
         <v>403</v>
       </c>
       <c r="C401" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D401" s="27" t="s">
         <v>11</v>
@@ -14973,10 +14973,10 @@
         <v>635</v>
       </c>
       <c r="F401" s="26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G401" s="26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H401" s="26"/>
       <c r="I401" s="26"/>
@@ -14989,7 +14989,7 @@
         <v>403</v>
       </c>
       <c r="C402" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D402" s="27" t="s">
         <v>12</v>
@@ -14998,10 +14998,10 @@
         <v>635</v>
       </c>
       <c r="F402" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G402" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I402" s="26"/>
     </row>
@@ -15013,13 +15013,13 @@
         <v>149</v>
       </c>
       <c r="C403" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D403" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E403" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F403" s="26" t="s">
         <v>643</v>
@@ -15028,14 +15028,14 @@
         <v>643</v>
       </c>
       <c r="H403" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I403" s="26"/>
       <c r="J403" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K403" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L403" s="26"/>
     </row>
@@ -15047,13 +15047,13 @@
         <v>149</v>
       </c>
       <c r="C404" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D404" s="27" t="s">
         <v>52</v>
       </c>
       <c r="E404" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F404" s="26" t="s">
         <v>643</v>
@@ -15062,14 +15062,14 @@
         <v>643</v>
       </c>
       <c r="H404" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I404" s="26"/>
       <c r="J404" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K404" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L404" s="26"/>
     </row>
@@ -15081,13 +15081,13 @@
         <v>149</v>
       </c>
       <c r="C405" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D405" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E405" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F405" s="26" t="s">
         <v>638</v>
@@ -15096,14 +15096,14 @@
         <v>638</v>
       </c>
       <c r="H405" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I405" s="26"/>
       <c r="J405" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K405" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L405" s="26"/>
     </row>
@@ -15115,13 +15115,13 @@
         <v>149</v>
       </c>
       <c r="C406" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D406" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E406" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F406" s="26" t="s">
         <v>643</v>
@@ -15130,14 +15130,14 @@
         <v>643</v>
       </c>
       <c r="H406" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I406" s="26"/>
       <c r="J406" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K406" s="26" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L406" s="26"/>
     </row>
@@ -15149,13 +15149,13 @@
         <v>149</v>
       </c>
       <c r="C407" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D407" s="27" t="s">
         <v>143</v>
       </c>
       <c r="E407" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F407" s="26" t="s">
         <v>643</v>
@@ -15164,14 +15164,14 @@
         <v>643</v>
       </c>
       <c r="H407" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I407" s="26"/>
       <c r="J407" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K407" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L407" s="26"/>
     </row>
@@ -15183,13 +15183,13 @@
         <v>149</v>
       </c>
       <c r="C408" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D408" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E408" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F408" s="26" t="s">
         <v>643</v>
@@ -15198,14 +15198,14 @@
         <v>643</v>
       </c>
       <c r="H408" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I408" s="26"/>
       <c r="J408" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K408" s="26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L408" s="26"/>
     </row>
@@ -15217,13 +15217,13 @@
         <v>149</v>
       </c>
       <c r="C409" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D409" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E409" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F409" s="26" t="s">
         <v>643</v>
@@ -15232,14 +15232,14 @@
         <v>643</v>
       </c>
       <c r="H409" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I409" s="26"/>
       <c r="J409" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K409" s="26" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L409" s="26"/>
     </row>
@@ -15251,13 +15251,13 @@
         <v>149</v>
       </c>
       <c r="C410" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D410" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E410" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F410" s="26" t="s">
         <v>643</v>
@@ -15266,14 +15266,14 @@
         <v>643</v>
       </c>
       <c r="H410" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I410" s="26"/>
       <c r="J410" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K410" s="26" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L410" s="26"/>
     </row>
@@ -15285,29 +15285,29 @@
         <v>149</v>
       </c>
       <c r="C411" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D411" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E411" s="42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F411" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G411" s="42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H411" s="26"/>
       <c r="I411" s="26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J411" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K411" s="26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L411" s="26"/>
     </row>
@@ -15319,13 +15319,13 @@
         <v>149</v>
       </c>
       <c r="C412" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D412" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E412" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F412" s="26" t="s">
         <v>658</v>
@@ -15336,10 +15336,10 @@
       <c r="H412" s="26"/>
       <c r="I412" s="26"/>
       <c r="J412" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K412" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L412" s="26"/>
     </row>
@@ -15351,29 +15351,29 @@
         <v>149</v>
       </c>
       <c r="C413" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D413" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E413" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F413" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G413" s="42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H413" s="26"/>
       <c r="I413" s="26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J413" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K413" s="26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L413" s="26"/>
     </row>
@@ -15385,29 +15385,29 @@
         <v>149</v>
       </c>
       <c r="C414" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D414" s="27" t="s">
         <v>48</v>
       </c>
       <c r="E414" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F414" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G414" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H414" s="26"/>
       <c r="I414" s="26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J414" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K414" s="26" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L414" s="26"/>
     </row>
@@ -15419,29 +15419,29 @@
         <v>149</v>
       </c>
       <c r="C415" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D415" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E415" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F415" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G415" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H415" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I415" s="26"/>
       <c r="J415" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K415" s="26" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L415" s="26"/>
     </row>
@@ -15453,29 +15453,29 @@
         <v>149</v>
       </c>
       <c r="C416" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D416" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E416" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F416" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G416" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H416" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I416" s="26"/>
       <c r="J416" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K416" s="26" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L416" s="26"/>
     </row>
@@ -15487,29 +15487,29 @@
         <v>149</v>
       </c>
       <c r="C417" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D417" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E417" s="42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F417" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G417" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H417" s="26"/>
       <c r="I417" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J417" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K417" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L417" s="26"/>
     </row>
@@ -15521,10 +15521,10 @@
         <v>149</v>
       </c>
       <c r="C418" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D418" s="27" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E418" s="42" t="s">
         <v>635</v>
@@ -15538,10 +15538,10 @@
       <c r="H418" s="26"/>
       <c r="I418" s="26"/>
       <c r="J418" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K418" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L418" s="26"/>
     </row>
@@ -15553,13 +15553,13 @@
         <v>149</v>
       </c>
       <c r="C419" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D419" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E419" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F419" s="26" t="s">
         <v>649</v>
@@ -15570,10 +15570,10 @@
       <c r="H419" s="26"/>
       <c r="I419" s="26"/>
       <c r="J419" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K419" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L419" s="26"/>
     </row>
@@ -15585,13 +15585,13 @@
         <v>149</v>
       </c>
       <c r="C420" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D420" s="27" t="s">
         <v>144</v>
       </c>
       <c r="E420" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F420" s="26" t="s">
         <v>650</v>
@@ -15602,22 +15602,22 @@
       <c r="H420" s="26"/>
       <c r="I420" s="26"/>
       <c r="J420" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K420" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L420" s="26"/>
     </row>
     <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="31" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B421" s="32" t="s">
         <v>149</v>
       </c>
       <c r="C421" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D421" s="27" t="s">
         <v>145</v>
@@ -15634,10 +15634,10 @@
       <c r="H421" s="26"/>
       <c r="I421" s="26"/>
       <c r="J421" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K421" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L421" s="26"/>
     </row>
@@ -24308,57 +24308,57 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B4" s="14"/>
       <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="76.900000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B8" s="16"/>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>241</v>
@@ -24372,7 +24372,7 @@
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>469</v>
@@ -24386,7 +24386,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>469</v>
@@ -24395,12 +24395,12 @@
         <v>470</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>469</v>
@@ -24409,12 +24409,12 @@
         <v>470</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>469</v>
@@ -24423,12 +24423,12 @@
         <v>470</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>469</v>
@@ -24442,7 +24442,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>469</v>
@@ -24456,7 +24456,7 @@
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>469</v>
@@ -24465,12 +24465,12 @@
         <v>470</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>469</v>
@@ -24484,7 +24484,7 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>469</v>
@@ -24498,7 +24498,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>469</v>
@@ -24507,12 +24507,12 @@
         <v>470</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>469</v>
@@ -24521,19 +24521,19 @@
         <v>470</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B21" s="16"/>
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>272</v>
@@ -24555,7 +24555,7 @@
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>272</v>
@@ -24569,17 +24569,17 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>272</v>
@@ -24593,7 +24593,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>272</v>
@@ -24607,17 +24607,17 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>272</v>
@@ -24626,12 +24626,12 @@
         <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>272</v>
@@ -24645,7 +24645,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>272</v>
@@ -24659,7 +24659,7 @@
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>272</v>
@@ -24673,7 +24673,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>272</v>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>272</v>
@@ -24701,7 +24701,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>272</v>
@@ -24715,7 +24715,7 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>272</v>
@@ -24729,7 +24729,7 @@
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>272</v>
@@ -24743,7 +24743,7 @@
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>272</v>
@@ -24757,7 +24757,7 @@
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>272</v>
@@ -24771,7 +24771,7 @@
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>272</v>
@@ -24785,7 +24785,7 @@
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>272</v>
@@ -24799,7 +24799,7 @@
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>272</v>
@@ -24813,7 +24813,7 @@
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>272</v>
@@ -24822,12 +24822,12 @@
         <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>272</v>
@@ -24836,12 +24836,12 @@
         <v>104</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>272</v>
@@ -24850,12 +24850,12 @@
         <v>104</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>272</v>
@@ -24864,12 +24864,12 @@
         <v>104</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>272</v>
@@ -24878,12 +24878,12 @@
         <v>104</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>272</v>
@@ -24897,7 +24897,7 @@
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>272</v>
@@ -24911,7 +24911,7 @@
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>272</v>
@@ -24925,7 +24925,7 @@
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>272</v>
@@ -24939,7 +24939,7 @@
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>272</v>
@@ -24953,7 +24953,7 @@
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>272</v>
@@ -24967,7 +24967,7 @@
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>272</v>
@@ -24981,7 +24981,7 @@
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>272</v>
@@ -24995,7 +24995,7 @@
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>272</v>
@@ -25009,7 +25009,7 @@
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>272</v>
@@ -25023,7 +25023,7 @@
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>272</v>
@@ -25037,7 +25037,7 @@
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>272</v>
@@ -25051,14 +25051,14 @@
     </row>
     <row r="60" spans="1:7" s="17" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B60" s="16"/>
       <c r="D60" s="16"/>
     </row>
     <row r="61" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>469</v>
@@ -25067,12 +25067,12 @@
         <v>470</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>469</v>
@@ -25081,7 +25081,7 @@
         <v>470</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>272</v>
@@ -25090,12 +25090,12 @@
         <v>104</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>469</v>
@@ -25104,7 +25104,7 @@
         <v>470</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>272</v>
@@ -25113,7 +25113,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -25183,15 +25183,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005096E86C82FA8C4AA9C6C4E3CB43FBC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3691e5212bdf4535f084bb6029a7aa1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4539b44-c7c4-4ec8-bb6c-675c694d1d58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63488d226906f1373fe69f5df23de5c6" ns2:_="">
     <xsd:import namespace="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
@@ -25349,6 +25340,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
   <ds:schemaRefs>
@@ -25366,14 +25366,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882DA5ED-705A-42B5-AB41-BAC56582EABB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25389,4 +25381,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A9F117-F140-43C1-B46E-3DFF55AC8F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC9CBA-30ED-4E96-8AA5-EF88BB644B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1108">
   <si>
     <t>2. What is your current legal name?</t>
   </si>
@@ -3547,6 +3547,15 @@
   </si>
   <si>
     <t>Observation-number-fetal-deaths-this-delivery</t>
+  </si>
+  <si>
+    <t>Coverage-principal-payer-delivery</t>
+  </si>
+  <si>
+    <t>Observation-antibiotics-administered-during-labor</t>
+  </si>
+  <si>
+    <t>Observation-fetal-death-time-point</t>
   </si>
 </sst>
 </file>
@@ -4266,10 +4275,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18068277-4716-4691-B560-92987FEB33E6}">
   <dimension ref="A1:L3145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="F420" sqref="F420"/>
+      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,7 +5858,7 @@
         <v>635</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>1077</v>
@@ -6415,7 +6424,7 @@
         <v>635</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>1079</v>
+        <v>1106</v>
       </c>
       <c r="G79" s="26" t="s">
         <v>1079</v>
@@ -8238,7 +8247,7 @@
         <v>635</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="G149" s="26" t="s">
         <v>1077</v>
@@ -8505,7 +8514,7 @@
         <v>635</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>1079</v>
+        <v>1106</v>
       </c>
       <c r="G159" s="26" t="s">
         <v>1079</v>
@@ -9630,7 +9639,7 @@
         <v>635</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>1079</v>
+        <v>1106</v>
       </c>
       <c r="G203" s="26" t="s">
         <v>1079</v>
@@ -12397,7 +12406,7 @@
         <v>635</v>
       </c>
       <c r="F300" s="26" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
       <c r="G300" s="26" t="s">
         <v>1078</v>
@@ -15073,7 +15082,7 @@
         <v>635</v>
       </c>
       <c r="F402" s="26" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
       <c r="G402" s="26" t="s">
         <v>1078</v>
@@ -25252,6 +25261,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005096E86C82FA8C4AA9C6C4E3CB43FBC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3691e5212bdf4535f084bb6029a7aa1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4539b44-c7c4-4ec8-bb6c-675c694d1d58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63488d226906f1373fe69f5df23de5c6" ns2:_="">
     <xsd:import namespace="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
@@ -25409,35 +25433,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882DA5ED-705A-42B5-AB41-BAC56582EABB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25459,9 +25458,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882DA5ED-705A-42B5-AB41-BAC56582EABB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A68C69B-3678-434B-B722-5A36F392BC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62193D-CD84-D547-9927-533FC59062DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
+    <workbookView xWindow="2920" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR Form Items" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1107">
   <si>
     <t>2. What is your current legal name?</t>
   </si>
@@ -3451,9 +3451,6 @@
   </si>
   <si>
     <t>Coverage-principal-payer-for-delivery</t>
-  </si>
-  <si>
-    <t>Observation-estimated-fetal-death-time-point</t>
   </si>
   <si>
     <t>Observation-antibiotics-during-labor</t>
@@ -4276,9 +4273,9 @@
   <dimension ref="A1:L3145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="F264" sqref="F264"/>
+      <selection pane="bottomLeft" activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="51.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5285,10 +5282,10 @@
         <v>932</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
@@ -5364,10 +5361,10 @@
         <v>932</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
@@ -5658,7 +5655,7 @@
         <v>932</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>656</v>
@@ -5683,7 +5680,7 @@
         <v>932</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>648</v>
@@ -5708,7 +5705,7 @@
         <v>932</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>649</v>
@@ -5733,7 +5730,7 @@
         <v>932</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>647</v>
@@ -5783,7 +5780,7 @@
         <v>932</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>650</v>
@@ -5808,7 +5805,7 @@
         <v>932</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>654</v>
@@ -5858,7 +5855,7 @@
         <v>635</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>1072</v>
@@ -5883,7 +5880,7 @@
         <v>932</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>646</v>
@@ -5935,7 +5932,7 @@
         <v>932</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>587</v>
@@ -5961,7 +5958,7 @@
         <v>932</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>585</v>
@@ -5986,7 +5983,7 @@
         <v>932</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>588</v>
@@ -6011,7 +6008,7 @@
         <v>932</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>586</v>
@@ -6036,7 +6033,7 @@
         <v>932</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>584</v>
@@ -6061,7 +6058,7 @@
         <v>932</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>591</v>
@@ -6114,7 +6111,7 @@
         <v>932</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>593</v>
@@ -6139,7 +6136,7 @@
         <v>932</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>592</v>
@@ -6164,7 +6161,7 @@
         <v>932</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>1028</v>
@@ -6189,7 +6186,7 @@
         <v>932</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>590</v>
@@ -6214,7 +6211,7 @@
         <v>932</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>589</v>
@@ -6424,10 +6421,10 @@
         <v>635</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
@@ -6917,7 +6914,7 @@
         <v>932</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G98" s="26" t="s">
         <v>643</v>
@@ -6942,7 +6939,7 @@
         <v>932</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G99" s="26" t="s">
         <v>644</v>
@@ -6967,7 +6964,7 @@
         <v>932</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G100" s="26" t="s">
         <v>641</v>
@@ -7308,7 +7305,7 @@
         <v>932</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G113" s="26" t="s">
         <v>645</v>
@@ -7599,7 +7596,7 @@
         <v>932</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G124" s="26" t="s">
         <v>656</v>
@@ -7624,7 +7621,7 @@
         <v>932</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G125" s="26" t="s">
         <v>646</v>
@@ -7649,7 +7646,7 @@
         <v>932</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G126" s="26" t="s">
         <v>652</v>
@@ -7674,7 +7671,7 @@
         <v>932</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G127" s="26" t="s">
         <v>650</v>
@@ -7724,7 +7721,7 @@
         <v>932</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G129" s="26" t="s">
         <v>654</v>
@@ -7774,7 +7771,7 @@
         <v>932</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G131" s="26" t="s">
         <v>587</v>
@@ -7800,7 +7797,7 @@
         <v>932</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G132" s="26" t="s">
         <v>585</v>
@@ -7825,7 +7822,7 @@
         <v>932</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G133" s="26" t="s">
         <v>588</v>
@@ -7850,7 +7847,7 @@
         <v>932</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G134" s="26" t="s">
         <v>586</v>
@@ -7875,7 +7872,7 @@
         <v>932</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G135" s="26" t="s">
         <v>584</v>
@@ -7900,7 +7897,7 @@
         <v>932</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G136" s="26" t="s">
         <v>591</v>
@@ -7925,7 +7922,7 @@
         <v>932</v>
       </c>
       <c r="F137" s="26" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G137" s="26" t="s">
         <v>593</v>
@@ -7951,7 +7948,7 @@
         <v>932</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G138" s="26" t="s">
         <v>592</v>
@@ -7977,7 +7974,7 @@
         <v>932</v>
       </c>
       <c r="F139" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G139" s="26" t="s">
         <v>1028</v>
@@ -8003,7 +8000,7 @@
         <v>932</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G140" s="26" t="s">
         <v>590</v>
@@ -8028,7 +8025,7 @@
         <v>932</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G141" s="26" t="s">
         <v>589</v>
@@ -8247,7 +8244,7 @@
         <v>635</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G149" s="26" t="s">
         <v>1072</v>
@@ -8413,7 +8410,7 @@
         <v>932</v>
       </c>
       <c r="F155" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G155" s="26" t="s">
         <v>647</v>
@@ -8514,10 +8511,10 @@
         <v>635</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
@@ -8840,7 +8837,7 @@
         <v>932</v>
       </c>
       <c r="F172" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G172" s="26" t="s">
         <v>643</v>
@@ -8865,7 +8862,7 @@
         <v>932</v>
       </c>
       <c r="F173" s="26" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G173" s="26" t="s">
         <v>644</v>
@@ -8917,7 +8914,7 @@
         <v>932</v>
       </c>
       <c r="F175" s="26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G175" s="26" t="s">
         <v>641</v>
@@ -8996,7 +8993,7 @@
         <v>932</v>
       </c>
       <c r="F178" s="26" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G178" s="26" t="s">
         <v>958</v>
@@ -9252,7 +9249,7 @@
         <v>932</v>
       </c>
       <c r="F188" s="26" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G188" s="26" t="s">
         <v>645</v>
@@ -9408,7 +9405,7 @@
         <v>932</v>
       </c>
       <c r="F194" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G194" s="26" t="s">
         <v>652</v>
@@ -9433,7 +9430,7 @@
         <v>932</v>
       </c>
       <c r="F195" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G195" s="26" t="s">
         <v>650</v>
@@ -9458,7 +9455,7 @@
         <v>932</v>
       </c>
       <c r="F196" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G196" s="26" t="s">
         <v>654</v>
@@ -9639,10 +9636,10 @@
         <v>635</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G203" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
@@ -9965,7 +9962,7 @@
         <v>932</v>
       </c>
       <c r="F216" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G216" s="26" t="s">
         <v>643</v>
@@ -9990,7 +9987,7 @@
         <v>932</v>
       </c>
       <c r="F217" s="26" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G217" s="26" t="s">
         <v>644</v>
@@ -10042,7 +10039,7 @@
         <v>932</v>
       </c>
       <c r="F219" s="26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G219" s="26" t="s">
         <v>641</v>
@@ -10298,7 +10295,7 @@
         <v>932</v>
       </c>
       <c r="F229" s="26" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G229" s="26" t="s">
         <v>645</v>
@@ -10586,10 +10583,10 @@
         <v>932</v>
       </c>
       <c r="F238" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G238" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
@@ -10750,7 +10747,7 @@
         <v>932</v>
       </c>
       <c r="F243" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G243" s="26" t="s">
         <v>648</v>
@@ -10782,7 +10779,7 @@
         <v>932</v>
       </c>
       <c r="F244" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G244" s="26" t="s">
         <v>649</v>
@@ -11046,10 +11043,10 @@
         <v>932</v>
       </c>
       <c r="F252" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G252" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H252" s="26"/>
       <c r="I252" s="26"/>
@@ -11396,10 +11393,10 @@
         <v>635</v>
       </c>
       <c r="F263" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G263" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H263" s="27" t="s">
         <v>961</v>
@@ -11423,13 +11420,13 @@
         <v>936</v>
       </c>
       <c r="F264" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G264" s="42" t="s">
         <v>947</v>
       </c>
       <c r="I264" s="26" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11449,14 +11446,14 @@
         <v>955</v>
       </c>
       <c r="F265" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G265" s="43" t="s">
         <v>959</v>
       </c>
       <c r="H265" s="26"/>
       <c r="I265" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="266" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11476,10 +11473,10 @@
         <v>635</v>
       </c>
       <c r="F266" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G266" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H266" s="27" t="s">
         <v>962</v>
@@ -11503,14 +11500,14 @@
         <v>936</v>
       </c>
       <c r="F267" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G267" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H267" s="26"/>
       <c r="I267" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11530,14 +11527,14 @@
         <v>936</v>
       </c>
       <c r="F268" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G268" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H268" s="26"/>
       <c r="I268" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11557,14 +11554,14 @@
         <v>936</v>
       </c>
       <c r="F269" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G269" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H269" s="26"/>
       <c r="I269" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12356,7 +12353,7 @@
         <v>932</v>
       </c>
       <c r="F298" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G298" s="26" t="s">
         <v>643</v>
@@ -12381,7 +12378,7 @@
         <v>932</v>
       </c>
       <c r="F299" s="26" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G299" s="26" t="s">
         <v>644</v>
@@ -12406,10 +12403,10 @@
         <v>635</v>
       </c>
       <c r="F300" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G300" s="26" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="H300" s="26"/>
       <c r="I300" s="26"/>
@@ -12506,10 +12503,10 @@
         <v>932</v>
       </c>
       <c r="F304" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G304" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H304" s="26"/>
       <c r="I304" s="26"/>
@@ -12663,7 +12660,7 @@
         <v>932</v>
       </c>
       <c r="F310" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G310" s="26" t="s">
         <v>656</v>
@@ -12688,7 +12685,7 @@
         <v>932</v>
       </c>
       <c r="F311" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G311" s="26" t="s">
         <v>648</v>
@@ -12713,7 +12710,7 @@
         <v>932</v>
       </c>
       <c r="F312" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G312" s="26" t="s">
         <v>649</v>
@@ -12791,7 +12788,7 @@
         <v>932</v>
       </c>
       <c r="F315" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G315" s="26" t="s">
         <v>652</v>
@@ -12816,7 +12813,7 @@
         <v>932</v>
       </c>
       <c r="F316" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G316" s="26" t="s">
         <v>650</v>
@@ -12975,7 +12972,7 @@
         <v>932</v>
       </c>
       <c r="F322" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G322" s="26" t="s">
         <v>646</v>
@@ -13025,10 +13022,10 @@
         <v>635</v>
       </c>
       <c r="F324" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G324" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H324" s="26" t="s">
         <v>975</v>
@@ -13080,7 +13077,7 @@
         <v>932</v>
       </c>
       <c r="F326" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G326" s="26" t="s">
         <v>587</v>
@@ -13106,7 +13103,7 @@
         <v>932</v>
       </c>
       <c r="F327" s="26" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G327" s="26" t="s">
         <v>585</v>
@@ -13131,7 +13128,7 @@
         <v>932</v>
       </c>
       <c r="F328" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G328" s="26" t="s">
         <v>588</v>
@@ -13156,7 +13153,7 @@
         <v>932</v>
       </c>
       <c r="F329" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G329" s="26" t="s">
         <v>586</v>
@@ -13181,7 +13178,7 @@
         <v>932</v>
       </c>
       <c r="F330" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G330" s="26" t="s">
         <v>584</v>
@@ -13262,7 +13259,7 @@
         <v>932</v>
       </c>
       <c r="F333" s="26" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G333" s="26" t="s">
         <v>593</v>
@@ -13288,7 +13285,7 @@
         <v>932</v>
       </c>
       <c r="F334" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G334" s="26" t="s">
         <v>592</v>
@@ -13314,7 +13311,7 @@
         <v>932</v>
       </c>
       <c r="F335" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G335" s="26" t="s">
         <v>1028</v>
@@ -13340,7 +13337,7 @@
         <v>932</v>
       </c>
       <c r="F336" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G336" s="26" t="s">
         <v>590</v>
@@ -13365,7 +13362,7 @@
         <v>932</v>
       </c>
       <c r="F337" s="26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G337" s="26" t="s">
         <v>589</v>
@@ -13940,14 +13937,14 @@
         <v>936</v>
       </c>
       <c r="F358" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G358" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H358" s="26"/>
       <c r="I358" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -13967,14 +13964,14 @@
         <v>936</v>
       </c>
       <c r="F359" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G359" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H359" s="26"/>
       <c r="I359" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -14071,7 +14068,7 @@
         <v>932</v>
       </c>
       <c r="F363" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G363" s="26" t="s">
         <v>646</v>
@@ -14096,7 +14093,7 @@
         <v>932</v>
       </c>
       <c r="F364" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G364" s="26" t="s">
         <v>652</v>
@@ -14121,7 +14118,7 @@
         <v>932</v>
       </c>
       <c r="F365" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G365" s="26" t="s">
         <v>650</v>
@@ -14171,7 +14168,7 @@
         <v>932</v>
       </c>
       <c r="F367" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G367" s="26" t="s">
         <v>587</v>
@@ -14197,7 +14194,7 @@
         <v>932</v>
       </c>
       <c r="F368" s="26" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G368" s="26" t="s">
         <v>585</v>
@@ -14222,7 +14219,7 @@
         <v>932</v>
       </c>
       <c r="F369" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G369" s="26" t="s">
         <v>588</v>
@@ -14247,7 +14244,7 @@
         <v>932</v>
       </c>
       <c r="F370" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G370" s="26" t="s">
         <v>586</v>
@@ -14272,7 +14269,7 @@
         <v>932</v>
       </c>
       <c r="F371" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G371" s="26" t="s">
         <v>584</v>
@@ -14297,7 +14294,7 @@
         <v>932</v>
       </c>
       <c r="F372" s="26" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G372" s="26" t="s">
         <v>593</v>
@@ -14322,7 +14319,7 @@
         <v>932</v>
       </c>
       <c r="F373" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G373" s="26" t="s">
         <v>592</v>
@@ -14347,7 +14344,7 @@
         <v>932</v>
       </c>
       <c r="F374" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G374" s="26" t="s">
         <v>1028</v>
@@ -14372,7 +14369,7 @@
         <v>932</v>
       </c>
       <c r="F375" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G375" s="26" t="s">
         <v>590</v>
@@ -14397,7 +14394,7 @@
         <v>932</v>
       </c>
       <c r="F376" s="26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G376" s="26" t="s">
         <v>589</v>
@@ -14422,10 +14419,10 @@
         <v>635</v>
       </c>
       <c r="F377" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G377" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H377" s="26" t="s">
         <v>962</v>
@@ -14449,13 +14446,13 @@
         <v>936</v>
       </c>
       <c r="F378" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G378" s="42" t="s">
         <v>947</v>
       </c>
       <c r="I378" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="379" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -14776,7 +14773,7 @@
         <v>932</v>
       </c>
       <c r="F390" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G390" s="26" t="s">
         <v>643</v>
@@ -14801,7 +14798,7 @@
         <v>932</v>
       </c>
       <c r="F391" s="26" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G391" s="26" t="s">
         <v>644</v>
@@ -14826,14 +14823,14 @@
         <v>955</v>
       </c>
       <c r="F392" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G392" s="43" t="s">
         <v>959</v>
       </c>
       <c r="H392" s="26"/>
       <c r="I392" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="393" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -14853,14 +14850,14 @@
         <v>936</v>
       </c>
       <c r="F393" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G393" s="42" t="s">
         <v>937</v>
       </c>
       <c r="H393" s="26"/>
       <c r="I393" s="26" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="394" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -14880,10 +14877,10 @@
         <v>635</v>
       </c>
       <c r="F394" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G394" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H394" s="27" t="s">
         <v>975</v>
@@ -14907,7 +14904,7 @@
         <v>932</v>
       </c>
       <c r="F395" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G395" s="26" t="s">
         <v>938</v>
@@ -15082,10 +15079,10 @@
         <v>635</v>
       </c>
       <c r="F402" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G402" s="26" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="I402" s="26"/>
     </row>
@@ -15174,10 +15171,10 @@
         <v>635</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G405" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H405" s="27" t="s">
         <v>961</v>
@@ -15412,10 +15409,10 @@
         <v>932</v>
       </c>
       <c r="F412" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G412" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H412" s="26"/>
       <c r="I412" s="26"/>
@@ -15646,7 +15643,7 @@
         <v>932</v>
       </c>
       <c r="F419" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G419" s="26" t="s">
         <v>648</v>
@@ -15678,7 +15675,7 @@
         <v>932</v>
       </c>
       <c r="F420" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G420" s="26" t="s">
         <v>649</v>
@@ -25419,18 +25416,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25452,14 +25449,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -25473,4 +25462,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD03E0F-FE6F-4530-9D4D-AC9B287B8C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF09504D-B6A0-423D-8638-3E907A10E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
@@ -3528,9 +3528,6 @@
     <t>Coverage-principal-payer-delivery</t>
   </si>
   <si>
-    <t>Observation-antibiotics-administered-during-labor</t>
-  </si>
-  <si>
     <t>Observation-fetal-death-time-point</t>
   </si>
   <si>
@@ -3547,6 +3544,9 @@
   </si>
   <si>
     <t>Patient-decedent-fetus.birthDate.extension</t>
+  </si>
+  <si>
+    <t>Observation-antibiotics-during-labor</t>
   </si>
 </sst>
 </file>
@@ -4267,9 +4267,9 @@
   <dimension ref="A1:L3145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="G297" sqref="G297"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,10 +5276,10 @@
         <v>932</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
@@ -5355,10 +5355,10 @@
         <v>932</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
@@ -6415,10 +6415,10 @@
         <v>635</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
@@ -8505,10 +8505,10 @@
         <v>635</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
@@ -9630,10 +9630,10 @@
         <v>635</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="G203" s="26" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
@@ -10577,10 +10577,10 @@
         <v>932</v>
       </c>
       <c r="F238" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G238" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
@@ -11037,10 +11037,10 @@
         <v>932</v>
       </c>
       <c r="F252" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G252" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H252" s="26"/>
       <c r="I252" s="26"/>
@@ -11387,10 +11387,10 @@
         <v>635</v>
       </c>
       <c r="F263" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G263" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H263" s="27" t="s">
         <v>961</v>
@@ -11414,13 +11414,13 @@
         <v>936</v>
       </c>
       <c r="F264" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G264" s="42" t="s">
         <v>947</v>
       </c>
       <c r="I264" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11440,14 +11440,14 @@
         <v>955</v>
       </c>
       <c r="F265" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G265" s="43" t="s">
         <v>959</v>
       </c>
       <c r="H265" s="26"/>
       <c r="I265" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11467,10 +11467,10 @@
         <v>635</v>
       </c>
       <c r="F266" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G266" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H266" s="27" t="s">
         <v>962</v>
@@ -11494,14 +11494,14 @@
         <v>936</v>
       </c>
       <c r="F267" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G267" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H267" s="26"/>
       <c r="I267" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -11521,14 +11521,14 @@
         <v>936</v>
       </c>
       <c r="F268" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G268" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H268" s="26"/>
       <c r="I268" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -11548,14 +11548,14 @@
         <v>936</v>
       </c>
       <c r="F269" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G269" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H269" s="26"/>
       <c r="I269" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12397,10 +12397,10 @@
         <v>635</v>
       </c>
       <c r="F300" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G300" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H300" s="26"/>
       <c r="I300" s="26"/>
@@ -12497,10 +12497,10 @@
         <v>932</v>
       </c>
       <c r="F304" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G304" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H304" s="26"/>
       <c r="I304" s="26"/>
@@ -13016,10 +13016,10 @@
         <v>635</v>
       </c>
       <c r="F324" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G324" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H324" s="26" t="s">
         <v>975</v>
@@ -13931,14 +13931,14 @@
         <v>936</v>
       </c>
       <c r="F358" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G358" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H358" s="26"/>
       <c r="I358" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13958,14 +13958,14 @@
         <v>936</v>
       </c>
       <c r="F359" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G359" s="42" t="s">
         <v>945</v>
       </c>
       <c r="H359" s="26"/>
       <c r="I359" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14413,10 +14413,10 @@
         <v>635</v>
       </c>
       <c r="F377" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G377" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H377" s="26" t="s">
         <v>962</v>
@@ -14440,13 +14440,13 @@
         <v>936</v>
       </c>
       <c r="F378" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G378" s="42" t="s">
         <v>947</v>
       </c>
       <c r="I378" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14817,14 +14817,14 @@
         <v>955</v>
       </c>
       <c r="F392" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G392" s="43" t="s">
         <v>959</v>
       </c>
       <c r="H392" s="26"/>
       <c r="I392" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="393" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14844,14 +14844,14 @@
         <v>936</v>
       </c>
       <c r="F393" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G393" s="42" t="s">
         <v>937</v>
       </c>
       <c r="H393" s="26"/>
       <c r="I393" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14871,10 +14871,10 @@
         <v>635</v>
       </c>
       <c r="F394" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G394" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H394" s="27" t="s">
         <v>975</v>
@@ -15073,10 +15073,10 @@
         <v>635</v>
       </c>
       <c r="F402" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G402" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I402" s="26"/>
     </row>
@@ -15165,10 +15165,10 @@
         <v>635</v>
       </c>
       <c r="F405" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G405" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H405" s="27" t="s">
         <v>961</v>
@@ -15403,10 +15403,10 @@
         <v>932</v>
       </c>
       <c r="F412" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G412" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H412" s="26"/>
       <c r="I412" s="26"/>
@@ -25261,12 +25261,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005096E86C82FA8C4AA9C6C4E3CB43FBC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3691e5212bdf4535f084bb6029a7aa1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4539b44-c7c4-4ec8-bb6c-675c694d1d58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63488d226906f1373fe69f5df23de5c6" ns2:_="">
     <xsd:import namespace="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
@@ -25424,6 +25418,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
   <ds:schemaRefs>
@@ -25433,22 +25433,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882DA5ED-705A-42B5-AB41-BAC56582EABB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25464,4 +25448,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF09504D-B6A0-423D-8638-3E907A10E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1694D52-7C53-4F45-93A6-127168F2436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
@@ -3907,66 +3907,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>471805</xdr:colOff>
-      <xdr:row>592</xdr:row>
-      <xdr:rowOff>118745</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>471805</xdr:colOff>
-      <xdr:row>592</xdr:row>
-      <xdr:rowOff>118745</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692C26D9-2797-443A-962C-BE039FE8039E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="557530" y="9691370"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="10173">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4264,12 +4204,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18068277-4716-4691-B560-92987FEB33E6}">
-  <dimension ref="A1:L3145"/>
+  <dimension ref="A1:L421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="D422" sqref="A422:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15716,8205 +15656,13 @@
       </c>
       <c r="L421" s="26"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E422"/>
-      <c r="H422" s="26"/>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E423"/>
-      <c r="H423" s="26"/>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E424"/>
-      <c r="H424" s="26"/>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E425"/>
-      <c r="H425" s="26"/>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E426"/>
-      <c r="H426" s="26"/>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E427"/>
-      <c r="H427" s="26"/>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E428"/>
-      <c r="H428" s="26"/>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E429"/>
-      <c r="H429" s="26"/>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E430"/>
-      <c r="H430" s="26"/>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E431"/>
-      <c r="H431" s="26"/>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E432"/>
-      <c r="H432" s="26"/>
-    </row>
-    <row r="433" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E433"/>
-      <c r="H433" s="26"/>
-    </row>
-    <row r="434" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E434"/>
-      <c r="H434" s="26"/>
-    </row>
-    <row r="435" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E435"/>
-      <c r="H435" s="26"/>
-    </row>
-    <row r="436" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E436"/>
-      <c r="H436" s="26"/>
-    </row>
-    <row r="437" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E437"/>
-      <c r="H437" s="26"/>
-    </row>
-    <row r="438" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E438"/>
-      <c r="H438" s="26"/>
-    </row>
-    <row r="439" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E439"/>
-      <c r="H439" s="26"/>
-    </row>
-    <row r="440" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E440"/>
-      <c r="H440" s="26"/>
-    </row>
-    <row r="441" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E441"/>
-      <c r="H441" s="26"/>
-    </row>
-    <row r="442" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E442"/>
-    </row>
-    <row r="443" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E443"/>
-    </row>
-    <row r="444" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E444"/>
-    </row>
-    <row r="445" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E445"/>
-    </row>
-    <row r="446" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E446"/>
-    </row>
-    <row r="447" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E447"/>
-    </row>
-    <row r="448" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E448"/>
-    </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E449"/>
-    </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E450"/>
-    </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E451"/>
-    </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E452"/>
-    </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E453"/>
-    </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E454"/>
-    </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E455"/>
-    </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E456"/>
-    </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E457"/>
-    </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E458"/>
-    </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E459"/>
-    </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E460"/>
-    </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E461"/>
-    </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E462"/>
-    </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E463"/>
-    </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E464"/>
-    </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E465"/>
-    </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E466"/>
-    </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E467"/>
-    </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E468"/>
-    </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E469"/>
-    </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E470"/>
-    </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E471"/>
-    </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E472"/>
-    </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E473"/>
-    </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E474"/>
-    </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E475"/>
-    </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E476"/>
-    </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E477"/>
-    </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E478"/>
-    </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E479"/>
-    </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E480"/>
-    </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E481"/>
-    </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E482"/>
-    </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E483"/>
-    </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E484"/>
-    </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E485"/>
-    </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E486"/>
-    </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E487"/>
-    </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E488"/>
-    </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E489"/>
-    </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E490"/>
-    </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E491"/>
-    </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E492"/>
-    </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E493"/>
-    </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E494"/>
-    </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E495"/>
-    </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E496"/>
-    </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E497"/>
-    </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E498"/>
-    </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E499"/>
-    </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E500"/>
-    </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E501"/>
-    </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E502"/>
-    </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E503"/>
-    </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E504"/>
-    </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E505"/>
-    </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E506"/>
-    </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E507"/>
-    </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E508"/>
-    </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E509"/>
-    </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E510"/>
-    </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E511"/>
-    </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E512"/>
-    </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E513"/>
-    </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E514"/>
-    </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E515"/>
-    </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E516"/>
-    </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E517"/>
-    </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E518"/>
-    </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E519"/>
-    </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E520"/>
-    </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E521"/>
-    </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E522"/>
-    </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E523"/>
-    </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E524"/>
-    </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E525"/>
-    </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E526"/>
-    </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E527"/>
-    </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E528"/>
-    </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E529"/>
-    </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E530"/>
-    </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E531"/>
-    </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E532"/>
-    </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E533"/>
-    </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E534"/>
-    </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E535"/>
-    </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E536"/>
-    </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E537"/>
-    </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E538"/>
-    </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E539"/>
-    </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E540"/>
-    </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E541"/>
-    </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E542"/>
-    </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E543"/>
-    </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E544"/>
-    </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E545"/>
-    </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E546"/>
-    </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E547"/>
-    </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E548"/>
-    </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E549"/>
-    </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E550"/>
-    </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E551"/>
-    </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E552"/>
-    </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E553"/>
-    </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E554"/>
-    </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E555"/>
-    </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E556"/>
-    </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E557"/>
-    </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E558"/>
-    </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E559"/>
-    </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E560"/>
-    </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E561"/>
-    </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E562"/>
-    </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E563"/>
-    </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E564"/>
-    </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E565"/>
-    </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E566"/>
-    </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E567"/>
-    </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E568"/>
-    </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E569"/>
-    </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E570"/>
-    </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E571"/>
-    </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E572"/>
-    </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E573"/>
-    </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E574"/>
-    </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E575"/>
-    </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E576"/>
-    </row>
-    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E577"/>
-    </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E578"/>
-    </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E579"/>
-    </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E580"/>
-    </row>
-    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E581"/>
-    </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E582"/>
-    </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E583"/>
-    </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E584"/>
-    </row>
-    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E585"/>
-    </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E586"/>
-    </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E587"/>
-    </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E588"/>
-    </row>
-    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E589"/>
-    </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E590"/>
-    </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E591"/>
-    </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E592"/>
-    </row>
-    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E593"/>
-    </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E594"/>
-    </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E595"/>
-    </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E596"/>
-    </row>
-    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E597"/>
-    </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E598"/>
-    </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E599"/>
-    </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E600"/>
-    </row>
-    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E601"/>
-    </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E602"/>
-    </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E603"/>
-    </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E604"/>
-    </row>
-    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E605"/>
-    </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E606"/>
-    </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E607"/>
-    </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E608"/>
-    </row>
-    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E609"/>
-    </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E610"/>
-    </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E611"/>
-    </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E612"/>
-    </row>
-    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E613"/>
-    </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E614"/>
-    </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E615"/>
-    </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E616"/>
-    </row>
-    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E617"/>
-    </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E618"/>
-    </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E619"/>
-    </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E620"/>
-    </row>
-    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E621"/>
-    </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E622"/>
-    </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E623"/>
-    </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E624"/>
-    </row>
-    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E625"/>
-    </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E626"/>
-    </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E627"/>
-    </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E628"/>
-    </row>
-    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E629"/>
-    </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E630"/>
-    </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E631"/>
-    </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E632"/>
-    </row>
-    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E633"/>
-    </row>
-    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E634"/>
-    </row>
-    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E635"/>
-    </row>
-    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E636"/>
-    </row>
-    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E637"/>
-    </row>
-    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E638"/>
-    </row>
-    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E639"/>
-    </row>
-    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E640"/>
-    </row>
-    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E641"/>
-    </row>
-    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E642"/>
-    </row>
-    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E643"/>
-    </row>
-    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E644"/>
-    </row>
-    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E645"/>
-    </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E646"/>
-    </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E647"/>
-    </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E648"/>
-    </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E649"/>
-    </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E650"/>
-    </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E651"/>
-    </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E652"/>
-    </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E653"/>
-    </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E654"/>
-    </row>
-    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E655"/>
-    </row>
-    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E656"/>
-    </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E657"/>
-    </row>
-    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E658"/>
-    </row>
-    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E659"/>
-    </row>
-    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E660"/>
-    </row>
-    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E661"/>
-    </row>
-    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E662"/>
-    </row>
-    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E663"/>
-    </row>
-    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E664"/>
-    </row>
-    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E665"/>
-    </row>
-    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E666"/>
-    </row>
-    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E667"/>
-    </row>
-    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E668"/>
-    </row>
-    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E669"/>
-    </row>
-    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E670"/>
-    </row>
-    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E671"/>
-    </row>
-    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E672"/>
-    </row>
-    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E673"/>
-    </row>
-    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E674"/>
-    </row>
-    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E675"/>
-    </row>
-    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E676"/>
-    </row>
-    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E677"/>
-    </row>
-    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E678"/>
-    </row>
-    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E679"/>
-    </row>
-    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E680"/>
-    </row>
-    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E681"/>
-    </row>
-    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E682"/>
-    </row>
-    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E683"/>
-    </row>
-    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E684"/>
-    </row>
-    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E685"/>
-    </row>
-    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E686"/>
-    </row>
-    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E687"/>
-    </row>
-    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E688"/>
-    </row>
-    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E689"/>
-    </row>
-    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E690"/>
-    </row>
-    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E691"/>
-    </row>
-    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E692"/>
-    </row>
-    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E693"/>
-    </row>
-    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E694"/>
-    </row>
-    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E695"/>
-    </row>
-    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E696"/>
-    </row>
-    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E697"/>
-    </row>
-    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E698"/>
-    </row>
-    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E699"/>
-    </row>
-    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E700"/>
-    </row>
-    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E701"/>
-    </row>
-    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E702"/>
-    </row>
-    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E703"/>
-    </row>
-    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E704"/>
-    </row>
-    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E705"/>
-    </row>
-    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E706"/>
-    </row>
-    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E707"/>
-    </row>
-    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E708"/>
-    </row>
-    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E709"/>
-    </row>
-    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E710"/>
-    </row>
-    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E711"/>
-    </row>
-    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E712"/>
-    </row>
-    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E713"/>
-    </row>
-    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E714"/>
-    </row>
-    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E715"/>
-    </row>
-    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E716"/>
-    </row>
-    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E717"/>
-    </row>
-    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E718"/>
-    </row>
-    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E719"/>
-    </row>
-    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E720"/>
-    </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E721"/>
-    </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E722"/>
-    </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E723"/>
-    </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E724"/>
-    </row>
-    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E725"/>
-    </row>
-    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E726"/>
-    </row>
-    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E727"/>
-    </row>
-    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E728"/>
-    </row>
-    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E729"/>
-    </row>
-    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E730"/>
-    </row>
-    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E731"/>
-    </row>
-    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E732"/>
-    </row>
-    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E733"/>
-    </row>
-    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E734"/>
-    </row>
-    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E735"/>
-    </row>
-    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E736"/>
-    </row>
-    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E737"/>
-    </row>
-    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E738"/>
-    </row>
-    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E739"/>
-    </row>
-    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E740"/>
-    </row>
-    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E741"/>
-    </row>
-    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E742"/>
-    </row>
-    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E743"/>
-    </row>
-    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E744"/>
-    </row>
-    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E745"/>
-    </row>
-    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E746"/>
-    </row>
-    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E747"/>
-    </row>
-    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E748"/>
-    </row>
-    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E749"/>
-    </row>
-    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E750"/>
-    </row>
-    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E751"/>
-    </row>
-    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E752"/>
-    </row>
-    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E753"/>
-    </row>
-    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E754"/>
-    </row>
-    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E755"/>
-    </row>
-    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E756"/>
-    </row>
-    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E757"/>
-    </row>
-    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E758"/>
-    </row>
-    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E759"/>
-    </row>
-    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E760"/>
-    </row>
-    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E761"/>
-    </row>
-    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E762"/>
-    </row>
-    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E763"/>
-    </row>
-    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E764"/>
-    </row>
-    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E765"/>
-    </row>
-    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E766"/>
-    </row>
-    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E767"/>
-    </row>
-    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E768"/>
-    </row>
-    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E769"/>
-    </row>
-    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E770"/>
-    </row>
-    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E771"/>
-    </row>
-    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E772"/>
-    </row>
-    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E773"/>
-    </row>
-    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E774"/>
-    </row>
-    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E775"/>
-    </row>
-    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E776"/>
-    </row>
-    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E777"/>
-    </row>
-    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E778"/>
-    </row>
-    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E779"/>
-    </row>
-    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E780"/>
-    </row>
-    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E781"/>
-    </row>
-    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E782"/>
-    </row>
-    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E783"/>
-    </row>
-    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E784"/>
-    </row>
-    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E785"/>
-    </row>
-    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E786"/>
-    </row>
-    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E787"/>
-    </row>
-    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E788"/>
-    </row>
-    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E789"/>
-    </row>
-    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E790"/>
-    </row>
-    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E791"/>
-    </row>
-    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E792"/>
-    </row>
-    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E793"/>
-    </row>
-    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E794"/>
-    </row>
-    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E795"/>
-    </row>
-    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E796"/>
-    </row>
-    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E797"/>
-    </row>
-    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E798"/>
-    </row>
-    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E799"/>
-    </row>
-    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E800"/>
-    </row>
-    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E801"/>
-    </row>
-    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E802"/>
-    </row>
-    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E803"/>
-    </row>
-    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E804"/>
-    </row>
-    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E805"/>
-    </row>
-    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E806"/>
-    </row>
-    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E807"/>
-    </row>
-    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E808"/>
-    </row>
-    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E809"/>
-    </row>
-    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E810"/>
-    </row>
-    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E811"/>
-    </row>
-    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E812"/>
-    </row>
-    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E813"/>
-    </row>
-    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E814"/>
-    </row>
-    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E815"/>
-    </row>
-    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E816"/>
-    </row>
-    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E817"/>
-    </row>
-    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E818"/>
-    </row>
-    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E819"/>
-    </row>
-    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E820"/>
-    </row>
-    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E821"/>
-    </row>
-    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E822"/>
-    </row>
-    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E823"/>
-    </row>
-    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E824"/>
-    </row>
-    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E825"/>
-    </row>
-    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E826"/>
-    </row>
-    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E827"/>
-    </row>
-    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E828"/>
-    </row>
-    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E829"/>
-    </row>
-    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E830"/>
-    </row>
-    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E831"/>
-    </row>
-    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E832"/>
-    </row>
-    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E833"/>
-    </row>
-    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E834"/>
-    </row>
-    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E835"/>
-    </row>
-    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E836"/>
-    </row>
-    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E837"/>
-    </row>
-    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E838"/>
-    </row>
-    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E839"/>
-    </row>
-    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E840"/>
-    </row>
-    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E841"/>
-    </row>
-    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E842"/>
-    </row>
-    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E843"/>
-    </row>
-    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E844"/>
-    </row>
-    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E845"/>
-    </row>
-    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E846"/>
-    </row>
-    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E847"/>
-    </row>
-    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E848"/>
-    </row>
-    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E849"/>
-    </row>
-    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E850"/>
-    </row>
-    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E851"/>
-    </row>
-    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E852"/>
-    </row>
-    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E853"/>
-    </row>
-    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E854"/>
-    </row>
-    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E855"/>
-    </row>
-    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E856"/>
-    </row>
-    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E857"/>
-    </row>
-    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E858"/>
-    </row>
-    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E859"/>
-    </row>
-    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E860"/>
-    </row>
-    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E861"/>
-    </row>
-    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E862"/>
-    </row>
-    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E863"/>
-    </row>
-    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E864"/>
-    </row>
-    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E865"/>
-    </row>
-    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E866"/>
-    </row>
-    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E867"/>
-    </row>
-    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E868"/>
-    </row>
-    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E869"/>
-    </row>
-    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E870"/>
-    </row>
-    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E871"/>
-    </row>
-    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E872"/>
-    </row>
-    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E873"/>
-    </row>
-    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E874"/>
-    </row>
-    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E875"/>
-    </row>
-    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E876"/>
-    </row>
-    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E877"/>
-    </row>
-    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E878"/>
-    </row>
-    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E879"/>
-    </row>
-    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E880"/>
-    </row>
-    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E881"/>
-    </row>
-    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E882"/>
-    </row>
-    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E883"/>
-    </row>
-    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E884"/>
-    </row>
-    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E885"/>
-    </row>
-    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E886"/>
-    </row>
-    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E887"/>
-    </row>
-    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E888"/>
-    </row>
-    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E889"/>
-    </row>
-    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E890"/>
-    </row>
-    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E891"/>
-    </row>
-    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E892"/>
-    </row>
-    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E893"/>
-    </row>
-    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E894"/>
-    </row>
-    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E895"/>
-    </row>
-    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E896"/>
-    </row>
-    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E897"/>
-    </row>
-    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E898"/>
-    </row>
-    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E899"/>
-    </row>
-    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E900"/>
-    </row>
-    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E901"/>
-    </row>
-    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E902"/>
-    </row>
-    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E903"/>
-    </row>
-    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E904"/>
-    </row>
-    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E905"/>
-    </row>
-    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E906"/>
-    </row>
-    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E907"/>
-    </row>
-    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E908"/>
-    </row>
-    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E909"/>
-    </row>
-    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E910"/>
-    </row>
-    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E911"/>
-    </row>
-    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E912"/>
-    </row>
-    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E913"/>
-    </row>
-    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E914"/>
-    </row>
-    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E915"/>
-    </row>
-    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E916"/>
-    </row>
-    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E917"/>
-    </row>
-    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E918"/>
-    </row>
-    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E919"/>
-    </row>
-    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E920"/>
-    </row>
-    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E921"/>
-    </row>
-    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E922"/>
-    </row>
-    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E923"/>
-    </row>
-    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E924"/>
-    </row>
-    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E925"/>
-    </row>
-    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E926"/>
-    </row>
-    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E927"/>
-    </row>
-    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E928"/>
-    </row>
-    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E929"/>
-    </row>
-    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E930"/>
-    </row>
-    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E931"/>
-    </row>
-    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E932"/>
-    </row>
-    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E933"/>
-    </row>
-    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E934"/>
-    </row>
-    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E935"/>
-    </row>
-    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E936"/>
-    </row>
-    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E937"/>
-    </row>
-    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E938"/>
-    </row>
-    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E939"/>
-    </row>
-    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E940"/>
-    </row>
-    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E941"/>
-    </row>
-    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E942"/>
-    </row>
-    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E943"/>
-    </row>
-    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E944"/>
-    </row>
-    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E945"/>
-    </row>
-    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E946"/>
-    </row>
-    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E947"/>
-    </row>
-    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E948"/>
-    </row>
-    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E949"/>
-    </row>
-    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E950"/>
-    </row>
-    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E951"/>
-    </row>
-    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E952"/>
-    </row>
-    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E953"/>
-    </row>
-    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E954"/>
-    </row>
-    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E955"/>
-    </row>
-    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E956"/>
-    </row>
-    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E957"/>
-    </row>
-    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E958"/>
-    </row>
-    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E959"/>
-    </row>
-    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E960"/>
-    </row>
-    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E961"/>
-    </row>
-    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E962"/>
-    </row>
-    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E963"/>
-    </row>
-    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E964"/>
-    </row>
-    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E965"/>
-    </row>
-    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E966"/>
-    </row>
-    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E967"/>
-    </row>
-    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E968"/>
-    </row>
-    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E969"/>
-    </row>
-    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E970"/>
-    </row>
-    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E971"/>
-    </row>
-    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E972"/>
-    </row>
-    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E973"/>
-    </row>
-    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E974"/>
-    </row>
-    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E975"/>
-    </row>
-    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E976"/>
-    </row>
-    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E977"/>
-    </row>
-    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E978"/>
-    </row>
-    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E979"/>
-    </row>
-    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E980"/>
-    </row>
-    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E981"/>
-    </row>
-    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E982"/>
-    </row>
-    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E983"/>
-    </row>
-    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E984"/>
-    </row>
-    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E985"/>
-    </row>
-    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E986"/>
-    </row>
-    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E987"/>
-    </row>
-    <row r="988" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E988"/>
-    </row>
-    <row r="989" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E989"/>
-    </row>
-    <row r="990" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E990"/>
-    </row>
-    <row r="991" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E991"/>
-    </row>
-    <row r="992" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E992"/>
-    </row>
-    <row r="993" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E993"/>
-    </row>
-    <row r="994" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E994"/>
-    </row>
-    <row r="995" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E995"/>
-    </row>
-    <row r="996" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E996"/>
-    </row>
-    <row r="997" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E997"/>
-    </row>
-    <row r="998" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E998"/>
-    </row>
-    <row r="999" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E999"/>
-    </row>
-    <row r="1000" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1000"/>
-    </row>
-    <row r="1001" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1001"/>
-    </row>
-    <row r="1002" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1002"/>
-    </row>
-    <row r="1003" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1003"/>
-    </row>
-    <row r="1004" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1004"/>
-    </row>
-    <row r="1005" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1005"/>
-    </row>
-    <row r="1006" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1006"/>
-    </row>
-    <row r="1007" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1007"/>
-    </row>
-    <row r="1008" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1008"/>
-    </row>
-    <row r="1009" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1009"/>
-    </row>
-    <row r="1010" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1010"/>
-    </row>
-    <row r="1011" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1011"/>
-    </row>
-    <row r="1012" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1012"/>
-    </row>
-    <row r="1013" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1013"/>
-    </row>
-    <row r="1014" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1014"/>
-    </row>
-    <row r="1015" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1015"/>
-    </row>
-    <row r="1016" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1016"/>
-    </row>
-    <row r="1017" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1017"/>
-    </row>
-    <row r="1018" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1018"/>
-    </row>
-    <row r="1019" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1019"/>
-    </row>
-    <row r="1020" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1020"/>
-    </row>
-    <row r="1021" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1021"/>
-    </row>
-    <row r="1022" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1022"/>
-    </row>
-    <row r="1023" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1023"/>
-    </row>
-    <row r="1024" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1024"/>
-    </row>
-    <row r="1025" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1025"/>
-    </row>
-    <row r="1026" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1026"/>
-    </row>
-    <row r="1027" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1027"/>
-    </row>
-    <row r="1028" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1028"/>
-    </row>
-    <row r="1029" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1029"/>
-    </row>
-    <row r="1030" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1030"/>
-    </row>
-    <row r="1031" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1031"/>
-    </row>
-    <row r="1032" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1032"/>
-    </row>
-    <row r="1033" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1033"/>
-    </row>
-    <row r="1034" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1034"/>
-    </row>
-    <row r="1035" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1035"/>
-    </row>
-    <row r="1036" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1036"/>
-    </row>
-    <row r="1037" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1037"/>
-    </row>
-    <row r="1038" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1038"/>
-    </row>
-    <row r="1039" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1039"/>
-    </row>
-    <row r="1040" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1040"/>
-    </row>
-    <row r="1041" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1041"/>
-    </row>
-    <row r="1042" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1042"/>
-    </row>
-    <row r="1043" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1043"/>
-    </row>
-    <row r="1044" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1044"/>
-    </row>
-    <row r="1045" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1045"/>
-    </row>
-    <row r="1046" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1046"/>
-    </row>
-    <row r="1047" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1047"/>
-    </row>
-    <row r="1048" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1048"/>
-    </row>
-    <row r="1049" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1049"/>
-    </row>
-    <row r="1050" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1050"/>
-    </row>
-    <row r="1051" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1051"/>
-    </row>
-    <row r="1052" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1052"/>
-    </row>
-    <row r="1053" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1053"/>
-    </row>
-    <row r="1054" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1054"/>
-    </row>
-    <row r="1055" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1055"/>
-    </row>
-    <row r="1056" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1056"/>
-    </row>
-    <row r="1057" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1057"/>
-    </row>
-    <row r="1058" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1058"/>
-    </row>
-    <row r="1059" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1059"/>
-    </row>
-    <row r="1060" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1060"/>
-    </row>
-    <row r="1061" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1061"/>
-    </row>
-    <row r="1062" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1062"/>
-    </row>
-    <row r="1063" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1063"/>
-    </row>
-    <row r="1064" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1064"/>
-    </row>
-    <row r="1065" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1065"/>
-    </row>
-    <row r="1066" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1066"/>
-    </row>
-    <row r="1067" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1067"/>
-    </row>
-    <row r="1068" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1068"/>
-    </row>
-    <row r="1069" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1069"/>
-    </row>
-    <row r="1070" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1070"/>
-    </row>
-    <row r="1071" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1071"/>
-    </row>
-    <row r="1072" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1072"/>
-    </row>
-    <row r="1073" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1073"/>
-    </row>
-    <row r="1074" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1074"/>
-    </row>
-    <row r="1075" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1075"/>
-    </row>
-    <row r="1076" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1076"/>
-    </row>
-    <row r="1077" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1077"/>
-    </row>
-    <row r="1078" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1078"/>
-    </row>
-    <row r="1079" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1079"/>
-    </row>
-    <row r="1080" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1080"/>
-    </row>
-    <row r="1081" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1081"/>
-    </row>
-    <row r="1082" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1082"/>
-    </row>
-    <row r="1083" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1083"/>
-    </row>
-    <row r="1084" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1084"/>
-    </row>
-    <row r="1085" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1085"/>
-    </row>
-    <row r="1086" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1086"/>
-    </row>
-    <row r="1087" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1087"/>
-    </row>
-    <row r="1088" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1088"/>
-    </row>
-    <row r="1089" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1089"/>
-    </row>
-    <row r="1090" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1090"/>
-    </row>
-    <row r="1091" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1091"/>
-    </row>
-    <row r="1092" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1092"/>
-    </row>
-    <row r="1093" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1093"/>
-    </row>
-    <row r="1094" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1094"/>
-    </row>
-    <row r="1095" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1095"/>
-    </row>
-    <row r="1096" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1096"/>
-    </row>
-    <row r="1097" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1097"/>
-    </row>
-    <row r="1098" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1098"/>
-    </row>
-    <row r="1099" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1099"/>
-    </row>
-    <row r="1100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1100"/>
-    </row>
-    <row r="1101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1101"/>
-    </row>
-    <row r="1102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1102"/>
-    </row>
-    <row r="1103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1103"/>
-    </row>
-    <row r="1104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1104"/>
-    </row>
-    <row r="1105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1105"/>
-    </row>
-    <row r="1106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1106"/>
-    </row>
-    <row r="1107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1107"/>
-    </row>
-    <row r="1108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1108"/>
-    </row>
-    <row r="1109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1109"/>
-    </row>
-    <row r="1110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1110"/>
-    </row>
-    <row r="1111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1111"/>
-    </row>
-    <row r="1112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1112"/>
-    </row>
-    <row r="1113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1113"/>
-    </row>
-    <row r="1114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1114"/>
-    </row>
-    <row r="1115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1115"/>
-    </row>
-    <row r="1116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1116"/>
-    </row>
-    <row r="1117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1117"/>
-    </row>
-    <row r="1118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1118"/>
-    </row>
-    <row r="1119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1119"/>
-    </row>
-    <row r="1120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1120"/>
-    </row>
-    <row r="1121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1121"/>
-    </row>
-    <row r="1122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1122"/>
-    </row>
-    <row r="1123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1123"/>
-    </row>
-    <row r="1124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1124"/>
-    </row>
-    <row r="1125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1125"/>
-    </row>
-    <row r="1126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1126"/>
-    </row>
-    <row r="1127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1127"/>
-    </row>
-    <row r="1128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1128"/>
-    </row>
-    <row r="1129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1129"/>
-    </row>
-    <row r="1130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1130"/>
-    </row>
-    <row r="1131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1131"/>
-    </row>
-    <row r="1132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1132"/>
-    </row>
-    <row r="1133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1133"/>
-    </row>
-    <row r="1134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1134"/>
-    </row>
-    <row r="1135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1135"/>
-    </row>
-    <row r="1136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1136"/>
-    </row>
-    <row r="1137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1137"/>
-    </row>
-    <row r="1138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1138"/>
-    </row>
-    <row r="1139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1139"/>
-    </row>
-    <row r="1140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1140"/>
-    </row>
-    <row r="1141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1141"/>
-    </row>
-    <row r="1142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1142"/>
-    </row>
-    <row r="1143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1143"/>
-    </row>
-    <row r="1144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1144"/>
-    </row>
-    <row r="1145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1145"/>
-    </row>
-    <row r="1146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1146"/>
-    </row>
-    <row r="1147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1147"/>
-    </row>
-    <row r="1148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1148"/>
-    </row>
-    <row r="1149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1149"/>
-    </row>
-    <row r="1150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1150"/>
-    </row>
-    <row r="1151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1151"/>
-    </row>
-    <row r="1152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1152"/>
-    </row>
-    <row r="1153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1153"/>
-    </row>
-    <row r="1154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1154"/>
-    </row>
-    <row r="1155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1155"/>
-    </row>
-    <row r="1156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1156"/>
-    </row>
-    <row r="1157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1157"/>
-    </row>
-    <row r="1158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1158"/>
-    </row>
-    <row r="1159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1159"/>
-    </row>
-    <row r="1160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1160"/>
-    </row>
-    <row r="1161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1161"/>
-    </row>
-    <row r="1162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1162"/>
-    </row>
-    <row r="1163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1163"/>
-    </row>
-    <row r="1164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1164"/>
-    </row>
-    <row r="1165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1165"/>
-    </row>
-    <row r="1166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1166"/>
-    </row>
-    <row r="1167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1167"/>
-    </row>
-    <row r="1168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1168"/>
-    </row>
-    <row r="1169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1169"/>
-    </row>
-    <row r="1170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1170"/>
-    </row>
-    <row r="1171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1171"/>
-    </row>
-    <row r="1172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1172"/>
-    </row>
-    <row r="1173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1173"/>
-    </row>
-    <row r="1174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1174"/>
-    </row>
-    <row r="1175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1175"/>
-    </row>
-    <row r="1176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1176"/>
-    </row>
-    <row r="1177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1177"/>
-    </row>
-    <row r="1178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1178"/>
-    </row>
-    <row r="1179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1179"/>
-    </row>
-    <row r="1180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1180"/>
-    </row>
-    <row r="1181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1181"/>
-    </row>
-    <row r="1182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1182"/>
-    </row>
-    <row r="1183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1183"/>
-    </row>
-    <row r="1184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1184"/>
-    </row>
-    <row r="1185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1185"/>
-    </row>
-    <row r="1186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1186"/>
-    </row>
-    <row r="1187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1187"/>
-    </row>
-    <row r="1188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1188"/>
-    </row>
-    <row r="1189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1189"/>
-    </row>
-    <row r="1190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1190"/>
-    </row>
-    <row r="1191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1191"/>
-    </row>
-    <row r="1192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1192"/>
-    </row>
-    <row r="1193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1193"/>
-    </row>
-    <row r="1194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1194"/>
-    </row>
-    <row r="1195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1195"/>
-    </row>
-    <row r="1196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1196"/>
-    </row>
-    <row r="1197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1197"/>
-    </row>
-    <row r="1198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1198"/>
-    </row>
-    <row r="1199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1199"/>
-    </row>
-    <row r="1200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1200"/>
-    </row>
-    <row r="1201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1201"/>
-    </row>
-    <row r="1202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1202"/>
-    </row>
-    <row r="1203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1203"/>
-    </row>
-    <row r="1204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1204"/>
-    </row>
-    <row r="1205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1205"/>
-    </row>
-    <row r="1206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1206"/>
-    </row>
-    <row r="1207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1207"/>
-    </row>
-    <row r="1208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1208"/>
-    </row>
-    <row r="1209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1209"/>
-    </row>
-    <row r="1210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1210"/>
-    </row>
-    <row r="1211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1211"/>
-    </row>
-    <row r="1212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1212"/>
-    </row>
-    <row r="1213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1213"/>
-    </row>
-    <row r="1214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1214"/>
-    </row>
-    <row r="1215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1215"/>
-    </row>
-    <row r="1216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1216"/>
-    </row>
-    <row r="1217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1217"/>
-    </row>
-    <row r="1218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1218"/>
-    </row>
-    <row r="1219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1219"/>
-    </row>
-    <row r="1220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1220"/>
-    </row>
-    <row r="1221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1221"/>
-    </row>
-    <row r="1222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1222"/>
-    </row>
-    <row r="1223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1223"/>
-    </row>
-    <row r="1224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1224"/>
-    </row>
-    <row r="1225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1225"/>
-    </row>
-    <row r="1226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1226"/>
-    </row>
-    <row r="1227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1227"/>
-    </row>
-    <row r="1228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1228"/>
-    </row>
-    <row r="1229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1229"/>
-    </row>
-    <row r="1230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1230"/>
-    </row>
-    <row r="1231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1231"/>
-    </row>
-    <row r="1232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1232"/>
-    </row>
-    <row r="1233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1233"/>
-    </row>
-    <row r="1234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1234"/>
-    </row>
-    <row r="1235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1235"/>
-    </row>
-    <row r="1236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1236"/>
-    </row>
-    <row r="1237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1237"/>
-    </row>
-    <row r="1238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1238"/>
-    </row>
-    <row r="1239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1239"/>
-    </row>
-    <row r="1240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1240"/>
-    </row>
-    <row r="1241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1241"/>
-    </row>
-    <row r="1242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1242"/>
-    </row>
-    <row r="1243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1243"/>
-    </row>
-    <row r="1244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1244"/>
-    </row>
-    <row r="1245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1245"/>
-    </row>
-    <row r="1246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1246"/>
-    </row>
-    <row r="1247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1247"/>
-    </row>
-    <row r="1248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1248"/>
-    </row>
-    <row r="1249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1249"/>
-    </row>
-    <row r="1250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1250"/>
-    </row>
-    <row r="1251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1251"/>
-    </row>
-    <row r="1252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1252"/>
-    </row>
-    <row r="1253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1253"/>
-    </row>
-    <row r="1254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1254"/>
-    </row>
-    <row r="1255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1255"/>
-    </row>
-    <row r="1256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1256"/>
-    </row>
-    <row r="1257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1257"/>
-    </row>
-    <row r="1258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1258"/>
-    </row>
-    <row r="1259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1259"/>
-    </row>
-    <row r="1260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1260"/>
-    </row>
-    <row r="1261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1261"/>
-    </row>
-    <row r="1262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1262"/>
-    </row>
-    <row r="1263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1263"/>
-    </row>
-    <row r="1264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1264"/>
-    </row>
-    <row r="1265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1265"/>
-    </row>
-    <row r="1266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1266"/>
-    </row>
-    <row r="1267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1267"/>
-    </row>
-    <row r="1268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1268"/>
-    </row>
-    <row r="1269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1269"/>
-    </row>
-    <row r="1270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1270"/>
-    </row>
-    <row r="1271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1271"/>
-    </row>
-    <row r="1272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1272"/>
-    </row>
-    <row r="1273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1273"/>
-    </row>
-    <row r="1274" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1274"/>
-    </row>
-    <row r="1275" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1275"/>
-    </row>
-    <row r="1276" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1276"/>
-    </row>
-    <row r="1277" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1277"/>
-    </row>
-    <row r="1278" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1278"/>
-    </row>
-    <row r="1279" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1279"/>
-    </row>
-    <row r="1280" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1280"/>
-    </row>
-    <row r="1281" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1281"/>
-    </row>
-    <row r="1282" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1282"/>
-    </row>
-    <row r="1283" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1283"/>
-    </row>
-    <row r="1284" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1284"/>
-    </row>
-    <row r="1285" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1285"/>
-    </row>
-    <row r="1286" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1286"/>
-    </row>
-    <row r="1287" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1287"/>
-    </row>
-    <row r="1288" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1288"/>
-    </row>
-    <row r="1289" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1289"/>
-    </row>
-    <row r="1290" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1290"/>
-    </row>
-    <row r="1291" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1291"/>
-    </row>
-    <row r="1292" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1292"/>
-    </row>
-    <row r="1293" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1293"/>
-    </row>
-    <row r="1294" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1294"/>
-    </row>
-    <row r="1295" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1295"/>
-    </row>
-    <row r="1296" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1296"/>
-    </row>
-    <row r="1297" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1297"/>
-    </row>
-    <row r="1298" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1298"/>
-    </row>
-    <row r="1299" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1299"/>
-    </row>
-    <row r="1300" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1300"/>
-    </row>
-    <row r="1301" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1301"/>
-    </row>
-    <row r="1302" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1302"/>
-    </row>
-    <row r="1303" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1303"/>
-    </row>
-    <row r="1304" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1304"/>
-    </row>
-    <row r="1305" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1305"/>
-    </row>
-    <row r="1306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1306"/>
-    </row>
-    <row r="1307" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1307"/>
-    </row>
-    <row r="1308" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1308"/>
-    </row>
-    <row r="1309" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1309"/>
-    </row>
-    <row r="1310" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1310"/>
-    </row>
-    <row r="1311" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1311"/>
-    </row>
-    <row r="1312" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1312"/>
-    </row>
-    <row r="1313" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1313"/>
-    </row>
-    <row r="1314" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1314"/>
-    </row>
-    <row r="1315" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1315"/>
-    </row>
-    <row r="1316" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1316"/>
-    </row>
-    <row r="1317" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1317"/>
-    </row>
-    <row r="1318" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1318"/>
-    </row>
-    <row r="1319" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1319"/>
-    </row>
-    <row r="1320" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1320"/>
-    </row>
-    <row r="1321" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1321"/>
-    </row>
-    <row r="1322" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1322"/>
-    </row>
-    <row r="1323" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1323"/>
-    </row>
-    <row r="1324" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1324"/>
-    </row>
-    <row r="1325" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1325"/>
-    </row>
-    <row r="1326" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1326"/>
-    </row>
-    <row r="1327" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1327"/>
-    </row>
-    <row r="1328" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1328"/>
-    </row>
-    <row r="1329" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1329"/>
-    </row>
-    <row r="1330" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1330"/>
-    </row>
-    <row r="1331" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1331"/>
-    </row>
-    <row r="1332" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1332"/>
-    </row>
-    <row r="1333" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1333"/>
-    </row>
-    <row r="1334" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1334"/>
-    </row>
-    <row r="1335" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1335"/>
-    </row>
-    <row r="1336" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1336"/>
-    </row>
-    <row r="1337" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1337"/>
-    </row>
-    <row r="1338" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1338"/>
-    </row>
-    <row r="1339" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1339"/>
-    </row>
-    <row r="1340" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1340"/>
-    </row>
-    <row r="1341" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1341"/>
-    </row>
-    <row r="1342" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1342"/>
-    </row>
-    <row r="1343" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1343"/>
-    </row>
-    <row r="1344" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1344"/>
-    </row>
-    <row r="1345" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1345"/>
-    </row>
-    <row r="1346" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1346"/>
-    </row>
-    <row r="1347" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1347"/>
-    </row>
-    <row r="1348" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1348"/>
-    </row>
-    <row r="1349" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1349"/>
-    </row>
-    <row r="1350" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1350"/>
-    </row>
-    <row r="1351" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1351"/>
-    </row>
-    <row r="1352" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1352"/>
-    </row>
-    <row r="1353" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1353"/>
-    </row>
-    <row r="1354" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1354"/>
-    </row>
-    <row r="1355" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1355"/>
-    </row>
-    <row r="1356" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1356"/>
-    </row>
-    <row r="1357" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1357"/>
-    </row>
-    <row r="1358" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1358"/>
-    </row>
-    <row r="1359" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1359"/>
-    </row>
-    <row r="1360" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1360"/>
-    </row>
-    <row r="1361" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1361"/>
-    </row>
-    <row r="1362" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1362"/>
-    </row>
-    <row r="1363" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1363"/>
-    </row>
-    <row r="1364" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1364"/>
-    </row>
-    <row r="1365" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1365"/>
-    </row>
-    <row r="1366" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1366"/>
-    </row>
-    <row r="1367" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1367"/>
-    </row>
-    <row r="1368" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1368"/>
-    </row>
-    <row r="1369" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1369"/>
-    </row>
-    <row r="1370" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1370"/>
-    </row>
-    <row r="1371" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1371"/>
-    </row>
-    <row r="1372" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1372"/>
-    </row>
-    <row r="1373" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1373"/>
-    </row>
-    <row r="1374" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1374"/>
-    </row>
-    <row r="1375" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1375"/>
-    </row>
-    <row r="1376" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1376"/>
-    </row>
-    <row r="1377" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1377"/>
-    </row>
-    <row r="1378" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1378"/>
-    </row>
-    <row r="1379" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1379"/>
-    </row>
-    <row r="1380" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1380"/>
-    </row>
-    <row r="1381" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1381"/>
-    </row>
-    <row r="1382" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1382"/>
-    </row>
-    <row r="1383" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1383"/>
-    </row>
-    <row r="1384" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1384"/>
-    </row>
-    <row r="1385" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1385"/>
-    </row>
-    <row r="1386" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1386"/>
-    </row>
-    <row r="1387" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1387"/>
-    </row>
-    <row r="1388" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1388"/>
-    </row>
-    <row r="1389" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1389"/>
-    </row>
-    <row r="1390" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1390"/>
-    </row>
-    <row r="1391" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1391"/>
-    </row>
-    <row r="1392" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1392"/>
-    </row>
-    <row r="1393" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1393"/>
-    </row>
-    <row r="1394" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1394"/>
-    </row>
-    <row r="1395" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1395"/>
-    </row>
-    <row r="1396" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1396"/>
-    </row>
-    <row r="1397" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1397"/>
-    </row>
-    <row r="1398" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1398"/>
-    </row>
-    <row r="1399" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1399"/>
-    </row>
-    <row r="1400" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1400"/>
-    </row>
-    <row r="1401" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1401"/>
-    </row>
-    <row r="1402" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1402"/>
-    </row>
-    <row r="1403" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1403"/>
-    </row>
-    <row r="1404" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1404"/>
-    </row>
-    <row r="1405" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1405"/>
-    </row>
-    <row r="1406" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1406"/>
-    </row>
-    <row r="1407" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1407"/>
-    </row>
-    <row r="1408" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1408"/>
-    </row>
-    <row r="1409" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1409"/>
-    </row>
-    <row r="1410" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1410"/>
-    </row>
-    <row r="1411" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1411"/>
-    </row>
-    <row r="1412" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1412"/>
-    </row>
-    <row r="1413" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1413"/>
-    </row>
-    <row r="1414" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1414"/>
-    </row>
-    <row r="1415" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1415"/>
-    </row>
-    <row r="1416" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1416"/>
-    </row>
-    <row r="1417" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1417"/>
-    </row>
-    <row r="1418" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1418"/>
-    </row>
-    <row r="1419" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1419"/>
-    </row>
-    <row r="1420" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1420"/>
-    </row>
-    <row r="1421" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1421"/>
-    </row>
-    <row r="1422" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1422"/>
-    </row>
-    <row r="1423" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1423"/>
-    </row>
-    <row r="1424" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1424"/>
-    </row>
-    <row r="1425" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1425"/>
-    </row>
-    <row r="1426" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1426"/>
-    </row>
-    <row r="1427" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1427"/>
-    </row>
-    <row r="1428" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1428"/>
-    </row>
-    <row r="1429" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1429"/>
-    </row>
-    <row r="1430" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1430"/>
-    </row>
-    <row r="1431" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1431"/>
-    </row>
-    <row r="1432" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1432"/>
-    </row>
-    <row r="1433" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1433"/>
-    </row>
-    <row r="1434" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1434"/>
-    </row>
-    <row r="1435" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1435"/>
-    </row>
-    <row r="1436" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1436"/>
-    </row>
-    <row r="1437" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1437"/>
-    </row>
-    <row r="1438" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1438"/>
-    </row>
-    <row r="1439" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1439"/>
-    </row>
-    <row r="1440" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1440"/>
-    </row>
-    <row r="1441" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1441"/>
-    </row>
-    <row r="1442" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1442"/>
-    </row>
-    <row r="1443" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1443"/>
-    </row>
-    <row r="1444" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1444"/>
-    </row>
-    <row r="1445" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1445"/>
-    </row>
-    <row r="1446" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1446"/>
-    </row>
-    <row r="1447" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1447"/>
-    </row>
-    <row r="1448" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1448"/>
-    </row>
-    <row r="1449" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1449"/>
-    </row>
-    <row r="1450" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1450"/>
-    </row>
-    <row r="1451" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1451"/>
-    </row>
-    <row r="1452" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1452"/>
-    </row>
-    <row r="1453" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1453"/>
-    </row>
-    <row r="1454" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1454"/>
-    </row>
-    <row r="1455" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1455"/>
-    </row>
-    <row r="1456" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1456"/>
-    </row>
-    <row r="1457" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1457"/>
-    </row>
-    <row r="1458" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1458"/>
-    </row>
-    <row r="1459" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1459"/>
-    </row>
-    <row r="1460" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1460"/>
-    </row>
-    <row r="1461" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1461"/>
-    </row>
-    <row r="1462" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1462"/>
-    </row>
-    <row r="1463" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1463"/>
-    </row>
-    <row r="1464" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1464"/>
-    </row>
-    <row r="1465" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1465"/>
-    </row>
-    <row r="1466" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1466"/>
-    </row>
-    <row r="1467" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1467"/>
-    </row>
-    <row r="1468" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1468"/>
-    </row>
-    <row r="1469" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1469"/>
-    </row>
-    <row r="1470" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1470"/>
-    </row>
-    <row r="1471" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1471"/>
-    </row>
-    <row r="1472" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1472"/>
-    </row>
-    <row r="1473" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1473"/>
-    </row>
-    <row r="1474" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1474"/>
-    </row>
-    <row r="1475" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1475"/>
-    </row>
-    <row r="1476" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1476"/>
-    </row>
-    <row r="1477" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1477"/>
-    </row>
-    <row r="1478" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1478"/>
-    </row>
-    <row r="1479" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1479"/>
-    </row>
-    <row r="1480" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1480"/>
-    </row>
-    <row r="1481" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1481"/>
-    </row>
-    <row r="1482" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1482"/>
-    </row>
-    <row r="1483" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1483"/>
-    </row>
-    <row r="1484" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1484"/>
-    </row>
-    <row r="1485" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1485"/>
-    </row>
-    <row r="1486" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1486"/>
-    </row>
-    <row r="1487" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1487"/>
-    </row>
-    <row r="1488" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1488"/>
-    </row>
-    <row r="1489" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1489"/>
-    </row>
-    <row r="1490" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1490"/>
-    </row>
-    <row r="1491" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1491"/>
-    </row>
-    <row r="1492" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1492"/>
-    </row>
-    <row r="1493" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1493"/>
-    </row>
-    <row r="1494" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1494"/>
-    </row>
-    <row r="1495" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1495"/>
-    </row>
-    <row r="1496" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1496"/>
-    </row>
-    <row r="1497" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1497"/>
-    </row>
-    <row r="1498" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1498"/>
-    </row>
-    <row r="1499" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1499"/>
-    </row>
-    <row r="1500" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1500"/>
-    </row>
-    <row r="1501" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1501"/>
-    </row>
-    <row r="1502" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1502"/>
-    </row>
-    <row r="1503" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1503"/>
-    </row>
-    <row r="1504" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1504"/>
-    </row>
-    <row r="1505" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1505"/>
-    </row>
-    <row r="1506" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1506"/>
-    </row>
-    <row r="1507" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1507"/>
-    </row>
-    <row r="1508" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1508"/>
-    </row>
-    <row r="1509" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1509"/>
-    </row>
-    <row r="1510" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1510"/>
-    </row>
-    <row r="1511" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1511"/>
-    </row>
-    <row r="1512" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1512"/>
-    </row>
-    <row r="1513" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1513"/>
-    </row>
-    <row r="1514" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1514"/>
-    </row>
-    <row r="1515" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1515"/>
-    </row>
-    <row r="1516" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1516"/>
-    </row>
-    <row r="1517" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1517"/>
-    </row>
-    <row r="1518" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1518"/>
-    </row>
-    <row r="1519" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1519"/>
-    </row>
-    <row r="1520" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1520"/>
-    </row>
-    <row r="1521" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1521"/>
-    </row>
-    <row r="1522" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1522"/>
-    </row>
-    <row r="1523" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1523"/>
-    </row>
-    <row r="1524" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1524"/>
-    </row>
-    <row r="1525" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1525"/>
-    </row>
-    <row r="1526" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1526"/>
-    </row>
-    <row r="1527" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1527"/>
-    </row>
-    <row r="1528" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1528"/>
-    </row>
-    <row r="1529" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1529"/>
-    </row>
-    <row r="1530" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1530"/>
-    </row>
-    <row r="1531" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1531"/>
-    </row>
-    <row r="1532" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1532"/>
-    </row>
-    <row r="1533" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1533"/>
-    </row>
-    <row r="1534" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1534"/>
-    </row>
-    <row r="1535" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1535"/>
-    </row>
-    <row r="1536" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1536"/>
-    </row>
-    <row r="1537" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1537"/>
-    </row>
-    <row r="1538" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1538"/>
-    </row>
-    <row r="1539" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1539"/>
-    </row>
-    <row r="1540" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1540"/>
-    </row>
-    <row r="1541" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1541"/>
-    </row>
-    <row r="1542" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1542"/>
-    </row>
-    <row r="1543" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1543"/>
-    </row>
-    <row r="1544" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1544"/>
-    </row>
-    <row r="1545" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1545"/>
-    </row>
-    <row r="1546" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1546"/>
-    </row>
-    <row r="1547" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1547"/>
-    </row>
-    <row r="1548" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1548"/>
-    </row>
-    <row r="1549" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1549"/>
-    </row>
-    <row r="1550" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1550"/>
-    </row>
-    <row r="1551" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1551"/>
-    </row>
-    <row r="1552" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1552"/>
-    </row>
-    <row r="1553" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1553"/>
-    </row>
-    <row r="1554" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1554"/>
-    </row>
-    <row r="1555" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1555"/>
-    </row>
-    <row r="1556" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1556"/>
-    </row>
-    <row r="1557" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1557"/>
-    </row>
-    <row r="1558" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1558"/>
-    </row>
-    <row r="1559" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1559"/>
-    </row>
-    <row r="1560" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1560"/>
-    </row>
-    <row r="1561" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1561"/>
-    </row>
-    <row r="1562" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1562"/>
-    </row>
-    <row r="1563" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1563"/>
-    </row>
-    <row r="1564" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1564"/>
-    </row>
-    <row r="1565" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1565"/>
-    </row>
-    <row r="1566" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1566"/>
-    </row>
-    <row r="1567" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1567"/>
-    </row>
-    <row r="1568" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1568"/>
-    </row>
-    <row r="1569" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1569"/>
-    </row>
-    <row r="1570" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1570"/>
-    </row>
-    <row r="1571" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1571"/>
-    </row>
-    <row r="1572" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1572"/>
-    </row>
-    <row r="1573" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1573"/>
-    </row>
-    <row r="1574" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1574"/>
-    </row>
-    <row r="1575" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1575"/>
-    </row>
-    <row r="1576" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1576"/>
-    </row>
-    <row r="1577" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1577"/>
-    </row>
-    <row r="1578" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1578"/>
-    </row>
-    <row r="1579" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1579"/>
-    </row>
-    <row r="1580" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1580"/>
-    </row>
-    <row r="1581" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1581"/>
-    </row>
-    <row r="1582" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1582"/>
-    </row>
-    <row r="1583" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1583"/>
-    </row>
-    <row r="1584" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1584"/>
-    </row>
-    <row r="1585" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1585"/>
-    </row>
-    <row r="1586" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1586"/>
-    </row>
-    <row r="1587" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1587"/>
-    </row>
-    <row r="1588" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1588"/>
-    </row>
-    <row r="1589" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1589"/>
-    </row>
-    <row r="1590" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1590"/>
-    </row>
-    <row r="1591" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1591"/>
-    </row>
-    <row r="1592" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1592"/>
-    </row>
-    <row r="1593" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1593"/>
-    </row>
-    <row r="1594" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1594"/>
-    </row>
-    <row r="1595" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1595"/>
-    </row>
-    <row r="1596" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1596"/>
-    </row>
-    <row r="1597" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1597"/>
-    </row>
-    <row r="1598" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1598"/>
-    </row>
-    <row r="1599" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1599"/>
-    </row>
-    <row r="1600" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1600"/>
-    </row>
-    <row r="1601" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1601"/>
-    </row>
-    <row r="1602" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1602"/>
-    </row>
-    <row r="1603" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1603"/>
-    </row>
-    <row r="1604" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1604"/>
-    </row>
-    <row r="1605" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1605"/>
-    </row>
-    <row r="1606" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1606"/>
-    </row>
-    <row r="1607" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1607"/>
-    </row>
-    <row r="1608" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1608"/>
-    </row>
-    <row r="1609" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1609"/>
-    </row>
-    <row r="1610" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1610"/>
-    </row>
-    <row r="1611" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1611"/>
-    </row>
-    <row r="1612" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1612"/>
-    </row>
-    <row r="1613" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1613"/>
-    </row>
-    <row r="1614" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1614"/>
-    </row>
-    <row r="1615" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1615"/>
-    </row>
-    <row r="1616" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1616"/>
-    </row>
-    <row r="1617" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1617"/>
-    </row>
-    <row r="1618" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1618"/>
-    </row>
-    <row r="1619" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1619"/>
-    </row>
-    <row r="1620" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1620"/>
-    </row>
-    <row r="1621" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1621"/>
-    </row>
-    <row r="1622" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1622"/>
-    </row>
-    <row r="1623" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1623"/>
-    </row>
-    <row r="1624" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1624"/>
-    </row>
-    <row r="1625" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1625"/>
-    </row>
-    <row r="1626" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1626"/>
-    </row>
-    <row r="1627" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1627"/>
-    </row>
-    <row r="1628" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1628"/>
-    </row>
-    <row r="1629" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1629"/>
-    </row>
-    <row r="1630" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1630"/>
-    </row>
-    <row r="1631" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1631"/>
-    </row>
-    <row r="1632" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1632"/>
-    </row>
-    <row r="1633" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1633"/>
-    </row>
-    <row r="1634" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1634"/>
-    </row>
-    <row r="1635" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1635"/>
-    </row>
-    <row r="1636" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1636"/>
-    </row>
-    <row r="1637" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1637"/>
-    </row>
-    <row r="1638" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1638"/>
-    </row>
-    <row r="1639" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1639"/>
-    </row>
-    <row r="1640" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1640"/>
-    </row>
-    <row r="1641" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1641"/>
-    </row>
-    <row r="1642" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1642"/>
-    </row>
-    <row r="1643" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1643"/>
-    </row>
-    <row r="1644" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1644"/>
-    </row>
-    <row r="1645" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1645"/>
-    </row>
-    <row r="1646" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1646"/>
-    </row>
-    <row r="1647" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1647"/>
-    </row>
-    <row r="1648" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1648"/>
-    </row>
-    <row r="1649" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1649"/>
-    </row>
-    <row r="1650" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1650"/>
-    </row>
-    <row r="1651" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1651"/>
-    </row>
-    <row r="1652" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1652"/>
-    </row>
-    <row r="1653" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1653"/>
-    </row>
-    <row r="1654" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1654"/>
-    </row>
-    <row r="1655" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1655"/>
-    </row>
-    <row r="1656" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1656"/>
-    </row>
-    <row r="1657" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1657"/>
-    </row>
-    <row r="1658" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1658"/>
-    </row>
-    <row r="1659" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1659"/>
-    </row>
-    <row r="1660" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1660"/>
-    </row>
-    <row r="1661" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1661"/>
-    </row>
-    <row r="1662" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1662"/>
-    </row>
-    <row r="1663" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1663"/>
-    </row>
-    <row r="1664" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1664"/>
-    </row>
-    <row r="1665" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1665"/>
-    </row>
-    <row r="1666" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1666"/>
-    </row>
-    <row r="1667" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1667"/>
-    </row>
-    <row r="1668" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1668"/>
-    </row>
-    <row r="1669" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1669"/>
-    </row>
-    <row r="1670" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1670"/>
-    </row>
-    <row r="1671" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1671"/>
-    </row>
-    <row r="1672" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1672"/>
-    </row>
-    <row r="1673" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1673"/>
-    </row>
-    <row r="1674" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1674"/>
-    </row>
-    <row r="1675" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1675"/>
-    </row>
-    <row r="1676" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1676"/>
-    </row>
-    <row r="1677" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1677"/>
-    </row>
-    <row r="1678" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1678"/>
-    </row>
-    <row r="1679" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1679"/>
-    </row>
-    <row r="1680" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1680"/>
-    </row>
-    <row r="1681" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1681"/>
-    </row>
-    <row r="1682" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1682"/>
-    </row>
-    <row r="1683" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1683"/>
-    </row>
-    <row r="1684" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1684"/>
-    </row>
-    <row r="1685" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1685"/>
-    </row>
-    <row r="1686" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1686"/>
-    </row>
-    <row r="1687" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1687"/>
-    </row>
-    <row r="1688" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1688"/>
-    </row>
-    <row r="1689" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1689"/>
-    </row>
-    <row r="1690" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1690"/>
-    </row>
-    <row r="1691" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1691"/>
-    </row>
-    <row r="1692" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1692"/>
-    </row>
-    <row r="1693" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1693"/>
-    </row>
-    <row r="1694" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1694"/>
-    </row>
-    <row r="1695" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1695"/>
-    </row>
-    <row r="1696" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1696"/>
-    </row>
-    <row r="1697" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1697"/>
-    </row>
-    <row r="1698" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1698"/>
-    </row>
-    <row r="1699" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1699"/>
-    </row>
-    <row r="1700" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1700"/>
-    </row>
-    <row r="1701" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1701"/>
-    </row>
-    <row r="1702" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1702"/>
-    </row>
-    <row r="1703" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1703"/>
-    </row>
-    <row r="1704" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1704"/>
-    </row>
-    <row r="1705" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1705"/>
-    </row>
-    <row r="1706" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1706"/>
-    </row>
-    <row r="1707" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1707"/>
-    </row>
-    <row r="1708" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1708"/>
-    </row>
-    <row r="1709" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1709"/>
-    </row>
-    <row r="1710" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1710"/>
-    </row>
-    <row r="1711" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1711"/>
-    </row>
-    <row r="1712" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1712"/>
-    </row>
-    <row r="1713" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1713"/>
-    </row>
-    <row r="1714" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1714"/>
-    </row>
-    <row r="1715" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1715"/>
-    </row>
-    <row r="1716" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1716"/>
-    </row>
-    <row r="1717" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1717"/>
-    </row>
-    <row r="1718" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1718"/>
-    </row>
-    <row r="1719" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1719"/>
-    </row>
-    <row r="1720" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1720"/>
-    </row>
-    <row r="1721" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1721"/>
-    </row>
-    <row r="1722" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1722"/>
-    </row>
-    <row r="1723" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1723"/>
-    </row>
-    <row r="1724" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1724"/>
-    </row>
-    <row r="1725" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1725"/>
-    </row>
-    <row r="1726" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1726"/>
-    </row>
-    <row r="1727" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1727"/>
-    </row>
-    <row r="1728" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1728"/>
-    </row>
-    <row r="1729" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1729"/>
-    </row>
-    <row r="1730" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1730"/>
-    </row>
-    <row r="1731" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1731"/>
-    </row>
-    <row r="1732" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1732"/>
-    </row>
-    <row r="1733" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1733"/>
-    </row>
-    <row r="1734" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1734"/>
-    </row>
-    <row r="1735" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1735"/>
-    </row>
-    <row r="1736" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1736"/>
-    </row>
-    <row r="1737" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1737"/>
-    </row>
-    <row r="1738" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1738"/>
-    </row>
-    <row r="1739" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1739"/>
-    </row>
-    <row r="1740" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1740"/>
-    </row>
-    <row r="1741" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1741"/>
-    </row>
-    <row r="1742" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1742"/>
-    </row>
-    <row r="1743" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1743"/>
-    </row>
-    <row r="1744" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1744"/>
-    </row>
-    <row r="1745" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1745"/>
-    </row>
-    <row r="1746" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1746"/>
-    </row>
-    <row r="1747" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1747"/>
-    </row>
-    <row r="1748" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1748"/>
-    </row>
-    <row r="1749" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1749"/>
-    </row>
-    <row r="1750" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1750"/>
-    </row>
-    <row r="1751" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1751"/>
-    </row>
-    <row r="1752" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1752"/>
-    </row>
-    <row r="1753" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1753"/>
-    </row>
-    <row r="1754" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1754"/>
-    </row>
-    <row r="1755" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1755"/>
-    </row>
-    <row r="1756" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1756"/>
-    </row>
-    <row r="1757" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1757"/>
-    </row>
-    <row r="1758" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1758"/>
-    </row>
-    <row r="1759" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1759"/>
-    </row>
-    <row r="1760" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1760"/>
-    </row>
-    <row r="1761" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1761"/>
-    </row>
-    <row r="1762" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1762"/>
-    </row>
-    <row r="1763" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1763"/>
-    </row>
-    <row r="1764" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1764"/>
-    </row>
-    <row r="1765" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1765"/>
-    </row>
-    <row r="1766" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1766"/>
-    </row>
-    <row r="1767" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1767"/>
-    </row>
-    <row r="1768" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1768"/>
-    </row>
-    <row r="1769" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1769"/>
-    </row>
-    <row r="1770" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1770"/>
-    </row>
-    <row r="1771" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1771"/>
-    </row>
-    <row r="1772" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1772"/>
-    </row>
-    <row r="1773" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1773"/>
-    </row>
-    <row r="1774" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1774"/>
-    </row>
-    <row r="1775" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1775"/>
-    </row>
-    <row r="1776" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1776"/>
-    </row>
-    <row r="1777" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1777"/>
-    </row>
-    <row r="1778" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1778"/>
-    </row>
-    <row r="1779" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1779"/>
-    </row>
-    <row r="1780" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1780"/>
-    </row>
-    <row r="1781" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1781"/>
-    </row>
-    <row r="1782" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1782"/>
-    </row>
-    <row r="1783" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1783"/>
-    </row>
-    <row r="1784" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1784"/>
-    </row>
-    <row r="1785" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1785"/>
-    </row>
-    <row r="1786" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1786"/>
-    </row>
-    <row r="1787" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1787"/>
-    </row>
-    <row r="1788" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1788"/>
-    </row>
-    <row r="1789" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1789"/>
-    </row>
-    <row r="1790" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1790"/>
-    </row>
-    <row r="1791" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1791"/>
-    </row>
-    <row r="1792" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1792"/>
-    </row>
-    <row r="1793" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1793"/>
-    </row>
-    <row r="1794" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1794"/>
-    </row>
-    <row r="1795" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1795"/>
-    </row>
-    <row r="1796" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1796"/>
-    </row>
-    <row r="1797" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1797"/>
-    </row>
-    <row r="1798" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1798"/>
-    </row>
-    <row r="1799" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1799"/>
-    </row>
-    <row r="1800" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1800"/>
-    </row>
-    <row r="1801" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1801"/>
-    </row>
-    <row r="1802" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1802"/>
-    </row>
-    <row r="1803" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1803"/>
-    </row>
-    <row r="1804" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1804"/>
-    </row>
-    <row r="1805" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1805"/>
-    </row>
-    <row r="1806" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1806"/>
-    </row>
-    <row r="1807" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1807"/>
-    </row>
-    <row r="1808" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1808"/>
-    </row>
-    <row r="1809" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1809"/>
-    </row>
-    <row r="1810" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1810"/>
-    </row>
-    <row r="1811" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1811"/>
-    </row>
-    <row r="1812" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1812"/>
-    </row>
-    <row r="1813" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1813"/>
-    </row>
-    <row r="1814" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1814"/>
-    </row>
-    <row r="1815" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1815"/>
-    </row>
-    <row r="1816" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1816"/>
-    </row>
-    <row r="1817" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1817"/>
-    </row>
-    <row r="1818" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1818"/>
-    </row>
-    <row r="1819" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1819"/>
-    </row>
-    <row r="1820" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1820"/>
-    </row>
-    <row r="1821" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1821"/>
-    </row>
-    <row r="1822" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1822"/>
-    </row>
-    <row r="1823" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1823"/>
-    </row>
-    <row r="1824" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1824"/>
-    </row>
-    <row r="1825" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1825"/>
-    </row>
-    <row r="1826" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1826"/>
-    </row>
-    <row r="1827" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1827"/>
-    </row>
-    <row r="1828" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1828"/>
-    </row>
-    <row r="1829" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1829"/>
-    </row>
-    <row r="1830" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1830"/>
-    </row>
-    <row r="1831" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1831"/>
-    </row>
-    <row r="1832" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1832"/>
-    </row>
-    <row r="1833" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1833"/>
-    </row>
-    <row r="1834" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1834"/>
-    </row>
-    <row r="1835" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1835"/>
-    </row>
-    <row r="1836" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1836"/>
-    </row>
-    <row r="1837" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1837"/>
-    </row>
-    <row r="1838" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1838"/>
-    </row>
-    <row r="1839" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1839"/>
-    </row>
-    <row r="1840" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1840"/>
-    </row>
-    <row r="1841" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1841"/>
-    </row>
-    <row r="1842" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1842"/>
-    </row>
-    <row r="1843" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1843"/>
-    </row>
-    <row r="1844" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1844"/>
-    </row>
-    <row r="1845" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1845"/>
-    </row>
-    <row r="1846" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1846"/>
-    </row>
-    <row r="1847" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1847"/>
-    </row>
-    <row r="1848" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1848"/>
-    </row>
-    <row r="1849" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1849"/>
-    </row>
-    <row r="1850" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1850"/>
-    </row>
-    <row r="1851" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1851"/>
-    </row>
-    <row r="1852" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1852"/>
-    </row>
-    <row r="1853" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1853"/>
-    </row>
-    <row r="1854" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1854"/>
-    </row>
-    <row r="1855" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1855"/>
-    </row>
-    <row r="1856" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1856"/>
-    </row>
-    <row r="1857" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1857"/>
-    </row>
-    <row r="1858" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1858"/>
-    </row>
-    <row r="1859" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1859"/>
-    </row>
-    <row r="1860" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1860"/>
-    </row>
-    <row r="1861" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1861"/>
-    </row>
-    <row r="1862" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1862"/>
-    </row>
-    <row r="1863" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1863"/>
-    </row>
-    <row r="1864" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1864"/>
-    </row>
-    <row r="1865" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1865"/>
-    </row>
-    <row r="1866" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1866"/>
-    </row>
-    <row r="1867" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1867"/>
-    </row>
-    <row r="1868" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1868"/>
-    </row>
-    <row r="1869" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1869"/>
-    </row>
-    <row r="1870" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1870"/>
-    </row>
-    <row r="1871" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1871"/>
-    </row>
-    <row r="1872" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1872"/>
-    </row>
-    <row r="1873" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1873"/>
-    </row>
-    <row r="1874" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1874"/>
-    </row>
-    <row r="1875" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1875"/>
-    </row>
-    <row r="1876" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1876"/>
-    </row>
-    <row r="1877" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1877"/>
-    </row>
-    <row r="1878" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1878"/>
-    </row>
-    <row r="1879" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1879"/>
-    </row>
-    <row r="1880" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1880"/>
-    </row>
-    <row r="1881" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1881"/>
-    </row>
-    <row r="1882" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1882"/>
-    </row>
-    <row r="1883" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1883"/>
-    </row>
-    <row r="1884" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1884"/>
-    </row>
-    <row r="1885" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1885"/>
-    </row>
-    <row r="1886" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1886"/>
-    </row>
-    <row r="1887" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1887"/>
-    </row>
-    <row r="1888" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1888"/>
-    </row>
-    <row r="1889" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1889"/>
-    </row>
-    <row r="1890" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1890"/>
-    </row>
-    <row r="1891" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1891"/>
-    </row>
-    <row r="1892" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1892"/>
-    </row>
-    <row r="1893" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1893"/>
-    </row>
-    <row r="1894" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1894"/>
-    </row>
-    <row r="1895" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1895"/>
-    </row>
-    <row r="1896" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1896"/>
-    </row>
-    <row r="1897" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1897"/>
-    </row>
-    <row r="1898" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1898"/>
-    </row>
-    <row r="1899" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1899"/>
-    </row>
-    <row r="1900" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1900"/>
-    </row>
-    <row r="1901" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1901"/>
-    </row>
-    <row r="1902" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1902"/>
-    </row>
-    <row r="1903" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1903"/>
-    </row>
-    <row r="1904" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1904"/>
-    </row>
-    <row r="1905" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1905"/>
-    </row>
-    <row r="1906" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1906"/>
-    </row>
-    <row r="1907" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1907"/>
-    </row>
-    <row r="1908" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1908"/>
-    </row>
-    <row r="1909" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1909"/>
-    </row>
-    <row r="1910" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1910"/>
-    </row>
-    <row r="1911" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1911"/>
-    </row>
-    <row r="1912" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1912"/>
-    </row>
-    <row r="1913" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1913"/>
-    </row>
-    <row r="1914" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1914"/>
-    </row>
-    <row r="1915" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1915"/>
-    </row>
-    <row r="1916" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1916"/>
-    </row>
-    <row r="1917" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1917"/>
-    </row>
-    <row r="1918" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1918"/>
-    </row>
-    <row r="1919" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1919"/>
-    </row>
-    <row r="1920" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1920"/>
-    </row>
-    <row r="1921" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1921"/>
-    </row>
-    <row r="1922" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1922"/>
-    </row>
-    <row r="1923" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1923"/>
-    </row>
-    <row r="1924" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1924"/>
-    </row>
-    <row r="1925" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1925"/>
-    </row>
-    <row r="1926" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1926"/>
-    </row>
-    <row r="1927" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1927"/>
-    </row>
-    <row r="1928" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1928"/>
-    </row>
-    <row r="1929" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1929"/>
-    </row>
-    <row r="1930" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1930"/>
-    </row>
-    <row r="1931" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1931"/>
-    </row>
-    <row r="1932" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1932"/>
-    </row>
-    <row r="1933" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1933"/>
-    </row>
-    <row r="1934" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1934"/>
-    </row>
-    <row r="1935" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1935"/>
-    </row>
-    <row r="1936" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1936"/>
-    </row>
-    <row r="1937" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1937"/>
-    </row>
-    <row r="1938" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1938"/>
-    </row>
-    <row r="1939" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1939"/>
-    </row>
-    <row r="1940" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1940"/>
-    </row>
-    <row r="1941" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1941"/>
-    </row>
-    <row r="1942" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1942"/>
-    </row>
-    <row r="1943" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1943"/>
-    </row>
-    <row r="1944" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1944"/>
-    </row>
-    <row r="1945" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1945"/>
-    </row>
-    <row r="1946" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1946"/>
-    </row>
-    <row r="1947" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1947"/>
-    </row>
-    <row r="1948" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1948"/>
-    </row>
-    <row r="1949" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1949"/>
-    </row>
-    <row r="1950" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1950"/>
-    </row>
-    <row r="1951" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1951"/>
-    </row>
-    <row r="1952" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1952"/>
-    </row>
-    <row r="1953" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1953"/>
-    </row>
-    <row r="1954" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1954"/>
-    </row>
-    <row r="1955" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1955"/>
-    </row>
-    <row r="1956" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1956"/>
-    </row>
-    <row r="1957" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1957"/>
-    </row>
-    <row r="1958" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1958"/>
-    </row>
-    <row r="1959" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1959"/>
-    </row>
-    <row r="1960" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1960"/>
-    </row>
-    <row r="1961" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1961"/>
-    </row>
-    <row r="1962" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1962"/>
-    </row>
-    <row r="1963" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1963"/>
-    </row>
-    <row r="1964" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1964"/>
-    </row>
-    <row r="1965" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1965"/>
-    </row>
-    <row r="1966" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1966"/>
-    </row>
-    <row r="1967" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1967"/>
-    </row>
-    <row r="1968" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1968"/>
-    </row>
-    <row r="1969" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1969"/>
-    </row>
-    <row r="1970" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1970"/>
-    </row>
-    <row r="1971" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1971"/>
-    </row>
-    <row r="1972" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1972"/>
-    </row>
-    <row r="1973" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1973"/>
-    </row>
-    <row r="1974" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1974"/>
-    </row>
-    <row r="1975" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1975"/>
-    </row>
-    <row r="1976" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1976"/>
-    </row>
-    <row r="1977" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1977"/>
-    </row>
-    <row r="1978" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1978"/>
-    </row>
-    <row r="1979" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1979"/>
-    </row>
-    <row r="1980" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1980"/>
-    </row>
-    <row r="1981" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1981"/>
-    </row>
-    <row r="1982" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1982"/>
-    </row>
-    <row r="1983" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1983"/>
-    </row>
-    <row r="1984" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1984"/>
-    </row>
-    <row r="1985" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1985"/>
-    </row>
-    <row r="1986" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1986"/>
-    </row>
-    <row r="1987" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1987"/>
-    </row>
-    <row r="1988" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1988"/>
-    </row>
-    <row r="1989" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1989"/>
-    </row>
-    <row r="1990" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1990"/>
-    </row>
-    <row r="1991" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1991"/>
-    </row>
-    <row r="1992" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1992"/>
-    </row>
-    <row r="1993" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1993"/>
-    </row>
-    <row r="1994" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1994"/>
-    </row>
-    <row r="1995" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1995"/>
-    </row>
-    <row r="1996" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1996"/>
-    </row>
-    <row r="1997" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1997"/>
-    </row>
-    <row r="1998" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1998"/>
-    </row>
-    <row r="1999" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1999"/>
-    </row>
-    <row r="2000" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2000"/>
-    </row>
-    <row r="2001" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2001"/>
-    </row>
-    <row r="2002" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2002"/>
-    </row>
-    <row r="2003" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2003"/>
-    </row>
-    <row r="2004" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2004"/>
-    </row>
-    <row r="2005" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2005"/>
-    </row>
-    <row r="2006" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2006"/>
-    </row>
-    <row r="2007" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2007"/>
-    </row>
-    <row r="2008" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2008"/>
-    </row>
-    <row r="2009" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2009"/>
-    </row>
-    <row r="2010" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2010"/>
-    </row>
-    <row r="2011" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2011"/>
-    </row>
-    <row r="2012" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2012"/>
-    </row>
-    <row r="2013" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2013"/>
-    </row>
-    <row r="2014" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2014"/>
-    </row>
-    <row r="2015" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2015"/>
-    </row>
-    <row r="2016" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2016"/>
-    </row>
-    <row r="2017" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2017"/>
-    </row>
-    <row r="2018" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2018"/>
-    </row>
-    <row r="2019" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2019"/>
-    </row>
-    <row r="2020" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2020"/>
-    </row>
-    <row r="2021" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2021"/>
-    </row>
-    <row r="2022" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2022"/>
-    </row>
-    <row r="2023" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2023"/>
-    </row>
-    <row r="2024" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2024"/>
-    </row>
-    <row r="2025" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2025"/>
-    </row>
-    <row r="2026" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2026"/>
-    </row>
-    <row r="2027" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2027"/>
-    </row>
-    <row r="2028" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2028"/>
-    </row>
-    <row r="2029" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2029"/>
-    </row>
-    <row r="2030" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2030"/>
-    </row>
-    <row r="2031" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2031"/>
-    </row>
-    <row r="2032" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2032"/>
-    </row>
-    <row r="2033" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2033"/>
-    </row>
-    <row r="2034" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2034"/>
-    </row>
-    <row r="2035" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2035"/>
-    </row>
-    <row r="2036" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2036"/>
-    </row>
-    <row r="2037" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2037"/>
-    </row>
-    <row r="2038" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2038"/>
-    </row>
-    <row r="2039" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2039"/>
-    </row>
-    <row r="2040" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2040"/>
-    </row>
-    <row r="2041" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2041"/>
-    </row>
-    <row r="2042" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2042"/>
-    </row>
-    <row r="2043" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2043"/>
-    </row>
-    <row r="2044" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2044"/>
-    </row>
-    <row r="2045" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2045"/>
-    </row>
-    <row r="2046" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2046"/>
-    </row>
-    <row r="2047" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2047"/>
-    </row>
-    <row r="2048" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2048"/>
-    </row>
-    <row r="2049" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2049"/>
-    </row>
-    <row r="2050" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2050"/>
-    </row>
-    <row r="2051" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2051"/>
-    </row>
-    <row r="2052" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2052"/>
-    </row>
-    <row r="2053" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2053"/>
-    </row>
-    <row r="2054" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2054"/>
-    </row>
-    <row r="2055" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2055"/>
-    </row>
-    <row r="2056" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2056"/>
-    </row>
-    <row r="2057" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2057"/>
-    </row>
-    <row r="2058" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2058"/>
-    </row>
-    <row r="2059" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2059"/>
-    </row>
-    <row r="2060" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2060"/>
-    </row>
-    <row r="2061" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2061"/>
-    </row>
-    <row r="2062" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2062"/>
-    </row>
-    <row r="2063" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2063"/>
-    </row>
-    <row r="2064" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2064"/>
-    </row>
-    <row r="2065" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2065"/>
-    </row>
-    <row r="2066" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2066"/>
-    </row>
-    <row r="2067" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2067"/>
-    </row>
-    <row r="2068" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2068"/>
-    </row>
-    <row r="2069" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2069"/>
-    </row>
-    <row r="2070" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2070"/>
-    </row>
-    <row r="2071" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2071"/>
-    </row>
-    <row r="2072" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2072"/>
-    </row>
-    <row r="2073" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2073"/>
-    </row>
-    <row r="2074" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2074"/>
-    </row>
-    <row r="2075" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2075"/>
-    </row>
-    <row r="2076" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2076"/>
-    </row>
-    <row r="2077" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2077"/>
-    </row>
-    <row r="2078" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2078"/>
-    </row>
-    <row r="2079" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2079"/>
-    </row>
-    <row r="2080" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2080"/>
-    </row>
-    <row r="2081" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2081"/>
-    </row>
-    <row r="2082" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2082"/>
-    </row>
-    <row r="2083" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2083"/>
-    </row>
-    <row r="2084" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2084"/>
-    </row>
-    <row r="2085" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2085"/>
-    </row>
-    <row r="2086" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2086"/>
-    </row>
-    <row r="2087" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2087"/>
-    </row>
-    <row r="2088" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2088"/>
-    </row>
-    <row r="2089" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2089"/>
-    </row>
-    <row r="2090" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2090"/>
-    </row>
-    <row r="2091" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2091"/>
-    </row>
-    <row r="2092" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2092"/>
-    </row>
-    <row r="2093" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2093"/>
-    </row>
-    <row r="2094" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2094"/>
-    </row>
-    <row r="2095" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2095"/>
-    </row>
-    <row r="2096" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2096"/>
-    </row>
-    <row r="2097" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2097"/>
-    </row>
-    <row r="2098" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2098"/>
-    </row>
-    <row r="2099" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2099"/>
-    </row>
-    <row r="2100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2100"/>
-    </row>
-    <row r="2101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2101"/>
-    </row>
-    <row r="2102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2102"/>
-    </row>
-    <row r="2103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2103"/>
-    </row>
-    <row r="2104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2104"/>
-    </row>
-    <row r="2105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2105"/>
-    </row>
-    <row r="2106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2106"/>
-    </row>
-    <row r="2107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2107"/>
-    </row>
-    <row r="2108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2108"/>
-    </row>
-    <row r="2109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2109"/>
-    </row>
-    <row r="2110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2110"/>
-    </row>
-    <row r="2111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2111"/>
-    </row>
-    <row r="2112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2112"/>
-    </row>
-    <row r="2113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2113"/>
-    </row>
-    <row r="2114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2114"/>
-    </row>
-    <row r="2115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2115"/>
-    </row>
-    <row r="2116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2116"/>
-    </row>
-    <row r="2117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2117"/>
-    </row>
-    <row r="2118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2118"/>
-    </row>
-    <row r="2119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2119"/>
-    </row>
-    <row r="2120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2120"/>
-    </row>
-    <row r="2121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2121"/>
-    </row>
-    <row r="2122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2122"/>
-    </row>
-    <row r="2123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2123"/>
-    </row>
-    <row r="2124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2124"/>
-    </row>
-    <row r="2125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2125"/>
-    </row>
-    <row r="2126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2126"/>
-    </row>
-    <row r="2127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2127"/>
-    </row>
-    <row r="2128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2128"/>
-    </row>
-    <row r="2129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2129"/>
-    </row>
-    <row r="2130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2130"/>
-    </row>
-    <row r="2131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2131"/>
-    </row>
-    <row r="2132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2132"/>
-    </row>
-    <row r="2133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2133"/>
-    </row>
-    <row r="2134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2134"/>
-    </row>
-    <row r="2135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2135"/>
-    </row>
-    <row r="2136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2136"/>
-    </row>
-    <row r="2137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2137"/>
-    </row>
-    <row r="2138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2138"/>
-    </row>
-    <row r="2139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2139"/>
-    </row>
-    <row r="2140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2140"/>
-    </row>
-    <row r="2141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2141"/>
-    </row>
-    <row r="2142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2142"/>
-    </row>
-    <row r="2143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2143"/>
-    </row>
-    <row r="2144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2144"/>
-    </row>
-    <row r="2145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2145"/>
-    </row>
-    <row r="2146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2146"/>
-    </row>
-    <row r="2147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2147"/>
-    </row>
-    <row r="2148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2148"/>
-    </row>
-    <row r="2149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2149"/>
-    </row>
-    <row r="2150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2150"/>
-    </row>
-    <row r="2151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2151"/>
-    </row>
-    <row r="2152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2152"/>
-    </row>
-    <row r="2153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2153"/>
-    </row>
-    <row r="2154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2154"/>
-    </row>
-    <row r="2155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2155"/>
-    </row>
-    <row r="2156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2156"/>
-    </row>
-    <row r="2157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2157"/>
-    </row>
-    <row r="2158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2158"/>
-    </row>
-    <row r="2159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2159"/>
-    </row>
-    <row r="2160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2160"/>
-    </row>
-    <row r="2161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2161"/>
-    </row>
-    <row r="2162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2162"/>
-    </row>
-    <row r="2163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2163"/>
-    </row>
-    <row r="2164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2164"/>
-    </row>
-    <row r="2165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2165"/>
-    </row>
-    <row r="2166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2166"/>
-    </row>
-    <row r="2167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2167"/>
-    </row>
-    <row r="2168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2168"/>
-    </row>
-    <row r="2169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2169"/>
-    </row>
-    <row r="2170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2170"/>
-    </row>
-    <row r="2171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2171"/>
-    </row>
-    <row r="2172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2172"/>
-    </row>
-    <row r="2173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2173"/>
-    </row>
-    <row r="2174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2174"/>
-    </row>
-    <row r="2175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2175"/>
-    </row>
-    <row r="2176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2176"/>
-    </row>
-    <row r="2177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2177"/>
-    </row>
-    <row r="2178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2178"/>
-    </row>
-    <row r="2179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2179"/>
-    </row>
-    <row r="2180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2180"/>
-    </row>
-    <row r="2181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2181"/>
-    </row>
-    <row r="2182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2182"/>
-    </row>
-    <row r="2183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2183"/>
-    </row>
-    <row r="2184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2184"/>
-    </row>
-    <row r="2185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2185"/>
-    </row>
-    <row r="2186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2186"/>
-    </row>
-    <row r="2187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2187"/>
-    </row>
-    <row r="2188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2188"/>
-    </row>
-    <row r="2189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2189"/>
-    </row>
-    <row r="2190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2190"/>
-    </row>
-    <row r="2191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2191"/>
-    </row>
-    <row r="2192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2192"/>
-    </row>
-    <row r="2193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2193"/>
-    </row>
-    <row r="2194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2194"/>
-    </row>
-    <row r="2195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2195"/>
-    </row>
-    <row r="2196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2196"/>
-    </row>
-    <row r="2197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2197"/>
-    </row>
-    <row r="2198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2198"/>
-    </row>
-    <row r="2199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2199"/>
-    </row>
-    <row r="2200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2200"/>
-    </row>
-    <row r="2201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2201"/>
-    </row>
-    <row r="2202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2202"/>
-    </row>
-    <row r="2203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2203"/>
-    </row>
-    <row r="2204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2204"/>
-    </row>
-    <row r="2205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2205"/>
-    </row>
-    <row r="2206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2206"/>
-    </row>
-    <row r="2207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2207"/>
-    </row>
-    <row r="2208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2208"/>
-    </row>
-    <row r="2209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2209"/>
-    </row>
-    <row r="2210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2210"/>
-    </row>
-    <row r="2211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2211"/>
-    </row>
-    <row r="2212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2212"/>
-    </row>
-    <row r="2213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2213"/>
-    </row>
-    <row r="2214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2214"/>
-    </row>
-    <row r="2215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2215"/>
-    </row>
-    <row r="2216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2216"/>
-    </row>
-    <row r="2217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2217"/>
-    </row>
-    <row r="2218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2218"/>
-    </row>
-    <row r="2219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2219"/>
-    </row>
-    <row r="2220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2220"/>
-    </row>
-    <row r="2221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2221"/>
-    </row>
-    <row r="2222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2222"/>
-    </row>
-    <row r="2223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2223"/>
-    </row>
-    <row r="2224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2224"/>
-    </row>
-    <row r="2225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2225"/>
-    </row>
-    <row r="2226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2226"/>
-    </row>
-    <row r="2227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2227"/>
-    </row>
-    <row r="2228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2228"/>
-    </row>
-    <row r="2229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2229"/>
-    </row>
-    <row r="2230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2230"/>
-    </row>
-    <row r="2231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2231"/>
-    </row>
-    <row r="2232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2232"/>
-    </row>
-    <row r="2233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2233"/>
-    </row>
-    <row r="2234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2234"/>
-    </row>
-    <row r="2235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2235"/>
-    </row>
-    <row r="2236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2236"/>
-    </row>
-    <row r="2237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2237"/>
-    </row>
-    <row r="2238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2238"/>
-    </row>
-    <row r="2239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2239"/>
-    </row>
-    <row r="2240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2240"/>
-    </row>
-    <row r="2241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2241"/>
-    </row>
-    <row r="2242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2242"/>
-    </row>
-    <row r="2243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2243"/>
-    </row>
-    <row r="2244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2244"/>
-    </row>
-    <row r="2245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2245"/>
-    </row>
-    <row r="2246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2246"/>
-    </row>
-    <row r="2247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2247"/>
-    </row>
-    <row r="2248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2248"/>
-    </row>
-    <row r="2249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2249"/>
-    </row>
-    <row r="2250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2250"/>
-    </row>
-    <row r="2251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2251"/>
-    </row>
-    <row r="2252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2252"/>
-    </row>
-    <row r="2253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2253"/>
-    </row>
-    <row r="2254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2254"/>
-    </row>
-    <row r="2255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2255"/>
-    </row>
-    <row r="2256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2256"/>
-    </row>
-    <row r="2257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2257"/>
-    </row>
-    <row r="2258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2258"/>
-    </row>
-    <row r="2259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2259"/>
-    </row>
-    <row r="2260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2260"/>
-    </row>
-    <row r="2261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2261"/>
-    </row>
-    <row r="2262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2262"/>
-    </row>
-    <row r="2263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2263"/>
-    </row>
-    <row r="2264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2264"/>
-    </row>
-    <row r="2265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2265"/>
-    </row>
-    <row r="2266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2266"/>
-    </row>
-    <row r="2267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2267"/>
-    </row>
-    <row r="2268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2268"/>
-    </row>
-    <row r="2269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2269"/>
-    </row>
-    <row r="2270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2270"/>
-    </row>
-    <row r="2271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2271"/>
-    </row>
-    <row r="2272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2272"/>
-    </row>
-    <row r="2273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2273"/>
-    </row>
-    <row r="2274" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2274"/>
-    </row>
-    <row r="2275" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2275"/>
-    </row>
-    <row r="2276" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2276"/>
-    </row>
-    <row r="2277" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2277"/>
-    </row>
-    <row r="2278" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2278"/>
-    </row>
-    <row r="2279" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2279"/>
-    </row>
-    <row r="2280" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2280"/>
-    </row>
-    <row r="2281" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2281"/>
-    </row>
-    <row r="2282" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2282"/>
-    </row>
-    <row r="2283" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2283"/>
-    </row>
-    <row r="2284" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2284"/>
-    </row>
-    <row r="2285" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2285"/>
-    </row>
-    <row r="2286" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2286"/>
-    </row>
-    <row r="2287" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2287"/>
-    </row>
-    <row r="2288" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2288"/>
-    </row>
-    <row r="2289" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2289"/>
-    </row>
-    <row r="2290" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2290"/>
-    </row>
-    <row r="2291" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2291"/>
-    </row>
-    <row r="2292" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2292"/>
-    </row>
-    <row r="2293" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2293"/>
-    </row>
-    <row r="2294" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2294"/>
-    </row>
-    <row r="2295" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2295"/>
-    </row>
-    <row r="2296" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2296"/>
-    </row>
-    <row r="2297" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2297"/>
-    </row>
-    <row r="2298" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2298"/>
-    </row>
-    <row r="2299" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2299"/>
-    </row>
-    <row r="2300" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2300"/>
-    </row>
-    <row r="2301" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2301"/>
-    </row>
-    <row r="2302" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2302"/>
-    </row>
-    <row r="2303" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2303"/>
-    </row>
-    <row r="2304" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2304"/>
-    </row>
-    <row r="2305" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2305"/>
-    </row>
-    <row r="2306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2306"/>
-    </row>
-    <row r="2307" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2307"/>
-    </row>
-    <row r="2308" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2308"/>
-    </row>
-    <row r="2309" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2309"/>
-    </row>
-    <row r="2310" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2310"/>
-    </row>
-    <row r="2311" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2311"/>
-    </row>
-    <row r="2312" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2312"/>
-    </row>
-    <row r="2313" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2313"/>
-    </row>
-    <row r="2314" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2314"/>
-    </row>
-    <row r="2315" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2315"/>
-    </row>
-    <row r="2316" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2316"/>
-    </row>
-    <row r="2317" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2317"/>
-    </row>
-    <row r="2318" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2318"/>
-    </row>
-    <row r="2319" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2319"/>
-    </row>
-    <row r="2320" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2320"/>
-    </row>
-    <row r="2321" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2321"/>
-    </row>
-    <row r="2322" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2322"/>
-    </row>
-    <row r="2323" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2323"/>
-    </row>
-    <row r="2324" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2324"/>
-    </row>
-    <row r="2325" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2325"/>
-    </row>
-    <row r="2326" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2326"/>
-    </row>
-    <row r="2327" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2327"/>
-    </row>
-    <row r="2328" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2328"/>
-    </row>
-    <row r="2329" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2329"/>
-    </row>
-    <row r="2330" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2330"/>
-    </row>
-    <row r="2331" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2331"/>
-    </row>
-    <row r="2332" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2332"/>
-    </row>
-    <row r="2333" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2333"/>
-    </row>
-    <row r="2334" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2334"/>
-    </row>
-    <row r="2335" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2335"/>
-    </row>
-    <row r="2336" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2336"/>
-    </row>
-    <row r="2337" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2337"/>
-    </row>
-    <row r="2338" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2338"/>
-    </row>
-    <row r="2339" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2339"/>
-    </row>
-    <row r="2340" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2340"/>
-    </row>
-    <row r="2341" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2341"/>
-    </row>
-    <row r="2342" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2342"/>
-    </row>
-    <row r="2343" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2343"/>
-    </row>
-    <row r="2344" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2344"/>
-    </row>
-    <row r="2345" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2345"/>
-    </row>
-    <row r="2346" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2346"/>
-    </row>
-    <row r="2347" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2347"/>
-    </row>
-    <row r="2348" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2348"/>
-    </row>
-    <row r="2349" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2349"/>
-    </row>
-    <row r="2350" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2350"/>
-    </row>
-    <row r="2351" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2351"/>
-    </row>
-    <row r="2352" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2352"/>
-    </row>
-    <row r="2353" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2353"/>
-    </row>
-    <row r="2354" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2354"/>
-    </row>
-    <row r="2355" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2355"/>
-    </row>
-    <row r="2356" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2356"/>
-    </row>
-    <row r="2357" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2357"/>
-    </row>
-    <row r="2358" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2358"/>
-    </row>
-    <row r="2359" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2359"/>
-    </row>
-    <row r="2360" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2360"/>
-    </row>
-    <row r="2361" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2361"/>
-    </row>
-    <row r="2362" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2362"/>
-    </row>
-    <row r="2363" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2363"/>
-    </row>
-    <row r="2364" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2364"/>
-    </row>
-    <row r="2365" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2365"/>
-    </row>
-    <row r="2366" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2366"/>
-    </row>
-    <row r="2367" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2367"/>
-    </row>
-    <row r="2368" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2368"/>
-    </row>
-    <row r="2369" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2369"/>
-    </row>
-    <row r="2370" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2370"/>
-    </row>
-    <row r="2371" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2371"/>
-    </row>
-    <row r="2372" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2372"/>
-    </row>
-    <row r="2373" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2373"/>
-    </row>
-    <row r="2374" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2374"/>
-    </row>
-    <row r="2375" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2375"/>
-    </row>
-    <row r="2376" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2376"/>
-    </row>
-    <row r="2377" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2377"/>
-    </row>
-    <row r="2378" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2378"/>
-    </row>
-    <row r="2379" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2379"/>
-    </row>
-    <row r="2380" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2380"/>
-    </row>
-    <row r="2381" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2381"/>
-    </row>
-    <row r="2382" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2382"/>
-    </row>
-    <row r="2383" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2383"/>
-    </row>
-    <row r="2384" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2384"/>
-    </row>
-    <row r="2385" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2385"/>
-    </row>
-    <row r="2386" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2386"/>
-    </row>
-    <row r="2387" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2387"/>
-    </row>
-    <row r="2388" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2388"/>
-    </row>
-    <row r="2389" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2389"/>
-    </row>
-    <row r="2390" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2390"/>
-    </row>
-    <row r="2391" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2391"/>
-    </row>
-    <row r="2392" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2392"/>
-    </row>
-    <row r="2393" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2393"/>
-    </row>
-    <row r="2394" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2394"/>
-    </row>
-    <row r="2395" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2395"/>
-    </row>
-    <row r="2396" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2396"/>
-    </row>
-    <row r="2397" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2397"/>
-    </row>
-    <row r="2398" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2398"/>
-    </row>
-    <row r="2399" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2399"/>
-    </row>
-    <row r="2400" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2400"/>
-    </row>
-    <row r="2401" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2401"/>
-    </row>
-    <row r="2402" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2402"/>
-    </row>
-    <row r="2403" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2403"/>
-    </row>
-    <row r="2404" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2404"/>
-    </row>
-    <row r="2405" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2405"/>
-    </row>
-    <row r="2406" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2406"/>
-    </row>
-    <row r="2407" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2407"/>
-    </row>
-    <row r="2408" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2408"/>
-    </row>
-    <row r="2409" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2409"/>
-    </row>
-    <row r="2410" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2410"/>
-    </row>
-    <row r="2411" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2411"/>
-    </row>
-    <row r="2412" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2412"/>
-    </row>
-    <row r="2413" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2413"/>
-    </row>
-    <row r="2414" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2414"/>
-    </row>
-    <row r="2415" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2415"/>
-    </row>
-    <row r="2416" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2416"/>
-    </row>
-    <row r="2417" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2417"/>
-    </row>
-    <row r="2418" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2418"/>
-    </row>
-    <row r="2419" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2419"/>
-    </row>
-    <row r="2420" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2420"/>
-    </row>
-    <row r="2421" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2421"/>
-    </row>
-    <row r="2422" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2422"/>
-    </row>
-    <row r="2423" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2423"/>
-    </row>
-    <row r="2424" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2424"/>
-    </row>
-    <row r="2425" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2425"/>
-    </row>
-    <row r="2426" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2426"/>
-    </row>
-    <row r="2427" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2427"/>
-    </row>
-    <row r="2428" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2428"/>
-    </row>
-    <row r="2429" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2429"/>
-    </row>
-    <row r="2430" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2430"/>
-    </row>
-    <row r="2431" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2431"/>
-    </row>
-    <row r="2432" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2432"/>
-    </row>
-    <row r="2433" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2433"/>
-    </row>
-    <row r="2434" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2434"/>
-    </row>
-    <row r="2435" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2435"/>
-    </row>
-    <row r="2436" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2436"/>
-    </row>
-    <row r="2437" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2437"/>
-    </row>
-    <row r="2438" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2438"/>
-    </row>
-    <row r="2439" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2439"/>
-    </row>
-    <row r="2440" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2440"/>
-    </row>
-    <row r="2441" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2441"/>
-    </row>
-    <row r="2442" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2442"/>
-    </row>
-    <row r="2443" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2443"/>
-    </row>
-    <row r="2444" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2444"/>
-    </row>
-    <row r="2445" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2445"/>
-    </row>
-    <row r="2446" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2446"/>
-    </row>
-    <row r="2447" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2447"/>
-    </row>
-    <row r="2448" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2448"/>
-    </row>
-    <row r="2449" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2449"/>
-    </row>
-    <row r="2450" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2450"/>
-    </row>
-    <row r="2451" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2451"/>
-    </row>
-    <row r="2452" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2452"/>
-    </row>
-    <row r="2453" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2453"/>
-    </row>
-    <row r="2454" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2454"/>
-    </row>
-    <row r="2455" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2455"/>
-    </row>
-    <row r="2456" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2456"/>
-    </row>
-    <row r="2457" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2457"/>
-    </row>
-    <row r="2458" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2458"/>
-    </row>
-    <row r="2459" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2459"/>
-    </row>
-    <row r="2460" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2460"/>
-    </row>
-    <row r="2461" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2461"/>
-    </row>
-    <row r="2462" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2462"/>
-    </row>
-    <row r="2463" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2463"/>
-    </row>
-    <row r="2464" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2464"/>
-    </row>
-    <row r="2465" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2465"/>
-    </row>
-    <row r="2466" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2466"/>
-    </row>
-    <row r="2467" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2467"/>
-    </row>
-    <row r="2468" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2468"/>
-    </row>
-    <row r="2469" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2469"/>
-    </row>
-    <row r="2470" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2470"/>
-    </row>
-    <row r="2471" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2471"/>
-    </row>
-    <row r="2472" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2472"/>
-    </row>
-    <row r="2473" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2473"/>
-    </row>
-    <row r="2474" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2474"/>
-    </row>
-    <row r="2475" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2475"/>
-    </row>
-    <row r="2476" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2476"/>
-    </row>
-    <row r="2477" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2477"/>
-    </row>
-    <row r="2478" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2478"/>
-    </row>
-    <row r="2479" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2479"/>
-    </row>
-    <row r="2480" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2480"/>
-    </row>
-    <row r="2481" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2481"/>
-    </row>
-    <row r="2482" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2482"/>
-    </row>
-    <row r="2483" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2483"/>
-    </row>
-    <row r="2484" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2484"/>
-    </row>
-    <row r="2485" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2485"/>
-    </row>
-    <row r="2486" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2486"/>
-    </row>
-    <row r="2487" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2487"/>
-    </row>
-    <row r="2488" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2488"/>
-    </row>
-    <row r="2489" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2489"/>
-    </row>
-    <row r="2490" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2490"/>
-    </row>
-    <row r="2491" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2491"/>
-    </row>
-    <row r="2492" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2492"/>
-    </row>
-    <row r="2493" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2493"/>
-    </row>
-    <row r="2494" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2494"/>
-    </row>
-    <row r="2495" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2495"/>
-    </row>
-    <row r="2496" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2496"/>
-    </row>
-    <row r="2497" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2497"/>
-    </row>
-    <row r="2498" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2498"/>
-    </row>
-    <row r="2499" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2499"/>
-    </row>
-    <row r="2500" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2500"/>
-    </row>
-    <row r="2501" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2501"/>
-    </row>
-    <row r="2502" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2502"/>
-    </row>
-    <row r="2503" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2503"/>
-    </row>
-    <row r="2504" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2504"/>
-    </row>
-    <row r="2505" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2505"/>
-    </row>
-    <row r="2506" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2506"/>
-    </row>
-    <row r="2507" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2507"/>
-    </row>
-    <row r="2508" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2508"/>
-    </row>
-    <row r="2509" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2509"/>
-    </row>
-    <row r="2510" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2510"/>
-    </row>
-    <row r="2511" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2511"/>
-    </row>
-    <row r="2512" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2512"/>
-    </row>
-    <row r="2513" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2513"/>
-    </row>
-    <row r="2514" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2514"/>
-    </row>
-    <row r="2515" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2515"/>
-    </row>
-    <row r="2516" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2516"/>
-    </row>
-    <row r="2517" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2517"/>
-    </row>
-    <row r="2518" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2518"/>
-    </row>
-    <row r="2519" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2519"/>
-    </row>
-    <row r="2520" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2520"/>
-    </row>
-    <row r="2521" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2521"/>
-    </row>
-    <row r="2522" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2522"/>
-    </row>
-    <row r="2523" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2523"/>
-    </row>
-    <row r="2524" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2524"/>
-    </row>
-    <row r="2525" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2525"/>
-    </row>
-    <row r="2526" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2526"/>
-    </row>
-    <row r="2527" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2527"/>
-    </row>
-    <row r="2528" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2528"/>
-    </row>
-    <row r="2529" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2529"/>
-    </row>
-    <row r="2530" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2530"/>
-    </row>
-    <row r="2531" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2531"/>
-    </row>
-    <row r="2532" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2532"/>
-    </row>
-    <row r="2533" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2533"/>
-    </row>
-    <row r="2534" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2534"/>
-    </row>
-    <row r="2535" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2535"/>
-    </row>
-    <row r="2536" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2536"/>
-    </row>
-    <row r="2537" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2537"/>
-    </row>
-    <row r="2538" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2538"/>
-    </row>
-    <row r="2539" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2539"/>
-    </row>
-    <row r="2540" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2540"/>
-    </row>
-    <row r="2541" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2541"/>
-    </row>
-    <row r="2542" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2542"/>
-    </row>
-    <row r="2543" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2543"/>
-    </row>
-    <row r="2544" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2544"/>
-    </row>
-    <row r="2545" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2545"/>
-    </row>
-    <row r="2546" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2546"/>
-    </row>
-    <row r="2547" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2547"/>
-    </row>
-    <row r="2548" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2548"/>
-    </row>
-    <row r="2549" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2549"/>
-    </row>
-    <row r="2550" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2550"/>
-    </row>
-    <row r="2551" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2551"/>
-    </row>
-    <row r="2552" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2552"/>
-    </row>
-    <row r="2553" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2553"/>
-    </row>
-    <row r="2554" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2554"/>
-    </row>
-    <row r="2555" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2555"/>
-    </row>
-    <row r="2556" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2556"/>
-    </row>
-    <row r="2557" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2557"/>
-    </row>
-    <row r="2558" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2558"/>
-    </row>
-    <row r="2559" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2559"/>
-    </row>
-    <row r="2560" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2560"/>
-    </row>
-    <row r="2561" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2561"/>
-    </row>
-    <row r="2562" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2562"/>
-    </row>
-    <row r="2563" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2563"/>
-    </row>
-    <row r="2564" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2564"/>
-    </row>
-    <row r="2565" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2565"/>
-    </row>
-    <row r="2566" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2566"/>
-    </row>
-    <row r="2567" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2567"/>
-    </row>
-    <row r="2568" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2568"/>
-    </row>
-    <row r="2569" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2569"/>
-    </row>
-    <row r="2570" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2570"/>
-    </row>
-    <row r="2571" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2571"/>
-    </row>
-    <row r="2572" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2572"/>
-    </row>
-    <row r="2573" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2573"/>
-    </row>
-    <row r="2574" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2574"/>
-    </row>
-    <row r="2575" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2575"/>
-    </row>
-    <row r="2576" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2576"/>
-    </row>
-    <row r="2577" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2577"/>
-    </row>
-    <row r="2578" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2578"/>
-    </row>
-    <row r="2579" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2579"/>
-    </row>
-    <row r="2580" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2580"/>
-    </row>
-    <row r="2581" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2581"/>
-    </row>
-    <row r="2582" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2582"/>
-    </row>
-    <row r="2583" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2583"/>
-    </row>
-    <row r="2584" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2584"/>
-    </row>
-    <row r="2585" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2585"/>
-    </row>
-    <row r="2586" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2586"/>
-    </row>
-    <row r="2587" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2587"/>
-    </row>
-    <row r="2588" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2588"/>
-    </row>
-    <row r="2589" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2589"/>
-    </row>
-    <row r="2590" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2590"/>
-    </row>
-    <row r="2591" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2591"/>
-    </row>
-    <row r="2592" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2592"/>
-    </row>
-    <row r="2593" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2593"/>
-    </row>
-    <row r="2594" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2594"/>
-    </row>
-    <row r="2595" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2595"/>
-    </row>
-    <row r="2596" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2596"/>
-    </row>
-    <row r="2597" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2597"/>
-    </row>
-    <row r="2598" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2598"/>
-    </row>
-    <row r="2599" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2599"/>
-    </row>
-    <row r="2600" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2600"/>
-    </row>
-    <row r="2601" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2601"/>
-    </row>
-    <row r="2602" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2602"/>
-    </row>
-    <row r="2603" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2603"/>
-    </row>
-    <row r="2604" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2604"/>
-    </row>
-    <row r="2605" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2605"/>
-    </row>
-    <row r="2606" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2606"/>
-    </row>
-    <row r="2607" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2607"/>
-    </row>
-    <row r="2608" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2608"/>
-    </row>
-    <row r="2609" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2609"/>
-    </row>
-    <row r="2610" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2610"/>
-    </row>
-    <row r="2611" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2611"/>
-    </row>
-    <row r="2612" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2612"/>
-    </row>
-    <row r="2613" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2613"/>
-    </row>
-    <row r="2614" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2614"/>
-    </row>
-    <row r="2615" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2615"/>
-    </row>
-    <row r="2616" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2616"/>
-    </row>
-    <row r="2617" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2617"/>
-    </row>
-    <row r="2618" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2618"/>
-    </row>
-    <row r="2619" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2619"/>
-    </row>
-    <row r="2620" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2620"/>
-    </row>
-    <row r="2621" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2621"/>
-    </row>
-    <row r="2622" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2622"/>
-    </row>
-    <row r="2623" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2623"/>
-    </row>
-    <row r="2624" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2624"/>
-    </row>
-    <row r="2625" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2625"/>
-    </row>
-    <row r="2626" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2626"/>
-    </row>
-    <row r="2627" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2627"/>
-    </row>
-    <row r="2628" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2628"/>
-    </row>
-    <row r="2629" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2629"/>
-    </row>
-    <row r="2630" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2630"/>
-    </row>
-    <row r="2631" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2631"/>
-    </row>
-    <row r="2632" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2632"/>
-    </row>
-    <row r="2633" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2633"/>
-    </row>
-    <row r="2634" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2634"/>
-    </row>
-    <row r="2635" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2635"/>
-    </row>
-    <row r="2636" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2636"/>
-    </row>
-    <row r="2637" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2637"/>
-    </row>
-    <row r="2638" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2638"/>
-    </row>
-    <row r="2639" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2639"/>
-    </row>
-    <row r="2640" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2640"/>
-    </row>
-    <row r="2641" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2641"/>
-    </row>
-    <row r="2642" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2642"/>
-    </row>
-    <row r="2643" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2643"/>
-    </row>
-    <row r="2644" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2644"/>
-    </row>
-    <row r="2645" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2645"/>
-    </row>
-    <row r="2646" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2646"/>
-    </row>
-    <row r="2647" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2647"/>
-    </row>
-    <row r="2648" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2648"/>
-    </row>
-    <row r="2649" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2649"/>
-    </row>
-    <row r="2650" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2650"/>
-    </row>
-    <row r="2651" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2651"/>
-    </row>
-    <row r="2652" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2652"/>
-    </row>
-    <row r="2653" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2653"/>
-    </row>
-    <row r="2654" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2654"/>
-    </row>
-    <row r="2655" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2655"/>
-    </row>
-    <row r="2656" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2656"/>
-    </row>
-    <row r="2657" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2657"/>
-    </row>
-    <row r="2658" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2658"/>
-    </row>
-    <row r="2659" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2659"/>
-    </row>
-    <row r="2660" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2660"/>
-    </row>
-    <row r="2661" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2661"/>
-    </row>
-    <row r="2662" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2662"/>
-    </row>
-    <row r="2663" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2663"/>
-    </row>
-    <row r="2664" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2664"/>
-    </row>
-    <row r="2665" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2665"/>
-    </row>
-    <row r="2666" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2666"/>
-    </row>
-    <row r="2667" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2667"/>
-    </row>
-    <row r="2668" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2668"/>
-    </row>
-    <row r="2669" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2669"/>
-    </row>
-    <row r="2670" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2670"/>
-    </row>
-    <row r="2671" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2671"/>
-    </row>
-    <row r="2672" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2672"/>
-    </row>
-    <row r="2673" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2673"/>
-    </row>
-    <row r="2674" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2674"/>
-    </row>
-    <row r="2675" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2675"/>
-    </row>
-    <row r="2676" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2676"/>
-    </row>
-    <row r="2677" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2677"/>
-    </row>
-    <row r="2678" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2678"/>
-    </row>
-    <row r="2679" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2679"/>
-    </row>
-    <row r="2680" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2680"/>
-    </row>
-    <row r="2681" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2681"/>
-    </row>
-    <row r="2682" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2682"/>
-    </row>
-    <row r="2683" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2683"/>
-    </row>
-    <row r="2684" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2684"/>
-    </row>
-    <row r="2685" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2685"/>
-    </row>
-    <row r="2686" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2686"/>
-    </row>
-    <row r="2687" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2687"/>
-    </row>
-    <row r="2688" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2688"/>
-    </row>
-    <row r="2689" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2689"/>
-    </row>
-    <row r="2690" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2690"/>
-    </row>
-    <row r="2691" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2691"/>
-    </row>
-    <row r="2692" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2692"/>
-    </row>
-    <row r="2693" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2693"/>
-    </row>
-    <row r="2694" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2694"/>
-    </row>
-    <row r="2695" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2695"/>
-    </row>
-    <row r="2696" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2696"/>
-    </row>
-    <row r="2697" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2697"/>
-    </row>
-    <row r="2698" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2698"/>
-    </row>
-    <row r="2699" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2699"/>
-    </row>
-    <row r="2700" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2700"/>
-    </row>
-    <row r="2701" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2701"/>
-    </row>
-    <row r="2702" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2702"/>
-    </row>
-    <row r="2703" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2703"/>
-    </row>
-    <row r="2704" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2704"/>
-    </row>
-    <row r="2705" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2705"/>
-    </row>
-    <row r="2706" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2706"/>
-    </row>
-    <row r="2707" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2707"/>
-    </row>
-    <row r="2708" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2708"/>
-    </row>
-    <row r="2709" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2709"/>
-    </row>
-    <row r="2710" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2710"/>
-    </row>
-    <row r="2711" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2711"/>
-    </row>
-    <row r="2712" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2712"/>
-    </row>
-    <row r="2713" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2713"/>
-    </row>
-    <row r="2714" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2714"/>
-    </row>
-    <row r="2715" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2715"/>
-    </row>
-    <row r="2716" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2716"/>
-    </row>
-    <row r="2717" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2717"/>
-    </row>
-    <row r="2718" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2718"/>
-    </row>
-    <row r="2719" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2719"/>
-    </row>
-    <row r="2720" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2720"/>
-    </row>
-    <row r="2721" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2721"/>
-    </row>
-    <row r="2722" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2722"/>
-    </row>
-    <row r="2723" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2723"/>
-    </row>
-    <row r="2724" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2724"/>
-    </row>
-    <row r="2725" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2725"/>
-    </row>
-    <row r="2726" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2726"/>
-    </row>
-    <row r="2727" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2727"/>
-    </row>
-    <row r="2728" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2728"/>
-    </row>
-    <row r="2729" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2729"/>
-    </row>
-    <row r="2730" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2730"/>
-    </row>
-    <row r="2731" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2731"/>
-    </row>
-    <row r="2732" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2732"/>
-    </row>
-    <row r="2733" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2733"/>
-    </row>
-    <row r="2734" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2734"/>
-    </row>
-    <row r="2735" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2735"/>
-    </row>
-    <row r="2736" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2736"/>
-    </row>
-    <row r="2737" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2737"/>
-    </row>
-    <row r="2738" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2738"/>
-    </row>
-    <row r="2739" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2739"/>
-    </row>
-    <row r="2740" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2740"/>
-    </row>
-    <row r="2741" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2741"/>
-    </row>
-    <row r="2742" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2742"/>
-    </row>
-    <row r="2743" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2743"/>
-    </row>
-    <row r="2744" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2744"/>
-    </row>
-    <row r="2745" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2745"/>
-    </row>
-    <row r="2746" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2746"/>
-    </row>
-    <row r="2747" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2747"/>
-    </row>
-    <row r="2748" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2748"/>
-    </row>
-    <row r="2749" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2749"/>
-    </row>
-    <row r="2750" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2750"/>
-    </row>
-    <row r="2751" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2751"/>
-    </row>
-    <row r="2752" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2752"/>
-    </row>
-    <row r="2753" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2753"/>
-    </row>
-    <row r="2754" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2754"/>
-    </row>
-    <row r="2755" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2755"/>
-    </row>
-    <row r="2756" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2756"/>
-    </row>
-    <row r="2757" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2757"/>
-    </row>
-    <row r="2758" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2758"/>
-    </row>
-    <row r="2759" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2759"/>
-    </row>
-    <row r="2760" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2760"/>
-    </row>
-    <row r="2761" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2761"/>
-    </row>
-    <row r="2762" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2762"/>
-    </row>
-    <row r="2763" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2763"/>
-    </row>
-    <row r="2764" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2764"/>
-    </row>
-    <row r="2765" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2765"/>
-    </row>
-    <row r="2766" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2766"/>
-    </row>
-    <row r="2767" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2767"/>
-    </row>
-    <row r="2768" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2768"/>
-    </row>
-    <row r="2769" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2769"/>
-    </row>
-    <row r="2770" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2770"/>
-    </row>
-    <row r="2771" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2771"/>
-    </row>
-    <row r="2772" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2772"/>
-    </row>
-    <row r="2773" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2773"/>
-    </row>
-    <row r="2774" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2774"/>
-    </row>
-    <row r="2775" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2775"/>
-    </row>
-    <row r="2776" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2776"/>
-    </row>
-    <row r="2777" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2777"/>
-    </row>
-    <row r="2778" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2778"/>
-    </row>
-    <row r="2779" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2779"/>
-    </row>
-    <row r="2780" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2780"/>
-    </row>
-    <row r="2781" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2781"/>
-    </row>
-    <row r="2782" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2782"/>
-    </row>
-    <row r="2783" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2783"/>
-    </row>
-    <row r="2784" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2784"/>
-    </row>
-    <row r="2785" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2785"/>
-    </row>
-    <row r="2786" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2786"/>
-    </row>
-    <row r="2787" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2787"/>
-    </row>
-    <row r="2788" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2788"/>
-    </row>
-    <row r="2789" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2789"/>
-    </row>
-    <row r="2790" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2790"/>
-    </row>
-    <row r="2791" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2791"/>
-    </row>
-    <row r="2792" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2792"/>
-    </row>
-    <row r="2793" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2793"/>
-    </row>
-    <row r="2794" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2794"/>
-    </row>
-    <row r="2795" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2795"/>
-    </row>
-    <row r="2796" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2796"/>
-    </row>
-    <row r="2797" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2797"/>
-    </row>
-    <row r="2798" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2798"/>
-    </row>
-    <row r="2799" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2799"/>
-    </row>
-    <row r="2800" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2800"/>
-    </row>
-    <row r="2801" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2801"/>
-    </row>
-    <row r="2802" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2802"/>
-    </row>
-    <row r="2803" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2803"/>
-    </row>
-    <row r="2804" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2804"/>
-    </row>
-    <row r="2805" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2805"/>
-    </row>
-    <row r="2806" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2806"/>
-    </row>
-    <row r="2807" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2807"/>
-    </row>
-    <row r="2808" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2808"/>
-    </row>
-    <row r="2809" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2809"/>
-    </row>
-    <row r="2810" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2810"/>
-    </row>
-    <row r="2811" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2811"/>
-    </row>
-    <row r="2812" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2812"/>
-    </row>
-    <row r="2813" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2813"/>
-    </row>
-    <row r="2814" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2814"/>
-    </row>
-    <row r="2815" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2815"/>
-    </row>
-    <row r="2816" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2816"/>
-    </row>
-    <row r="2817" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2817"/>
-    </row>
-    <row r="2818" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2818"/>
-    </row>
-    <row r="2819" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2819"/>
-    </row>
-    <row r="2820" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2820"/>
-    </row>
-    <row r="2821" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2821"/>
-    </row>
-    <row r="2822" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2822"/>
-    </row>
-    <row r="2823" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2823"/>
-    </row>
-    <row r="2824" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2824"/>
-    </row>
-    <row r="2825" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2825"/>
-    </row>
-    <row r="2826" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2826"/>
-    </row>
-    <row r="2827" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2827"/>
-    </row>
-    <row r="2828" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2828"/>
-    </row>
-    <row r="2829" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2829"/>
-    </row>
-    <row r="2830" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2830"/>
-    </row>
-    <row r="2831" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2831"/>
-    </row>
-    <row r="2832" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2832"/>
-    </row>
-    <row r="2833" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2833"/>
-    </row>
-    <row r="2834" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2834"/>
-    </row>
-    <row r="2835" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2835"/>
-    </row>
-    <row r="2836" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2836"/>
-    </row>
-    <row r="2837" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2837"/>
-    </row>
-    <row r="2838" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2838"/>
-    </row>
-    <row r="2839" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2839"/>
-    </row>
-    <row r="2840" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2840"/>
-    </row>
-    <row r="2841" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2841"/>
-    </row>
-    <row r="2842" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2842"/>
-    </row>
-    <row r="2843" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2843"/>
-    </row>
-    <row r="2844" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2844"/>
-    </row>
-    <row r="2845" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2845"/>
-    </row>
-    <row r="2846" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2846"/>
-    </row>
-    <row r="2847" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2847"/>
-    </row>
-    <row r="2848" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2848"/>
-    </row>
-    <row r="2849" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2849"/>
-    </row>
-    <row r="2850" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2850"/>
-    </row>
-    <row r="2851" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2851"/>
-    </row>
-    <row r="2852" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2852"/>
-    </row>
-    <row r="2853" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2853"/>
-    </row>
-    <row r="2854" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2854"/>
-    </row>
-    <row r="2855" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2855"/>
-    </row>
-    <row r="2856" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2856"/>
-    </row>
-    <row r="2857" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2857"/>
-    </row>
-    <row r="2858" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2858"/>
-    </row>
-    <row r="2859" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2859"/>
-    </row>
-    <row r="2860" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2860"/>
-    </row>
-    <row r="2861" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2861"/>
-    </row>
-    <row r="2862" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2862"/>
-    </row>
-    <row r="2863" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2863"/>
-    </row>
-    <row r="2864" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2864"/>
-    </row>
-    <row r="2865" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2865"/>
-    </row>
-    <row r="2866" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2866"/>
-    </row>
-    <row r="2867" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2867"/>
-    </row>
-    <row r="2868" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2868"/>
-    </row>
-    <row r="2869" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2869"/>
-    </row>
-    <row r="2870" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2870"/>
-    </row>
-    <row r="2871" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2871"/>
-    </row>
-    <row r="2872" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2872"/>
-    </row>
-    <row r="2873" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2873"/>
-    </row>
-    <row r="2874" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2874"/>
-    </row>
-    <row r="2875" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2875"/>
-    </row>
-    <row r="2876" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2876"/>
-    </row>
-    <row r="2877" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2877"/>
-    </row>
-    <row r="2878" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2878"/>
-    </row>
-    <row r="2879" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2879"/>
-    </row>
-    <row r="2880" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2880"/>
-    </row>
-    <row r="2881" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2881"/>
-    </row>
-    <row r="2882" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2882"/>
-    </row>
-    <row r="2883" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2883"/>
-    </row>
-    <row r="2884" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2884"/>
-    </row>
-    <row r="2885" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2885"/>
-    </row>
-    <row r="2886" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2886"/>
-    </row>
-    <row r="2887" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2887"/>
-    </row>
-    <row r="2888" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2888"/>
-    </row>
-    <row r="2889" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2889"/>
-    </row>
-    <row r="2890" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2890"/>
-    </row>
-    <row r="2891" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2891"/>
-    </row>
-    <row r="2892" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2892"/>
-    </row>
-    <row r="2893" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2893"/>
-    </row>
-    <row r="2894" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2894"/>
-    </row>
-    <row r="2895" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2895"/>
-    </row>
-    <row r="2896" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2896"/>
-    </row>
-    <row r="2897" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2897"/>
-    </row>
-    <row r="2898" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2898"/>
-    </row>
-    <row r="2899" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2899"/>
-    </row>
-    <row r="2900" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2900"/>
-    </row>
-    <row r="2901" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2901"/>
-    </row>
-    <row r="2902" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2902"/>
-    </row>
-    <row r="2903" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2903"/>
-    </row>
-    <row r="2904" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2904"/>
-    </row>
-    <row r="2905" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2905"/>
-    </row>
-    <row r="2906" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2906"/>
-    </row>
-    <row r="2907" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2907"/>
-    </row>
-    <row r="2908" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2908"/>
-    </row>
-    <row r="2909" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2909"/>
-    </row>
-    <row r="2910" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2910"/>
-    </row>
-    <row r="2911" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2911"/>
-    </row>
-    <row r="2912" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2912"/>
-    </row>
-    <row r="2913" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2913"/>
-    </row>
-    <row r="2914" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2914"/>
-    </row>
-    <row r="2915" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2915"/>
-    </row>
-    <row r="2916" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2916"/>
-    </row>
-    <row r="2917" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2917"/>
-    </row>
-    <row r="2918" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2918"/>
-    </row>
-    <row r="2919" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2919"/>
-    </row>
-    <row r="2920" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2920"/>
-    </row>
-    <row r="2921" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2921"/>
-    </row>
-    <row r="2922" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2922"/>
-    </row>
-    <row r="2923" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2923"/>
-    </row>
-    <row r="2924" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2924"/>
-    </row>
-    <row r="2925" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2925"/>
-    </row>
-    <row r="2926" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2926"/>
-    </row>
-    <row r="2927" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2927"/>
-    </row>
-    <row r="2928" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2928"/>
-    </row>
-    <row r="2929" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2929"/>
-    </row>
-    <row r="2930" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2930"/>
-    </row>
-    <row r="2931" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2931"/>
-    </row>
-    <row r="2932" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2932"/>
-    </row>
-    <row r="2933" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2933"/>
-    </row>
-    <row r="2934" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2934"/>
-    </row>
-    <row r="2935" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2935"/>
-    </row>
-    <row r="2936" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2936"/>
-    </row>
-    <row r="2937" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2937"/>
-    </row>
-    <row r="2938" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2938"/>
-    </row>
-    <row r="2939" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2939"/>
-    </row>
-    <row r="2940" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2940"/>
-    </row>
-    <row r="2941" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2941"/>
-    </row>
-    <row r="2942" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2942"/>
-    </row>
-    <row r="2943" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2943"/>
-    </row>
-    <row r="2944" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2944"/>
-    </row>
-    <row r="2945" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2945"/>
-    </row>
-    <row r="2946" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2946"/>
-    </row>
-    <row r="2947" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2947"/>
-    </row>
-    <row r="2948" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2948"/>
-    </row>
-    <row r="2949" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2949"/>
-    </row>
-    <row r="2950" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2950"/>
-    </row>
-    <row r="2951" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2951"/>
-    </row>
-    <row r="2952" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2952"/>
-    </row>
-    <row r="2953" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2953"/>
-    </row>
-    <row r="2954" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2954"/>
-    </row>
-    <row r="2955" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2955"/>
-    </row>
-    <row r="2956" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2956"/>
-    </row>
-    <row r="2957" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2957"/>
-    </row>
-    <row r="2958" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2958"/>
-    </row>
-    <row r="2959" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2959"/>
-    </row>
-    <row r="2960" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2960"/>
-    </row>
-    <row r="2961" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2961"/>
-    </row>
-    <row r="2962" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2962"/>
-    </row>
-    <row r="2963" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2963"/>
-    </row>
-    <row r="2964" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2964"/>
-    </row>
-    <row r="2965" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2965"/>
-    </row>
-    <row r="2966" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2966"/>
-    </row>
-    <row r="2967" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2967"/>
-    </row>
-    <row r="2968" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2968"/>
-    </row>
-    <row r="2969" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2969"/>
-    </row>
-    <row r="2970" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2970"/>
-    </row>
-    <row r="2971" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2971"/>
-    </row>
-    <row r="2972" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2972"/>
-    </row>
-    <row r="2973" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2973"/>
-    </row>
-    <row r="2974" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2974"/>
-    </row>
-    <row r="2975" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2975"/>
-    </row>
-    <row r="2976" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2976"/>
-    </row>
-    <row r="2977" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2977"/>
-    </row>
-    <row r="2978" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2978"/>
-    </row>
-    <row r="2979" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2979"/>
-    </row>
-    <row r="2980" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2980"/>
-    </row>
-    <row r="2981" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2981"/>
-    </row>
-    <row r="2982" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2982"/>
-    </row>
-    <row r="2983" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2983"/>
-    </row>
-    <row r="2984" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2984"/>
-    </row>
-    <row r="2985" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2985"/>
-    </row>
-    <row r="2986" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2986"/>
-    </row>
-    <row r="2987" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2987"/>
-    </row>
-    <row r="2988" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2988"/>
-    </row>
-    <row r="2989" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2989"/>
-    </row>
-    <row r="2990" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2990"/>
-    </row>
-    <row r="2991" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2991"/>
-    </row>
-    <row r="2992" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2992"/>
-    </row>
-    <row r="2993" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2993"/>
-    </row>
-    <row r="2994" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2994"/>
-    </row>
-    <row r="2995" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2995"/>
-    </row>
-    <row r="2996" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2996"/>
-    </row>
-    <row r="2997" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2997"/>
-    </row>
-    <row r="2998" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2998"/>
-    </row>
-    <row r="2999" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2999"/>
-    </row>
-    <row r="3000" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3000"/>
-    </row>
-    <row r="3001" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3001"/>
-    </row>
-    <row r="3002" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3002"/>
-    </row>
-    <row r="3003" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3003"/>
-    </row>
-    <row r="3004" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3004"/>
-    </row>
-    <row r="3005" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3005"/>
-    </row>
-    <row r="3006" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3006"/>
-    </row>
-    <row r="3007" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3007"/>
-    </row>
-    <row r="3008" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3008"/>
-    </row>
-    <row r="3009" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3009"/>
-    </row>
-    <row r="3010" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3010"/>
-    </row>
-    <row r="3011" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3011"/>
-    </row>
-    <row r="3012" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3012"/>
-    </row>
-    <row r="3013" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3013"/>
-    </row>
-    <row r="3014" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3014"/>
-    </row>
-    <row r="3015" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3015"/>
-    </row>
-    <row r="3016" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3016"/>
-    </row>
-    <row r="3017" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3017"/>
-    </row>
-    <row r="3018" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3018"/>
-    </row>
-    <row r="3019" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3019"/>
-    </row>
-    <row r="3020" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3020"/>
-    </row>
-    <row r="3021" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3021"/>
-    </row>
-    <row r="3022" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3022"/>
-    </row>
-    <row r="3023" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3023"/>
-    </row>
-    <row r="3024" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3024"/>
-    </row>
-    <row r="3025" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3025"/>
-    </row>
-    <row r="3026" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3026"/>
-    </row>
-    <row r="3027" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3027"/>
-    </row>
-    <row r="3028" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3028"/>
-    </row>
-    <row r="3029" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3029"/>
-    </row>
-    <row r="3030" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3030"/>
-    </row>
-    <row r="3031" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3031"/>
-    </row>
-    <row r="3032" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3032"/>
-    </row>
-    <row r="3033" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3033"/>
-    </row>
-    <row r="3034" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3034"/>
-    </row>
-    <row r="3035" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3035"/>
-    </row>
-    <row r="3036" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3036"/>
-    </row>
-    <row r="3037" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3037"/>
-    </row>
-    <row r="3038" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3038"/>
-    </row>
-    <row r="3039" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3039"/>
-    </row>
-    <row r="3040" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3040"/>
-    </row>
-    <row r="3041" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3041"/>
-    </row>
-    <row r="3042" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3042"/>
-    </row>
-    <row r="3043" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3043"/>
-    </row>
-    <row r="3044" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3044"/>
-    </row>
-    <row r="3045" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3045"/>
-    </row>
-    <row r="3046" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3046"/>
-    </row>
-    <row r="3047" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3047"/>
-    </row>
-    <row r="3048" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3048"/>
-    </row>
-    <row r="3049" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3049"/>
-    </row>
-    <row r="3050" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3050"/>
-    </row>
-    <row r="3051" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3051"/>
-    </row>
-    <row r="3052" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3052"/>
-    </row>
-    <row r="3053" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3053"/>
-    </row>
-    <row r="3054" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3054"/>
-    </row>
-    <row r="3055" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3055"/>
-    </row>
-    <row r="3056" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3056"/>
-    </row>
-    <row r="3057" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3057"/>
-    </row>
-    <row r="3058" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3058"/>
-    </row>
-    <row r="3059" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3059"/>
-    </row>
-    <row r="3060" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3060"/>
-    </row>
-    <row r="3061" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3061"/>
-    </row>
-    <row r="3062" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3062"/>
-    </row>
-    <row r="3063" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3063"/>
-    </row>
-    <row r="3064" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3064"/>
-    </row>
-    <row r="3065" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3065"/>
-    </row>
-    <row r="3066" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3066"/>
-    </row>
-    <row r="3067" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3067"/>
-    </row>
-    <row r="3068" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3068"/>
-    </row>
-    <row r="3069" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3069"/>
-    </row>
-    <row r="3070" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3070"/>
-    </row>
-    <row r="3071" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3071"/>
-    </row>
-    <row r="3072" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3072"/>
-    </row>
-    <row r="3073" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3073"/>
-    </row>
-    <row r="3074" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3074"/>
-    </row>
-    <row r="3075" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3075"/>
-    </row>
-    <row r="3076" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3076"/>
-    </row>
-    <row r="3077" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3077"/>
-    </row>
-    <row r="3078" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3078"/>
-    </row>
-    <row r="3079" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3079"/>
-    </row>
-    <row r="3080" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3080"/>
-    </row>
-    <row r="3081" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3081"/>
-    </row>
-    <row r="3082" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3082"/>
-    </row>
-    <row r="3083" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3083"/>
-    </row>
-    <row r="3084" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3084"/>
-    </row>
-    <row r="3085" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3085"/>
-    </row>
-    <row r="3086" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3086"/>
-    </row>
-    <row r="3087" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3087"/>
-    </row>
-    <row r="3088" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3088"/>
-    </row>
-    <row r="3089" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3089"/>
-    </row>
-    <row r="3090" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3090"/>
-    </row>
-    <row r="3091" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3091"/>
-    </row>
-    <row r="3092" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3092"/>
-    </row>
-    <row r="3093" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3093"/>
-    </row>
-    <row r="3094" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3094"/>
-    </row>
-    <row r="3095" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3095"/>
-    </row>
-    <row r="3096" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3096"/>
-    </row>
-    <row r="3097" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3097"/>
-    </row>
-    <row r="3098" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3098"/>
-    </row>
-    <row r="3099" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3099"/>
-    </row>
-    <row r="3100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3100"/>
-    </row>
-    <row r="3101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3101"/>
-    </row>
-    <row r="3102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3102"/>
-    </row>
-    <row r="3103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3103"/>
-    </row>
-    <row r="3104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3104"/>
-    </row>
-    <row r="3105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3105"/>
-    </row>
-    <row r="3106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3106"/>
-    </row>
-    <row r="3107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3107"/>
-    </row>
-    <row r="3108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3108"/>
-    </row>
-    <row r="3109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3109"/>
-    </row>
-    <row r="3110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3110"/>
-    </row>
-    <row r="3111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3111"/>
-    </row>
-    <row r="3112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3112"/>
-    </row>
-    <row r="3113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3113"/>
-    </row>
-    <row r="3114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3114"/>
-    </row>
-    <row r="3115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3115"/>
-    </row>
-    <row r="3116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3116"/>
-    </row>
-    <row r="3117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3117"/>
-    </row>
-    <row r="3118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3118"/>
-    </row>
-    <row r="3119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3119"/>
-    </row>
-    <row r="3120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3120"/>
-    </row>
-    <row r="3121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3121"/>
-    </row>
-    <row r="3122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3122"/>
-    </row>
-    <row r="3123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3123"/>
-    </row>
-    <row r="3124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3124"/>
-    </row>
-    <row r="3125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3125"/>
-    </row>
-    <row r="3126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3126"/>
-    </row>
-    <row r="3127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3127"/>
-    </row>
-    <row r="3128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3128"/>
-    </row>
-    <row r="3129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3129"/>
-    </row>
-    <row r="3130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3130"/>
-    </row>
-    <row r="3131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3131"/>
-    </row>
-    <row r="3132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3132"/>
-    </row>
-    <row r="3133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3133"/>
-    </row>
-    <row r="3134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3134"/>
-    </row>
-    <row r="3135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3135"/>
-    </row>
-    <row r="3136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3136"/>
-    </row>
-    <row r="3137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3137"/>
-    </row>
-    <row r="3138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3138"/>
-    </row>
-    <row r="3139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3139"/>
-    </row>
-    <row r="3140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3140"/>
-    </row>
-    <row r="3141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3141"/>
-    </row>
-    <row r="3142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3142"/>
-    </row>
-    <row r="3143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3143"/>
-    </row>
-    <row r="3144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3144"/>
-    </row>
-    <row r="3145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3145"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:M421" xr:uid="{18068277-4716-4691-B560-92987FEB33E6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H544">
-    <sortCondition ref="A2:A544"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H421">
+    <sortCondition ref="A2:A421"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E4 E7:E8 E11:E13 E15:E23 E25:E35 E38 E41:E100 E102:E118 E121:E144 E146:E173 E175 E177:E197 E199:E217 E219:E236 E238 E241:E250 E252 E255:E263 E266 E270:E276 E278:E286 E289:E304 E307:E323 E325:E357 E360:E376 F377:G377 F381:G381 I382:I384 F385:G391 F395:G396 E397:E410 E412 E415:E416 E419:E421 E3146:E1048576">
+  <conditionalFormatting sqref="E1:E4 E7:E8 E11:E13 E15:E23 E25:E35 E38 E41:E100 E102:E118 E121:E144 E146:E173 E175 E177:E197 E199:E217 E219:E236 E238 E241:E250 E252 E255:E263 E266 E270:E276 E278:E286 E289:E304 E307:E323 E325:E357 E360:E376 F377:G377 F381:G381 I382:I384 F385:G391 F395:G396 E397:E410 E412 E415:E416 E419:E421">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24358,7 +16106,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId421"/>
-  <drawing r:id="rId422"/>
 </worksheet>
 </file>
 
@@ -25252,12 +16999,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25419,15 +17163,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25451,17 +17206,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>